--- a/spreadsheet/macrofree/sap_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ko.xlsx
@@ -1668,12 +1668,12 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
@@ -1718,12 +1718,12 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
@@ -1768,7 +1768,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1814,12 +1814,12 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
@@ -1865,7 +1865,7 @@
       <c r="H25" s="15" t="n"/>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
@@ -1910,12 +1910,12 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
@@ -1961,7 +1961,7 @@
       <c r="H27" s="15" t="n"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
@@ -2051,7 +2051,7 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
@@ -2096,7 +2096,7 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
@@ -2141,7 +2141,7 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
@@ -2232,7 +2232,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2278,7 +2278,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2370,12 +2370,12 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
@@ -2403,13 +2403,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>밀접하게 결합된 애플리케이션을 동일한 SAP 서브스크립션으로 통합하여 추가적인 라우팅 및 관리 복잡성을 방지합니다.</t>
+          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성을 방지합니다.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2420,12 +2420,12 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
@@ -2459,7 +2459,7 @@
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2470,12 +2470,12 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
@@ -2509,7 +2509,7 @@
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2520,12 +2520,12 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
@@ -2553,13 +2553,13 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>필요한 서비스 및 기능을 선택한 배포 지역 내에서 사용할 수 있는지 확인합니다. ANF, 구역 등</t>
+          <t>할당량 API는 Azure 서비스에 대한 할당량을 보고 관리하는 데 사용할 수 있는 REST API입니다. 필요한 경우 사용을 고려하십시오.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2570,19 +2570,15 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2603,13 +2599,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>비용 분류 및 리소스 그룹화(: BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, ProjectName)에 Azure 리소스 태그 활용</t>
+          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 사용하여 지원 요청을 제출합니다.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2620,7 +2616,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2628,7 +2624,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2649,13 +2645,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>필요한 서비스 및 기능을 선택한 배포 지역 내에서 사용할 수 있는지 확인합니다. ANF, 구역 등</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2666,15 +2662,19 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I42" s="15" t="n"/>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+        </is>
+      </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>비용 분류 및 리소스 그룹화(: BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, ProjectName)에 Azure 리소스 태그 활용</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2712,15 +2712,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ko.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>ASCS 및 데이터베이스 클러스터를 단일/동일한 VM에 결합하지 마세요.</t>
+          <t>ASCS와 데이터베이스 클러스터를 단일/동일한 VM에 결합하지 마세요.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>부하 분산 장치에서 부동 IP가 활성화되어 있는지 확인합니다.</t>
+          <t>로드 밸런서에서 유동 IP가 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>동일한 가용성 집합에서 서로 다른 역할의 서버를 혼합하지 마세요. 중앙 서비스 VM, 데이터베이스 VM, 애플리케이션 VM을 자체 가용성 집합에 유지합니다</t>
+          <t>동일한 가용성 집합에 서로 다른 역할의 서버를 혼합하지 마십시오. 중앙 서비스 VM, 데이터베이스 VM, 애플리케이션 VM을 자체 가용성 집합으로 유지</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Azure는 현재 동일한 Linux Pacemaker 클러스터에서 ASCS와 db HA를 결합하는 것을 지원하지 않습니다. 개별 클러스터로 분리합니다. 그러나 최대 5개의 여러 중앙 서비스 클러스터를 한 쌍의 VM으로 결합할 수 있습니다.</t>
+          <t>Azure는 현재 동일한 Linux Pacemaker 클러스터에서 ASCS와 db HA의 결합을 지원하지 않습니다. 개별 클러스터로 분리합니다. 그러나 최대 5개의 여러 중앙 서비스 클러스터를 한 쌍의 VM으로 결합할 수 있습니다.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>HA 쌍의 두 VM은 모두 가용성 집합에 배포되거나 가용성 영역의 크기와 스토리지 구성이 동일해야 합니다</t>
+          <t>HA 쌍의 두 VM이 모두 가용성 집합에 배포되거나 가용성 영역의 크기와 스토리지 구성이 동일해야 합니다</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>RTO를 충족하는 특정 시점 및 시간 프레임에서 프로덕션 데이터베이스에 대한 특정 시점 복구를 수행합니다. 특정 시점 복구에는 일반적으로 DBMS 계층 또는 SAP를 통해 데이터를 삭제하는 운영자 오류가 포함됩니다</t>
+          <t>RTO를 충족하는 시점과 시간 프레임에서 프로덕션 데이터베이스에 대한 특정 시점으로 복구를 수행합니다. 특정 시점 복구에는 일반적으로 DBMS 계층 또는 SAP를 통해 데이터를 삭제하는 운영자 오류가 포함됩니다</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>주 VNet(가상 네트워크)에 대한 CIDR은 DR 사이트 Vnet의 CIDR과 충돌하거나 겹치지 않아야 합니다</t>
+          <t>기본 VNet(가상 네트워크)에 대한 CIDR은 DR 사이트 Vnet의 CIDR과 충돌하거나 겹치지 않아야 합니다</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 원칙 전파 적용Enforce Principle propagation for forwarding the identity from SAP cloud application to SAP on-premises (including IaaS) through cloud connector</t>
+          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 원칙 전파 적용</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 Azure AD에서 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>SAML을 사용하여 Azure AD로 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 SAP NetWeaver 기반 웹 애플리케이션(예: SAP Fiori 및 SAP Web GUI)에 대한 SSO를 구현합니다.</t>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 SAP NetWeaver 기반 웹 애플리케이션(예: SAP Fiori 및 SAP Web GUI)에 대한 SSO를 구현합니다.</t>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI 및 웹 브라우저 액세스에 대한 SSO의 경우 구성 및 유지 관리가 용이하기 때문에 SNC – Kerberos/SPNEGO(단순하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 사용하는 것이 좋습니다.</t>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC – Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려하십시오.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI 및 웹 브라우저 액세스에 대한 SSO의 경우 구성 및 유지 관리가 용이하기 때문에 SNC – Kerberos/SPNEGO(단순하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 사용하는 것이 좋습니다.</t>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC – Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려하십시오.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>OAuth for SAP NetWeaver를 사용하여 SSO를 구현하면 타사 또는 사용자 지정 애플리케이션이 SAP NetWeaver OData 서비스에 액세스할 수 있습니다.</t>
+          <t>SAP NetWeaver용 OAuth를 사용하여 SSO를 구현하여 타사 또는 사용자 지정 애플리케이션이 SAP NetWeaver OData 서비스에 액세스할 수 있도록 합니다.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>RISE에서 호스트되는 SAP 시스템에 대한 ID 공급자인 Azure AD를 고려합니다. 자세한 내용은 Azure AD와 서비스 통합을 참조하세요.</t>
+          <t>Azure AD를 RISE에서 호스트되는 SAP 시스템의 ID 공급자로 간주합니다. 자세한 내용은 Azure AD와 서비스 통합을 참조하세요.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 인증 요청을 전달할 수 있습니다.</t>
+          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 인증 요청을 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 전달할 수 있습니다.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD에서 지원하는 다른 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소 쓰기 저장을 사용합니다.</t>
+          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2343,7 +2343,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>SAP 구독에 기존 관리 그룹 정책 적용Enforce existing Management Group policies to SAP Subscriptions</t>
+          <t>SAP 구독에 기존 관리 그룹 정책 적용</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2393,7 +2393,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성을 방지합니다.</t>
+          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성 방지</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2443,7 +2443,7 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">구독을 배율 단위로 활용하고 리소스를 확장하려면 환경별로 구독을 배포하는 것이 좋습니다. 샌드박스, 비프로덕션, 프로덕션(prod) </t>
+          <t xml:space="preserve">구독을 배율 단위로 활용하고 리소스를 확장하고, 예를 들어 환경별로 구독을 배포하는 것이 좋습니다. 샌드박스, 비프로덕션, 프로덕션 </t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2493,7 +2493,7 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>구독 프로비저닝의 일부로 할당량 증가를 확인합니다(예: 구독 내에서 사용 가능한 총 VM 코어).</t>
+          <t>구독 프로비저닝의 일부로 할당량 증가 확인(예: 구독 내에서 사용 가능한 총 VM 코어)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2543,7 +2543,7 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
@@ -2635,7 +2635,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>필요한 서비스 및 기능을 선택한 배포 지역 내에서 사용할 수 있는지 확인합니다. ANF, 구역 등</t>
+          <t>예를 들어 선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다. ANF, 지역 등.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2685,7 +2685,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>비용 분류 및 리소스 그룹화(: BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, ProjectName)에 Azure 리소스 태그 활용</t>
+          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, 프로젝트 이름)</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2740,18 +2740,18 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>SAP Solution Manager 및 SAP 솔루션용 Azure Monitor를 사용하여 SAP HANA, 고가용성 SUSE 클러스터 및 SQL 시스템 모니터링</t>
+          <t>Azure Backup 서비스를 사용하여 HANA 데이터베이스를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2760,13 +2760,21 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="n"/>
-      <c r="I44" s="15" t="n"/>
+      <c r="H44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2782,12 +2790,12 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>SAP용 VM 확장 검사를 실행합니다. SAP용 VM 확장은 가상 머신의 할당된 관리 ID를 사용하여 VM 모니터링 및 구성 데이터에 액세스합니다.</t>
+          <t>HANA, Oracle 또는 DB2 데이터베이스용 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2804,19 +2812,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2832,18 +2835,18 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수 및 빠른 위반 검색을 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>운영 체제와 SAP 시스템 간의 표준 시간대 일치를 확인합니다.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2854,19 +2857,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2882,12 +2881,12 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup 서비스를 사용하여 HANA 데이터베이스를 보호합니다. HANA 데이터베이스에 ANF(Azure NetApp Files)를 배포하는 경우 AzAcSnap(Azure 애플리케이션 일치 스냅샷 도구)을 사용하여 애플리케이션 일치 스냅샷을 만듭니다</t>
+          <t>동일한 클러스터에서 서로 다른 애플리케이션 서비스를 그룹화하지 마세요. 예를 들어 DRBD와 중앙 서비스 클러스터를 동일한 클러스터에 결합하지 마세요. 그러나 동일한 Pacemaker 클러스터를 사용하여 약 5개의 서로 다른 중앙 서비스(다중 SID 클러스터)를 관리할 수 있습니다.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2904,19 +2903,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2932,18 +2931,18 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>프로비전된 Azure 인프라에서 SAP HANA에 대한 품질 검사를 수행하여 프로비전된 VM이 Azure의 SAP HANA 모범 사례를 준수하는지 확인합니다.</t>
+          <t>Azure 실행 비용을 절감하고 최적화하기 위해 다시 알림 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2954,19 +2953,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2982,12 +2976,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher 연결 모니터를 사용하여 SAP 데이터베이스 및 애플리케이션 서버 대기 시간 메트릭을 모니터링하거나 Azure Monitor를 사용하여 네트워크 대기 시간 측정값을 수집하고 표시합니다.</t>
+          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 제어권을 고객에게 부여합니다.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3004,19 +2998,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3032,12 +3021,12 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>SAP Landscape Management(LaMa)를 사용하여 SAP Basis 운영을 최적화하고 관리합니다. Azure용 SAP LaMa 커넥터를 사용하여 SAP 시스템을 재배치, 복사, 복제 및 새로 고칩니다.</t>
+          <t>Azure Update Manager를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3054,19 +3043,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3082,18 +3071,18 @@
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>각 Azure 구독에 대해 영역 배포 전에 Azure 가용성 영역 대기 시간 테스트를 실행하여 Azure의 SAP 배포에 대해 대기 시간이 짧은 영역을 선택합니다.</t>
+          <t>SAP Landscape Management(LaMa)를 사용하여 SAP Basis 운영을 최적화하고 관리합니다. Azure용 SAP LaMa 커넥터를 사용하여 SAP 시스템을 재배치, 복사, 복제 및 새로 고칩니다.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3104,15 +3093,19 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3133,7 +3126,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Sentinel을 사용하여 SAP에 대한 위협 방지를 구현합니다.</t>
+          <t>SAP용 Azure Monitor 솔루션을 사용하여 Azure에서 SAP 워크로드(SAP HANA, 고가용성 SUSE 클러스터 및 SQL 시스템)를 모니터링합니다. SAP Solution Manager를 사용하여 SAP용 Azure Monitor 솔루션을 보완하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3150,15 +3143,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3179,13 +3176,13 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>정책을 통해 업데이트 관리 구성을 적용하면 모든 VM이 패치 관리 체계에 포함되고, 애플리케이션 팀에 VM에 대한 패치 배포를 관리할 수 있는 기능이 제공되며, 중앙 IT에 모든 VM에 대한 가시성 및 적용 기능이 제공됩니다</t>
+          <t>SAP용 VM 확장 검사를 실행합니다. SAP용 VM 확장은 VM(가상 머신)의 할당된 관리 ID를 사용하여 VM 모니터링 및 구성 데이터에 액세스합니다. 이 검사는 SAP 애플리케이션의 모든 성능 메트릭이 기본 SAP용 Azure 확장에서 제공되는지 확인합니다.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3196,14 +3193,19 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3224,7 +3226,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>SAP 워크로드를 실행하는 VM에 대해 VM Insights를 사용하도록 설정합니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3241,15 +3243,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
-        </is>
-      </c>
-      <c r="I54" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3270,7 +3276,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure 태그 지정을 활용하여 리소스를 논리적으로 그룹화 및 추적하고, 배포를 자동화하고, 가장 중요한 것은 발생한 비용에 대한 가시성을 제공할 수 있습니다.</t>
+          <t>Azure Network Watcher의 연결 모니터를 사용하여 SAP 데이터베이스 및 애플리케이션 서버에 대한 대기 시간 메트릭을 모니터링합니다. 또는 Azure Monitor를 사용하여 네트워크 대기 시간 측정값을 수집하고 표시합니다.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3287,14 +3293,19 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3315,13 +3326,13 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3332,14 +3343,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3350,17 +3366,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>HTTP/S 앱을 안전하게 전달하려면 Application Gateway v2를 사용하고 WAF 보호 및 정책을 사용하도록 설정해야 합니다.</t>
+          <t>프로비저닝된 Azure 인프라에서 SAP HANA에 대한 품질 검사를 수행하여 프로비저닝된 VM이 Azure의 SAP HANA 모범 사례를 준수하는지 확인합니다.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3377,19 +3393,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3400,23 +3411,23 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 방법입니다</t>
+          <t>각 Azure 구독에 대해 영역 배포 전에 Azure 가용성 영역에서 대기 시간 테스트를 실행하여 Azure에서 SAP를 배포하기 위한 대기 시간이 짧은 영역을 선택합니다.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3427,19 +3438,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3450,17 +3461,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>SAP 워크로드를 실행하는 VM에 대한 공용 IP 할당은 권장되지 않습니다.</t>
+          <t>복원력 보고서를 실행하여 프로비저닝된 전체 Azure 인프라(컴퓨팅, 데이터베이스, 네트워킹, 스토리지, Site Recovery)의 구성이 Azure용 클라우드 적응 프레임워크에서 정의한 구성을 준수하는지 확인합니다.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3477,19 +3488,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3500,17 +3511,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>ASR을 구성할 때 DR 측에서 IP 주소를 예약하는 것이 좋습니다</t>
+          <t>SAP용 Microsoft Sentinel 솔루션을 사용하여 위협 방지를 구현합니다. 이 솔루션을 사용하여 SAP 시스템을 모니터링하고 비즈니스 로직 및 애플리케이션 계층 전체에서 정교한 위협을 탐지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3527,19 +3538,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3550,17 +3561,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 사이트와 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>Azure 태그 지정을 활용하여 리소스를 논리적으로 그룹화 및 추적하고, 배포를 자동화하고, 가장 중요한 것은 발생한 비용에 대한 가시성을 제공할 수 있습니다.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3577,19 +3588,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3600,23 +3611,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>해당하는 모든 VM에 대해 가속화된 네트워킹을 사용할 수 있는지 확인합니다.</t>
+          <t>대기 시간에 민감한 애플리케이션에 대해 VM 간 대기 시간 모니터링을 사용합니다.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3627,19 +3638,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3650,17 +3656,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에서 필요한 경우)을 제어합니다.</t>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3677,19 +3683,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3700,17 +3706,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>SAP Web Apps에 대한 역방향 프록시 제한을 극복하기 위해 필요한 경우 SAP Web Dispatcher 또는 NetScaler와 같은 타사 서비스를 Application Gateway와 함께 사용합니다.</t>
+          <t>모든 데이터베이스 파일 시스템 및 실행 프로그램을 바이러스 백신 검사에서 제외합니다. 이를 포함하면 성능 문제가 발생할 수 있습니다. 제외 목록에 대한 규범적 세부 정보는 데이터베이스 공급업체에 문의하십시오. 예를 들어 &lt;sid&gt;Oracle은 바이러스 백신 검사에서 /oracle//sapdata를 제외할 것을 권장합니다.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3727,19 +3733,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3750,23 +3752,23 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 간에 전역 보호를 제공합니다.</t>
+          <t>마이그레이션 후 비 HANA 데이터베이스에 대한 전체 데이터베이스 통계를 수집하는 것이 좋습니다. 예를 들어 SAP Note 1020260 - Oracle 통계 제공을 구현합니다.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3777,19 +3779,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3800,17 +3798,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
+          <t>Azure에서 SAP를 사용하는 모든 Oracle 배포에 Oracle ASM(Automatic Storage Management)을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3827,19 +3825,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3850,17 +3848,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
+          <t>Oracle을 실행하는 Azure의 SAP의 경우 SQL 스크립트 컬렉션은 성능 문제를 진단하는 데 도움이 될 수 있습니다.  AWR(Automatic Workload Repository) 보고서에는 Oracle 시스템의 문제점을 진단하는 데 유용한 정보가 포함되어 있습니다. 여러 세션 동안 AWR 보고서를 실행하고 피크 시간을 선택하여 광범위한 분석 범위를 보장하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3877,19 +3875,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3905,12 +3903,12 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>파스 보안</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer에 대한 내부 배포가 DBMS 계층의 HA 구성에 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>HTTP/S 앱을 안전하게 배달하려면 Application Gateway v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3925,13 +3923,21 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="n"/>
-      <c r="I68" s="15" t="n"/>
+      <c r="H68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3947,12 +3953,12 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>DNS (영문)</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>SAP 배포에 Azure NetApp Files를 사용하는 경우 Azure NetAppFiles용 Vnet에 하나의 대리자 서브넷만 존재할 수 있는지 확인합니다</t>
+          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 인식하는 경우에만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3969,19 +3975,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3997,12 +4003,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>DNS (영문)</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 SAP 애플리케이션 계층 내에서 트래픽을 마이크로 세그먼트(예: 앱 서브넷, DB 서브넷 및 웹 서브넷 등)합니다.</t>
+          <t>서로 다른 DNS 영역을 사용하여 각 환경(샌드박스, 개발, 사전 프로덕션 및 프로덕션)을 서로 구분합니다. 예외는 자체 VNet을 사용하는 SAP 배포의 경우입니다. 여기서는 프라이빗 DNS 영역이 필요하지 않을 수 있습니다.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4019,19 +4025,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4047,12 +4053,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션과 SAP 데이터베이스 서버 간에 NVA를 배포하는 것은 지원되지 않습니다</t>
+          <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 접근 방식입니다</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4069,19 +4075,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4097,18 +4103,18 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션 계층과 SAP DBMS를 피어링되지 않은 다른 Azure VNet에 배치하는 것은 지원되지 않습니다</t>
+          <t>SAP 애플리케이션과 SAP 데이터베이스 서버 간에 NVA를 배포하는 것은 지원되지 않습니다</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4117,13 +4123,21 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="n"/>
-      <c r="I72" s="15" t="n"/>
+      <c r="H72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2731110</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4139,12 +4153,12 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션에서 네트워크 대기 시간을 최적화하려면 Azure 근접 배치 그룹을 사용하는 것이 좋습니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4159,13 +4173,21 @@
         </is>
       </c>
       <c r="G73" s="21" t="n"/>
-      <c r="H73" s="15" t="n"/>
-      <c r="I73" s="15" t="n"/>
+      <c r="H73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4176,23 +4198,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>우발적인 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+          <t>파트너 NVA를 사용하는 경우에만 지역 간에 NVA(네트워크 가상 어플라이언스)를 배포하는 것이 좋습니다. 네이티브 NVA가 있는 경우 지역 또는 VNet 간의 NVA가 필요하지 않습니다. 파트너 네트워킹 기술 및 NVA를 배포하는 경우 공급업체의 지침에 따라 Azure 네트워킹과 충돌하는 구성을 확인합니다.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4203,15 +4225,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4222,17 +4248,17 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+          <t>Virtual WAN은 가상 WAN 기반 토폴로지에 대한 스포크 VNet 간의 연결을 관리하며(UDR[사용자 정의 라우팅] 또는 NVA를 설정할 필요 없음) 동일한 가상 허브의 VNet 간 트래픽에 대한 최대 네트워크 처리량은 초당 50기가비트입니다. 필요한 경우 SAP 랜딩 존은 VNet 피어링을 사용하여 다른 랜딩 존에 연결하고 이 대역폭 제한을 극복할 수 있습니다.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4249,15 +4275,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4268,23 +4298,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>SAP 데이터베이스 서버 암호화의 경우 SAP HANA 네이티브 암호화 기술을 사용합니다. Azure SQL Database를 사용하는 경우 DBMS 공급자가 제공하는 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
+          <t>SAP 워크로드를 실행하는 VM에 대한 공용 I.P 할당은 권장되지 않습니다.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4295,15 +4325,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4314,23 +4348,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage 암호화는 기본적으로 사용하도록 설정됩니다</t>
+          <t>ASR을 구성할 때 DR 쪽에서 I.P 주소를 예약하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4341,15 +4375,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="n"/>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4360,23 +4398,23 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4387,15 +4425,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I78" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4406,17 +4448,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 위임된 서브넷이 하나만 존재할 수 있습니다. Azure NetApp Files에 위임된 서브넷을 두 개 이상 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4433,15 +4475,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I79" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+        </is>
+      </c>
+      <c r="I79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+        </is>
+      </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4452,23 +4498,23 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4479,15 +4525,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4498,17 +4548,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다</t>
+          <t>필요한 경우 Application Gateway와 함께 SAP Web Dispatcher 또는 NetScaler와 같은 타사 서비스를 사용하여 SAP Web Apps에 대한 역방향 프록시 제한을 극복합니다.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4523,17 +4573,13 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
-        </is>
-      </c>
+      <c r="H81" s="15" t="n"/>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4544,17 +4590,17 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault 프로비전합니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4571,15 +4617,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4590,17 +4640,17 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
+          <t>Azure Front Door 및 Application Gateway를 사용하여 HTTP/S 애플리케이션을 보호하는 경우 Azure Front Door의 Web Application Firewall 정책을 활용합니다. Azure Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4617,15 +4667,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4636,17 +4690,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Microsoft Defender for Cloud Standard를 사용하도록 설정하는 경우 엔드포인트 보호를 설치하는 정책에서 SAP 데이터베이스 서버를 제외해야 합니다.</t>
+          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4663,15 +4717,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4682,17 +4740,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4709,15 +4767,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4728,17 +4790,17 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>타사 보안 제품을 SAP GUI(SECURE NETWORK COMMUNICATIONS) FOR DIAG(SAP GUI), RFC 및 SPNEGO for HTTPS와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+          <t>데이터 유출을 방지하려면 Azure Private Link를 사용하여 Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory 등과 같은 PaaS(Platform as a Service) 리소스에 안전하게 액세스합니다. Azure 프라이빗 엔드포인트는 VNet과 Azure Storage, Azure Backup 등과 같은 서비스 간의 트래픽을 보호하는 데도 도움이 될 수 있습니다. VNet과 프라이빗 엔드포인트 지원 서비스 간의 트래픽은 Microsoft 글로벌 네트워크를 통해 이동하므로 공용 인터넷에 노출되지 않습니다.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4755,15 +4817,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4774,23 +4840,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>SAML 2.0을 사용하는 Azure AD(Azure Active Directory)는 SAP NetWeaver, SAP HANA 및 SAP Cloud Platform과 같은 다양한 SAP 애플리케이션 및 플랫폼에 SSO를 제공할 수도 있습니다</t>
+          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4801,15 +4867,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4820,17 +4890,17 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>SAP 데이터베이스에 대한 공격으로 이어질 수 있는 취약성을 근절하기 위해 운영 체제를 강화해야 합니다.</t>
+          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4847,15 +4917,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4866,17 +4940,17 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 Microsoft 관리형 키로 기본 설정되고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간에 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 보안을 관리하는 데 도움이 되도록 가상 머신을 그룹화합니다.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4893,15 +4967,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4912,23 +4990,23 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>지역별 환경별로 애플리케이션별로 Azure Key Vault를 사용합니다.</t>
+          <t>피어링되지 않은 다른 Azure VNet에 SAP 애플리케이션 계층 및 SAP DBMS를 배치하는 것은 지원되지 않습니다.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4939,15 +5017,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4958,17 +5040,17 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SAP 애플리케이션에서 네트워크 대기 시간을 최적화하려면 Azure 근접 배치 그룹을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4985,15 +5067,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5004,23 +5090,23 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>보관</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Oracle, SQL, HANA에 대한 디스크 구성</t>
+          <t>온-프레미스와 Azure 간에 분할된 SAP 애플리케이션 서버 계층 및 DBMS 계층을 실행하는 것은 전혀 지원되지 않습니다. 두 계층 모두 온-프레미스 또는 Azure에 완전히 상주해야 합니다.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5029,13 +5115,21 @@
         </is>
       </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="n"/>
-      <c r="I92" s="15" t="n"/>
+      <c r="H92" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5044,389 +5138,1064 @@
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>네트워크 토폴로지 및 연결</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr">
+        <is>
+          <t>세분화</t>
+        </is>
+      </c>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 SAP 시스템의 DBMS(데이터베이스 관리 시스템) 및 애플리케이션 계층을 서로 다른 VNet에 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내에서 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
-      <c r="I93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>네트워크 토폴로지 및 연결</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr">
+        <is>
+          <t>세분화</t>
+        </is>
+      </c>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
-      <c r="I94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>네트워크 토폴로지 및 연결</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr">
+        <is>
+          <t>세분화</t>
+        </is>
+      </c>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="n"/>
-      <c r="I95" s="15" t="n"/>
+      <c r="H95" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I95" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>네트워크 토폴로지 및 연결</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr">
+        <is>
+          <t>세분화</t>
+        </is>
+      </c>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
+        </is>
+      </c>
       <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr">
+        <is>
+          <t>지배구조</t>
+        </is>
+      </c>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+        </is>
+      </c>
       <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
-      <c r="H97" s="15" t="n"/>
+      <c r="H97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B98" s="21" t="inlineStr">
+        <is>
+          <t>지배구조</t>
+        </is>
+      </c>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+        </is>
+      </c>
       <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="n"/>
+      <c r="H98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr">
+        <is>
+          <t>지배구조</t>
+        </is>
+      </c>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>SAP 데이터베이스 서버 암호화의 경우 SAP HANA 네이티브 암호화 기술을 사용합니다. Azure SQL Database를 사용하는 경우 DBMS 공급자가 제공하는 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
+        </is>
+      </c>
       <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
-      <c r="H99" s="15" t="n"/>
+      <c r="H99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B100" s="21" t="inlineStr">
+        <is>
+          <t>지배구조</t>
+        </is>
+      </c>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>Azure Storage 암호화는 기본적으로 사용하도록 설정되어 있습니다</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="n"/>
+      <c r="H100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr">
+        <is>
+          <t>지배구조</t>
+        </is>
+      </c>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="n"/>
+      <c r="H101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr">
+        <is>
+          <t>지배구조</t>
+        </is>
+      </c>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="n"/>
+      <c r="H102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+        </is>
+      </c>
       <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
-      <c r="H103" s="15" t="n"/>
+      <c r="H103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다</t>
+        </is>
+      </c>
       <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="n"/>
+      <c r="H104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+        </is>
+      </c>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+        </is>
+      </c>
       <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
+        </is>
+      </c>
       <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>SAP용 클라우드용 Microsoft Defender 표준을 사용하도록 설정하는 경우 엔드포인트 보호를 설치하는 정책에서 SAP 데이터베이스 서버를 제외해야 합니다.</t>
+        </is>
+      </c>
       <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="n"/>
-      <c r="B108" s="21" t="n"/>
-      <c r="C108" s="21" t="n"/>
+      <c r="A108" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B108" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C108" s="21" t="inlineStr">
+        <is>
+          <t>Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+        </is>
+      </c>
       <c r="D108" s="21" t="n"/>
-      <c r="E108" s="21" t="n"/>
+      <c r="E108" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="n"/>
+      <c r="H108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="n"/>
+      <c r="L108" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="n"/>
-      <c r="B109" s="21" t="n"/>
-      <c r="C109" s="21" t="n"/>
+      <c r="A109" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B109" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C109" s="21" t="inlineStr">
+        <is>
+          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+        </is>
+      </c>
       <c r="D109" s="21" t="n"/>
-      <c r="E109" s="21" t="n"/>
+      <c r="E109" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="n"/>
+      <c r="H109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="n"/>
+      <c r="L109" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="n"/>
-      <c r="B110" s="21" t="n"/>
-      <c r="C110" s="21" t="n"/>
+      <c r="A110" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B110" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C110" s="21" t="inlineStr">
+        <is>
+          <t>SAML 2.0을 사용하는 Azure AD(Azure Active Directory)는 SAP NetWeaver, SAP HANA 및 SAP Cloud Platform과 같은 다양한 SAP 애플리케이션 및 플랫폼에 SSO를 제공할 수도 있습니다</t>
+        </is>
+      </c>
       <c r="D110" s="21" t="n"/>
-      <c r="E110" s="21" t="n"/>
+      <c r="E110" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="n"/>
+      <c r="H110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="n"/>
+      <c r="L110" s="25" t="inlineStr">
+        <is>
+          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+        </is>
+      </c>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="n"/>
-      <c r="B111" s="21" t="n"/>
-      <c r="C111" s="21" t="n"/>
+      <c r="A111" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B111" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C111" s="21" t="inlineStr">
+        <is>
+          <t>SAP 데이터베이스에 대한 공격으로 이어질 수 있는 취약성을 근절하기 위해 운영 체제를 강화해야 합니다.</t>
+        </is>
+      </c>
       <c r="D111" s="21" t="n"/>
-      <c r="E111" s="21" t="n"/>
+      <c r="E111" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="n"/>
+      <c r="H111" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="n"/>
+      <c r="L111" s="25" t="inlineStr">
+        <is>
+          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+        </is>
+      </c>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="n"/>
-      <c r="B112" s="21" t="n"/>
-      <c r="C112" s="21" t="n"/>
+      <c r="A112" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B112" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C112" s="21" t="inlineStr">
+        <is>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+        </is>
+      </c>
       <c r="D112" s="21" t="n"/>
-      <c r="E112" s="21" t="n"/>
+      <c r="E112" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="n"/>
+      <c r="H112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="n"/>
+      <c r="L112" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
       <c r="P112" s="25" t="n"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="21" t="n"/>
-      <c r="B113" s="21" t="n"/>
-      <c r="C113" s="21" t="n"/>
+      <c r="A113" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B113" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C113" s="21" t="inlineStr">
+        <is>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+        </is>
+      </c>
       <c r="D113" s="21" t="n"/>
-      <c r="E113" s="21" t="n"/>
+      <c r="E113" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G113" s="21" t="n"/>
-      <c r="H113" s="15" t="n"/>
+      <c r="H113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
-      <c r="L113" s="25" t="n"/>
+      <c r="L113" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M113" s="25" t="n"/>
       <c r="N113" s="25" t="n"/>
       <c r="O113" s="25" t="n"/>
       <c r="P113" s="25" t="n"/>
     </row>
     <row r="114" ht="16.5" customHeight="1">
-      <c r="A114" s="21" t="n"/>
-      <c r="B114" s="21" t="n"/>
-      <c r="C114" s="21" t="n"/>
+      <c r="A114" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B114" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C114" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D114" s="21" t="n"/>
-      <c r="E114" s="21" t="n"/>
+      <c r="E114" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G114" s="21" t="n"/>
-      <c r="H114" s="15" t="n"/>
+      <c r="H114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
-      <c r="L114" s="25" t="n"/>
+      <c r="L114" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M114" s="25" t="n"/>
       <c r="N114" s="25" t="n"/>
       <c r="O114" s="25" t="n"/>
       <c r="P114" s="25" t="n"/>
     </row>
     <row r="115" ht="16.5" customHeight="1">
-      <c r="A115" s="21" t="n"/>
-      <c r="B115" s="21" t="n"/>
-      <c r="C115" s="21" t="n"/>
+      <c r="A115" s="21" t="inlineStr">
+        <is>
+          <t>보관</t>
+        </is>
+      </c>
+      <c r="B115" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
+      <c r="C115" s="21" t="inlineStr">
+        <is>
+          <t>Oracle, SQL, HANA에 대한 디스크 구성</t>
+        </is>
+      </c>
       <c r="D115" s="21" t="n"/>
-      <c r="E115" s="21" t="n"/>
+      <c r="E115" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="n"/>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
-      <c r="L115" s="25" t="n"/>
+      <c r="L115" s="25" t="inlineStr">
+        <is>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+        </is>
+      </c>
       <c r="M115" s="25" t="n"/>
       <c r="N115" s="25" t="n"/>
       <c r="O115" s="25" t="n"/>
@@ -8367,7 +9136,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F93" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F116" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -8524,7 +9293,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>해당 사항 없음</t>
+          <t>해당 없음</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8546,7 +9315,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/spreadsheet/macrofree/sap_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ko.xlsx
@@ -4558,7 +4558,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>필요한 경우 Application Gateway와 함께 SAP Web Dispatcher 또는 NetScaler와 같은 타사 서비스를 사용하여 SAP Web Apps에 대한 역방향 프록시 제한을 극복합니다.</t>
+          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway가 SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 제한 사항이 있습니다.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4573,13 +4573,21 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="n"/>
-      <c r="I81" s="15" t="n"/>
+      <c r="H81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ko.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>ASCS와 데이터베이스 클러스터를 단일/동일한 VM에 결합하지 마세요.</t>
+          <t>Azure는 현재 동일한 Linux Pacemaker 클러스터에서 ASCS와 db HA의 결합을 지원하지 않습니다. 개별 클러스터로 분리합니다. 그러나 최대 5개의 여러 중앙 서비스 클러스터를 한 쌍의 VM으로 결합할 수 있습니다.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1094,7 +1094,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
+          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>로드 밸런서에서 유동 IP가 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>ASCS 및 DB 클러스터 앞에 표준 Load Balancer SKU 사용Use a Standard Load Balancer SKU in front of ASCS and DB clusters</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1140,7 +1140,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>동일한 가용성 집합에 서로 다른 역할의 서버를 혼합하지 마십시오. 중앙 서비스 VM, 데이터베이스 VM, 애플리케이션 VM을 자체 가용성 집합으로 유지</t>
+          <t>HA 쌍의 두 VM이 모두 가용성 집합에 배포되거나 가용성 영역의 크기가 동일하고 스토리지 구성이 동일해야 합니다</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1178,7 +1178,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1186,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>SAP SID당 하나의 근접 배치 그룹을 사용합니다. 그룹은 가용성 영역 또는 Azure 지역에 걸쳐 있지 않습니다.</t>
+          <t>기본 데이터베이스 복제 기술을 사용하여 HA 쌍의 데이터베이스를 동기화해야 합니다.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1224,7 +1224,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1232,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Azure는 현재 동일한 Linux Pacemaker 클러스터에서 ASCS와 db HA의 결합을 지원하지 않습니다. 개별 클러스터로 분리합니다. 그러나 최대 5개의 여러 중앙 서비스 클러스터를 한 쌍의 VM으로 결합할 수 있습니다.</t>
+          <t>RTO를 충족하는 시점과 시간 프레임에서 프로덕션 데이터베이스에 대한 특정 시점으로 복구를 수행합니다. 특정 시점 복구에는 일반적으로 DBMS 계층 또는 SAP를 통해 데이터를 삭제하는 운영자 오류가 포함됩니다</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1278,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>ASCS 및 DB 클러스터 앞에 표준 Load Balancer SKU 사용Use a Standard Load Balancer SKU in front of ASCS and DB clusters</t>
+          <t>기본 VNet(가상 네트워크)에 대한 CIDR은 DR 사이트 Vnet의 CIDR과 충돌하거나 겹치지 않아야 합니다</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1314,17 +1314,13 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H13" s="15" t="n"/>
       <c r="I13" s="15" t="n"/>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1345,7 +1341,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>HA 쌍의 두 VM이 모두 가용성 집합에 배포되거나 가용성 영역의 크기와 스토리지 구성이 동일해야 합니다</t>
+          <t>Site Recovery를 사용하여 응용 프로그램 서버를 DR 사이트에 복제합니다. Site Recovery는 중앙 서비스 클러스터 VM을 DR 사이트에 복제하는 데도 도움이 될 수 있습니다. DR을 호출할 때 DR 사이트에서 Linux Pacemaker 클러스터를 다시 구성해야 합니다(예: VIP 또는 SBD 바꾸기, corosync.conf 실행 등).</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1360,17 +1356,13 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
-        </is>
-      </c>
+      <c r="H14" s="15" t="n"/>
       <c r="I14" s="15" t="n"/>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1391,7 +1383,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>기본 데이터베이스 복제 기술을 사용하여 HA 쌍의 데이터베이스를 동기화해야 합니다.</t>
+          <t>네이티브 데이터베이스 복제는 Azure Site Recovery가 아닌 DR 사이트에 데이터를 동기화하는 데 사용해야 합니다</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1406,17 +1398,13 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H15" s="15" t="n"/>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1432,18 +1420,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>RTO를 충족하는 시점과 시간 프레임에서 프로덕션 데이터베이스에 대한 특정 시점으로 복구를 수행합니다. 특정 시점 복구에는 일반적으로 DBMS 계층 또는 SAP를 통해 데이터를 삭제하는 운영자 오류가 포함됩니다</t>
+          <t>단일 장애 지점에 대한 SAP 소프트웨어의 가용성을 고려합니다. 여기에는 SAP NetWeaver 및 SAP S/4HANA 아키텍처, SAP ABAP 및 ASCS + SCS에서 사용되는 DBMS와 같은 애플리케이션 내의 단일 실패 지점이 포함됩니다. 또한 SAP Web Dispatcher와 같은 다른 도구도 있습니다.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1454,15 +1442,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I16" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
+        </is>
+      </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1478,18 +1470,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>기본 VNet(가상 네트워크)에 대한 CIDR은 DR 사이트 Vnet의 CIDR과 충돌하거나 겹치지 않아야 합니다</t>
+          <t>SAP 및 SAP 데이터베이스의 경우 자동 장애 조치(failover) 클러스터를 구현하는 것이 좋습니다. Windows에서 Windows Server 장애 조치(failover) 클러스터링은 장애 조치(failover)를 지원합니다. Linux에서 Linux Pacemaker 또는 SIOS Protection Suite 및 Veritas InfoScale과 같은 타사 툴은 장애 조치를 지원합니다.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1498,13 +1490,21 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="n"/>
-      <c r="I17" s="15" t="n"/>
+      <c r="H17" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
+        </is>
+      </c>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1520,18 +1520,18 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Site Recovery를 사용하여 응용 프로그램 서버를 DR 사이트에 복제합니다. Site Recovery는 중앙 서비스 클러스터 VM을 DR 사이트에 복제하는 데도 도움이 될 수 있습니다. DR을 호출할 때 DR 사이트에서 Linux Pacemaker 클러스터를 다시 구성해야 합니다(예: VIP 또는 SBD 바꾸기, corosync.conf 실행 등).</t>
+          <t>Azure는 기본 및 보조 VM이 DBMS 데이터에 대한 스토리지를 공유하는 아키텍처를 지원하지 않습니다. DBMS 계층의 경우 일반적인 아키텍처 패턴은 기본 및 보조 VM에서 사용하는 것과 다른 스토리지 스택을 사용하여 동시에 데이터베이스를 복제하는 것입니다.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1540,13 +1540,21 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="n"/>
-      <c r="I18" s="15" t="n"/>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-sap-guide?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
+        </is>
+      </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1562,18 +1570,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>네이티브 데이터베이스 복제는 Azure Site Recovery가 아닌 DR 사이트에 데이터를 동기화하는 데 사용해야 합니다</t>
+          <t>DBMS 데이터 및 트랜잭션/다시 실행 로그 파일은 Azure 지원 블록 스토리지 또는 Azure NetApp Files에 저장됩니다. Azure Files 또는 Azure Premium Files는 DBMS 데이터 및/또는 SAP 워크로드가 있는 다시 실행 로그 파일에 대한 스토리지로 지원되지 않습니다.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1582,13 +1590,21 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="n"/>
-      <c r="I19" s="15" t="n"/>
+      <c r="H19" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+        </is>
+      </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1599,23 +1615,23 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>계산</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>올바른 VM SKU 및 영역에 대한 할당량 요청 만들기</t>
+          <t>ASCS + SCS 구성 요소 및 특정 고가용성 시나리오에 대해 Windows에서 Azure 공유 디스크를 사용할 수 있습니다. SAP 애플리케이션 계층 구성 요소 및 DBMS 계층에 대해 장애 조치(failover) 클러스터를 별도로 설정합니다. Azure는 현재 SAP 애플리케이션 계층 구성 요소와 DBMS 계층을 하나의 장애 조치(failover) 클러스터로 결합하는 고가용성 아키텍처를 지원하지 않습니다.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1624,13 +1640,21 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="15" t="n"/>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1641,17 +1665,17 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>SAP ASCS(애플리케이션 계층 구성 요소) 및 DBMS 계층에 대한 대부분의 장애 조치(failover) 클러스터에는 장애 조치(failover) 클러스터에 대한 가상 IP 주소가 필요합니다.  Azure Load Balancer는 다른 모든 경우에 대한 가상 IP 주소를 처리해야 합니다. 한 가지 설계 원칙은 클러스터 구성당 하나의 부하 분산 장치를 사용하는 것입니다. 부하 분산 장치의 표준 버전(표준 Load Balancer SKU)을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1668,19 +1692,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1691,23 +1715,23 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 원칙 전파 적용</t>
+          <t>로드 밸런서에서 유동 IP가 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1718,19 +1742,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1741,23 +1765,23 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 Azure AD로 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>고가용성 인프라를 배포하기 전에 선택한 지역에 따라 Azure 가용성 집합 또는 가용성 영역을 사용하여 배포할지 여부를 결정합니다.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1768,15 +1792,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1787,23 +1815,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>SAP 구성 요소(중앙 서비스, 애플리케이션 서버 및 데이터베이스)용 애플리케이션에 대한 인프라 SLA를 충족하려면 모든 구성 요소에 대해 동일한 고가용성 옵션(VM, 가용성 집합, 가용성 영역)을 선택해야 합니다.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1814,19 +1842,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
-        </is>
-      </c>
+          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1837,23 +1861,23 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>동일한 가용성 집합에 서로 다른 역할의 서버를 혼합하지 마십시오. 중앙 서비스 VM, 데이터베이스 VM, 애플리케이션 VM을 자체 가용성 집합으로 유지</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1862,17 +1886,21 @@
         </is>
       </c>
       <c r="G25" s="21" t="n"/>
-      <c r="H25" s="15" t="n"/>
+      <c r="H25" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1883,17 +1911,17 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver SSO 또는 파트너 솔루션을 사용하여 SAP GUI에 대한 SSO를 구현할 수 있습니다.</t>
+          <t>근접 배치 그룹을 사용하지 않는 한 Azure 가용성 영역 내에 Azure 가용성 집합을 배포할 수 없습니다.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1910,19 +1938,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1933,23 +1961,23 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC – Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려하십시오.</t>
+          <t>가용성 집합을 만들 때 사용 가능한 최대 장애 도메인 및 업데이트 도메인 수를 사용합니다. 예를 들어 하나의 가용성 집합에 두 개 이상의 VM을 배포하는 경우 Azure의 계획된 유지 관리 외에도 잠재적인 물리적 하드웨어 오류, 네트워크 중단 또는 전원 중단의 영향을 제한하기 위해 최대 장애 도메인 수(3개)와 충분한 업데이트 도메인을 사용합니다. 장애 도메인의 기본 수는 2개이며 나중에 온라인으로 변경할 수 없습니다.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1958,17 +1986,21 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="n"/>
+      <c r="H27" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1979,23 +2011,23 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC – Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려하십시오.</t>
+          <t>가용성 집합 배포에서 Azure 근접 배치 그룹을 사용하는 경우 세 가지 SAP 구성 요소(중앙 서비스, 애플리케이션 서버 및 데이터베이스)가 모두 동일한 근접 배치 그룹에 있어야 합니다.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2006,14 +2038,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2024,23 +2056,23 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver용 OAuth를 사용하여 SSO를 구현하여 타사 또는 사용자 지정 애플리케이션이 SAP NetWeaver OData 서비스에 액세스할 수 있도록 합니다.</t>
+          <t>SAP SID당 하나의 근접 배치 그룹을 사용합니다. 그룹은 가용성 영역 또는 Azure 지역에 걸쳐 있지 않습니다.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2051,14 +2083,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2069,17 +2101,17 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>계산</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>SAP HANA에 대한 SSO 구현</t>
+          <t>올바른 VM SKU 및 영역에 대한 할당량 요청 만들기</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2094,16 +2126,12 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
-        </is>
-      </c>
+      <c r="H30" s="15" t="n"/>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2124,13 +2152,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Azure AD를 RISE에서 호스트되는 SAP 시스템의 ID 공급자로 간주합니다. 자세한 내용은 Azure AD와 서비스 통합을 참조하세요.</t>
+          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2141,14 +2169,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2169,7 +2202,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>SAP에 액세스하는 애플리케이션의 경우 보안 주체 전파를 사용하여 SSO를 설정할 수 있습니다.</t>
+          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 원칙 전파 적용</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2186,15 +2219,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+        </is>
+      </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2215,7 +2252,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 인증 요청을 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 전달할 수 있습니다.</t>
+          <t>SAML을 사용하여 Azure AD로 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2232,7 +2269,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2240,7 +2277,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2261,7 +2298,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>SAP BTP에 대한 SSO 구현</t>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2278,15 +2315,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2307,7 +2348,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2322,17 +2363,17 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+      <c r="H35" s="15" t="n"/>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2343,17 +2384,17 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>SAP 구독에 기존 관리 그룹 정책 적용</t>
+          <t>SAP NetWeaver SSO 또는 파트너 솔루션을 사용하여 SAP GUI에 대한 SSO를 구현할 수 있습니다.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2370,19 +2411,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2393,23 +2434,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성 방지</t>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하기 때문에 SNC – Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2418,21 +2459,17 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="n"/>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2443,23 +2480,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">구독을 배율 단위로 활용하고 리소스를 확장하고, 예를 들어 환경별로 구독을 배포하는 것이 좋습니다. 샌드박스, 비프로덕션, 프로덕션 </t>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하기 때문에 SNC – Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2470,19 +2507,15 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2493,23 +2526,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>구독 프로비저닝의 일부로 할당량 증가 확인(예: 구독 내에서 사용 가능한 총 VM 코어)</t>
+          <t>SAP NetWeaver용 OAuth를 사용하여 SSO를 구현하여 타사 또는 사용자 지정 애플리케이션이 SAP NetWeaver OData 서비스에 액세스할 수 있도록 합니다.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2520,19 +2553,15 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2543,23 +2572,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>할당량 API는 Azure 서비스에 대한 할당량을 보고 관리하는 데 사용할 수 있는 REST API입니다. 필요한 경우 사용을 고려하십시오.</t>
+          <t>SAP HANA에 대한 SSO 구현</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2570,7 +2599,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2578,7 +2607,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2589,23 +2618,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 사용하여 지원 요청을 제출합니다.</t>
+          <t>Azure AD를 RISE에서 호스트되는 SAP 시스템의 ID 공급자로 간주합니다. 자세한 내용은 Azure AD와 서비스 통합을 참조하세요.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2616,7 +2645,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2624,7 +2653,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2635,23 +2664,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>예를 들어 선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다. ANF, 지역 등.</t>
+          <t>SAP에 액세스하는 애플리케이션의 경우 보안 주체 전파를 사용하여 SSO를 설정할 수 있습니다.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2662,19 +2691,15 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I42" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2685,17 +2710,17 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, 프로젝트 이름)</t>
+          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 인증 요청을 전달할 수 있습니다.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2712,19 +2737,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2735,23 +2756,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>BCDR (영문)</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup 서비스를 사용하여 HANA 데이터베이스를 보호할 수 있습니다.</t>
+          <t>SAP BTP에 대한 SSO 구현</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2762,19 +2783,15 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2785,17 +2802,17 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>BCDR (영문)</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>HANA, Oracle 또는 DB2 데이터베이스용 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
+          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2812,14 +2829,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2830,23 +2847,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>운영 체제와 SAP 시스템 간의 표준 시간대 일치를 확인합니다.</t>
+          <t>SAP 구독에 기존 관리 그룹 정책 적용</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2857,15 +2874,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+        </is>
+      </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2876,23 +2897,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>동일한 클러스터에서 서로 다른 애플리케이션 서비스를 그룹화하지 마세요. 예를 들어 DRBD와 중앙 서비스 클러스터를 동일한 클러스터에 결합하지 마세요. 그러나 동일한 Pacemaker 클러스터를 사용하여 약 5개의 서로 다른 중앙 서비스(다중 SID 클러스터)를 관리할 수 있습니다.</t>
+          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성 방지</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2903,19 +2924,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2926,23 +2947,23 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Azure 실행 비용을 절감하고 최적화하기 위해 다시 알림 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
+          <t xml:space="preserve">구독을 배율 단위로 활용하고 리소스를 확장하려면 환경별로 구독을 배포하는 것이 좋습니다. 샌드박스, 비프로덕션, 프로덕션 </t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2953,14 +2974,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2971,23 +2997,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 제어권을 고객에게 부여합니다.</t>
+          <t>구독 프로비저닝의 일부로 할당량 증가 확인(예: 구독 내에서 사용 가능한 총 VM 코어)</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2998,14 +3024,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3016,23 +3047,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Azure Update Manager를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
+          <t>할당량 API는 Azure 서비스에 대한 할당량을 보고 관리하는 데 사용할 수 있는 REST API입니다. 필요한 경우 사용을 고려하십시오.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3043,19 +3074,15 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3066,23 +3093,23 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>SAP Landscape Management(LaMa)를 사용하여 SAP Basis 운영을 최적화하고 관리합니다. Azure용 SAP LaMa 커넥터를 사용하여 SAP 시스템을 재배치, 복사, 복제 및 새로 고칩니다.</t>
+          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 사용하여 지원 요청을 제출합니다.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3093,19 +3120,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3116,23 +3139,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Azure Monitor 솔루션을 사용하여 Azure에서 SAP 워크로드(SAP HANA, 고가용성 SUSE 클러스터 및 SQL 시스템)를 모니터링합니다. SAP Solution Manager를 사용하여 SAP용 Azure Monitor 솔루션을 보완하는 것이 좋습니다.</t>
+          <t>예를 들어 선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다. ANF, 지역 등.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3143,19 +3166,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3166,23 +3189,23 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>SAP용 VM 확장 검사를 실행합니다. SAP용 VM 확장은 VM(가상 머신)의 할당된 관리 ID를 사용하여 VM 모니터링 및 구성 데이터에 액세스합니다. 이 검사는 SAP 애플리케이션의 모든 성능 메트릭이 기본 SAP용 Azure 확장에서 제공되는지 확인합니다.</t>
+          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, 프로젝트 이름)</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3193,19 +3216,19 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3221,18 +3244,18 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>Azure Backup 서비스를 사용하여 HANA 데이터베이스를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3243,19 +3266,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3271,12 +3294,12 @@
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure Network Watcher의 연결 모니터를 사용하여 SAP 데이터베이스 및 애플리케이션 서버에 대한 대기 시간 메트릭을 모니터링합니다. 또는 Azure Monitor를 사용하여 네트워크 대기 시간 측정값을 수집하고 표시합니다.</t>
+          <t>HANA, Oracle 또는 DB2 데이터베이스용 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3293,19 +3316,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3321,12 +3339,12 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
+          <t>운영 체제와 SAP 시스템 간의 표준 시간대 일치를 확인합니다.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3343,19 +3361,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3371,12 +3384,12 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>프로비저닝된 Azure 인프라에서 SAP HANA에 대한 품질 검사를 수행하여 프로비저닝된 VM이 Azure의 SAP HANA 모범 사례를 준수하는지 확인합니다.</t>
+          <t>동일한 클러스터에서 서로 다른 애플리케이션 서비스를 그룹화하지 마세요. 예를 들어 DRBD와 중앙 서비스 클러스터를 동일한 클러스터에 결합하지 마세요. 그러나 동일한 Pacemaker 클러스터를 사용하여 약 5개의 서로 다른 중앙 서비스(다중 SID 클러스터)를 관리할 수 있습니다.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3393,14 +3406,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3416,18 +3434,18 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>각 Azure 구독에 대해 영역 배포 전에 Azure 가용성 영역에서 대기 시간 테스트를 실행하여 Azure에서 SAP를 배포하기 위한 대기 시간이 짧은 영역을 선택합니다.</t>
+          <t>Azure 실행 비용을 절감하고 최적화하기 위해 다시 알림 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3438,19 +3456,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3466,12 +3479,12 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>복원력 보고서를 실행하여 프로비저닝된 전체 Azure 인프라(컴퓨팅, 데이터베이스, 네트워킹, 스토리지, Site Recovery)의 구성이 Azure용 클라우드 적응 프레임워크에서 정의한 구성을 준수하는지 확인합니다.</t>
+          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 고객의 손에 제어 권한을 부여합니다.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3488,19 +3501,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3516,12 +3524,12 @@
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Microsoft Sentinel 솔루션을 사용하여 위협 방지를 구현합니다. 이 솔루션을 사용하여 SAP 시스템을 모니터링하고 비즈니스 로직 및 애플리케이션 계층 전체에서 정교한 위협을 탐지할 수 있습니다.</t>
+          <t>Azure Update Manager를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3538,19 +3546,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3566,18 +3574,18 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Azure 태그 지정을 활용하여 리소스를 논리적으로 그룹화 및 추적하고, 배포를 자동화하고, 가장 중요한 것은 발생한 비용에 대한 가시성을 제공할 수 있습니다.</t>
+          <t>SAP Landscape Management(LaMa)를 사용하여 SAP Basis 운영을 최적화하고 관리합니다. Azure용 SAP LaMa 커넥터를 사용하여 SAP 시스템을 재배치, 복사, 복제 및 새로 고칩니다.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3588,19 +3596,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3616,18 +3624,18 @@
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>대기 시간에 민감한 애플리케이션에 대해 VM 간 대기 시간 모니터링을 사용합니다.</t>
+          <t>SAP용 Azure Monitor 솔루션을 사용하여 Azure에서 SAP 워크로드(SAP HANA, 고가용성 SUSE 클러스터 및 SQL 시스템)를 모니터링합니다. SAP Solution Manager를 사용하여 SAP용 Azure Monitor 솔루션을 보완하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3638,14 +3646,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3661,18 +3674,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
+          <t>SAP용 VM 확장 검사를 실행합니다. SAP용 VM 확장은 VM(가상 머신)의 할당된 관리 ID를 사용하여 VM 모니터링 및 구성 데이터에 액세스합니다. 이 검사는 SAP 애플리케이션의 모든 성능 메트릭이 기본 SAP용 Azure 확장에서 제공되는지 확인합니다.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3683,19 +3696,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3711,12 +3724,12 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>모든 데이터베이스 파일 시스템 및 실행 프로그램을 바이러스 백신 검사에서 제외합니다. 이를 포함하면 성능 문제가 발생할 수 있습니다. 제외 목록에 대한 규범적 세부 정보는 데이터베이스 공급업체에 문의하십시오. 예를 들어 &lt;sid&gt;Oracle은 바이러스 백신 검사에서 /oracle//sapdata를 제외할 것을 권장합니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3733,15 +3746,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3757,18 +3774,18 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>마이그레이션 후 비 HANA 데이터베이스에 대한 전체 데이터베이스 통계를 수집하는 것이 좋습니다. 예를 들어 SAP Note 1020260 - Oracle 통계 제공을 구현합니다.</t>
+          <t>Azure Network Watcher의 연결 모니터를 사용하여 SAP 데이터베이스 및 애플리케이션 서버에 대한 대기 시간 메트릭을 모니터링합니다. 또는 Azure Monitor를 사용하여 네트워크 대기 시간 측정값을 수집하고 표시합니다.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3779,15 +3796,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3803,18 +3824,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 SAP를 사용하는 모든 Oracle 배포에 Oracle ASM(Automatic Storage Management)을 사용하는 것이 좋습니다.</t>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3825,19 +3846,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3853,12 +3874,12 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Oracle을 실행하는 Azure의 SAP의 경우 SQL 스크립트 컬렉션은 성능 문제를 진단하는 데 도움이 될 수 있습니다.  AWR(Automatic Workload Repository) 보고서에는 Oracle 시스템의 문제점을 진단하는 데 유용한 정보가 포함되어 있습니다. 여러 세션 동안 AWR 보고서를 실행하고 피크 시간을 선택하여 광범위한 분석 범위를 보장하는 것이 좋습니다.</t>
+          <t>프로비저닝된 Azure 인프라에서 SAP HANA에 대한 품질 검사를 수행하여 프로비저닝된 VM이 Azure의 SAP HANA 모범 사례를 준수하는지 확인합니다.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3875,19 +3896,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3898,23 +3915,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>HTTP/S 앱을 안전하게 배달하려면 Application Gateway v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>각 Azure 구독에 대해 영역 배포 전에 Azure 가용성 영역에서 대기 시간 테스트를 실행하여 Azure에서 SAP를 배포하기 위한 대기 시간이 짧은 영역을 선택합니다.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3925,19 +3942,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3948,17 +3965,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>DNS (영문)</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 인식하는 경우에만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
+          <t>복원력 보고서를 실행하여 프로비저닝된 전체 Azure 인프라(컴퓨팅, 데이터베이스, 네트워킹, 스토리지, Site Recovery)의 구성이 Azure용 클라우드 적응 프레임워크에서 정의한 구성을 준수하는지 확인합니다.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3975,19 +3992,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3998,17 +4015,17 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>DNS (영문)</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>서로 다른 DNS 영역을 사용하여 각 환경(샌드박스, 개발, 사전 프로덕션 및 프로덕션)을 서로 구분합니다. 예외는 자체 VNet을 사용하는 SAP 배포의 경우입니다. 여기서는 프라이빗 DNS 영역이 필요하지 않을 수 있습니다.</t>
+          <t>SAP용 Microsoft Sentinel 솔루션을 사용하여 위협 방지를 구현합니다. 이 솔루션을 사용하여 SAP 시스템을 모니터링하고 비즈니스 로직 및 애플리케이션 계층 전체에서 정교한 위협을 탐지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4025,19 +4042,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4048,17 +4065,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 접근 방식입니다</t>
+          <t>Azure 태그 지정을 활용하여 리소스를 논리적으로 그룹화 및 추적하고, 배포를 자동화하고, 가장 중요한 것은 발생한 비용에 대한 가시성을 제공할 수 있습니다.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4075,19 +4092,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4098,23 +4115,23 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션과 SAP 데이터베이스 서버 간에 NVA를 배포하는 것은 지원되지 않습니다</t>
+          <t>대기 시간에 민감한 애플리케이션에 대해 VM 간 대기 시간 모니터링을 사용합니다.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4125,19 +4142,15 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/2731110</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4148,17 +4161,17 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4175,19 +4188,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4198,17 +4211,17 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>파트너 NVA를 사용하는 경우에만 지역 간에 NVA(네트워크 가상 어플라이언스)를 배포하는 것이 좋습니다. 네이티브 NVA가 있는 경우 지역 또는 VNet 간의 NVA가 필요하지 않습니다. 파트너 네트워킹 기술 및 NVA를 배포하는 경우 공급업체의 지침에 따라 Azure 네트워킹과 충돌하는 구성을 확인합니다.</t>
+          <t>모든 데이터베이스 파일 시스템 및 실행 프로그램을 바이러스 백신 검사에서 제외합니다. 이를 포함하면 성능 문제가 발생할 수 있습니다. 제외 목록에 대한 규범적 세부 정보는 데이터베이스 공급업체에 문의하십시오. 예를 들어 &lt;sid&gt;Oracle은 바이러스 백신 검사에서 /oracle//sapdata를 제외할 것을 권장합니다.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4225,19 +4238,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4248,23 +4257,23 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN은 가상 WAN 기반 토폴로지에 대한 스포크 VNet 간의 연결을 관리하며(UDR[사용자 정의 라우팅] 또는 NVA를 설정할 필요 없음) 동일한 가상 허브의 VNet 간 트래픽에 대한 최대 네트워크 처리량은 초당 50기가비트입니다. 필요한 경우 SAP 랜딩 존은 VNet 피어링을 사용하여 다른 랜딩 존에 연결하고 이 대역폭 제한을 극복할 수 있습니다.</t>
+          <t>마이그레이션 후 비 HANA 데이터베이스에 대한 전체 데이터베이스 통계를 수집하는 것이 좋습니다. 예를 들어 SAP Note 1020260 - Oracle 통계 제공을 구현합니다.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4275,19 +4284,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4298,23 +4303,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>SAP 워크로드를 실행하는 VM에 대한 공용 I.P 할당은 권장되지 않습니다.</t>
+          <t>Azure에서 SAP를 사용하는 모든 Oracle 배포에 Oracle ASM(Automatic Storage Management)을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4325,19 +4330,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4348,23 +4353,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>ASR을 구성할 때 DR 쪽에서 I.P 주소를 예약하는 것이 좋습니다.</t>
+          <t>Oracle을 실행하는 Azure의 SAP의 경우 SQL 스크립트 컬렉션은 성능 문제를 진단하는 데 도움이 될 수 있습니다.  AWR(Automatic Workload Repository) 보고서에는 Oracle 시스템의 문제점을 진단하는 데 유용한 정보가 포함되어 있습니다. 여러 세션 동안 AWR 보고서를 실행하고 피크 시간을 선택하여 광범위한 분석 범위를 보장하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4375,19 +4380,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4403,18 +4408,18 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>HTTP/S 앱을 안전하게 배달하려면 Application Gateway v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4425,19 +4430,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4453,12 +4458,12 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>DNS (영문)</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 위임된 서브넷이 하나만 존재할 수 있습니다. Azure NetApp Files에 위임된 서브넷을 두 개 이상 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
+          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 인식하는 경우에만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4475,19 +4480,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4503,12 +4508,12 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>DNS (영문)</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+          <t>서로 다른 DNS 영역을 사용하여 각 환경(샌드박스, 개발, 사전 프로덕션 및 프로덕션)을 서로 구분합니다. 예외는 자체 VNet을 사용하는 SAP 배포의 경우입니다. 여기서는 프라이빗 DNS 영역이 필요하지 않을 수 있습니다.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4525,19 +4530,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4553,12 +4558,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway가 SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 제한 사항이 있습니다.</t>
+          <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 접근 방식입니다</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4575,19 +4580,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I81" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4603,18 +4608,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+          <t>SAP 애플리케이션과 SAP 데이터베이스 서버 간에 NVA를 배포하는 것은 지원되지 않습니다</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4625,19 +4630,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4653,12 +4658,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Application Gateway를 사용하여 HTTP/S 애플리케이션을 보호하는 경우 Azure Front Door의 Web Application Firewall 정책을 활용합니다. Azure Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4675,19 +4680,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4703,12 +4708,12 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
+          <t>파트너 NVA를 사용하는 경우에만 지역 간에 NVA(네트워크 가상 어플라이언스)를 배포하는 것이 좋습니다. 네이티브 NVA가 있는 경우 지역 또는 VNet 간의 NVA가 필요하지 않습니다. 파트너 네트워킹 기술 및 NVA를 배포하는 경우 공급업체의 지침에 따라 Azure 네트워킹과 충돌하는 구성을 확인합니다.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4725,19 +4730,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4753,12 +4758,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+          <t>Virtual WAN은 가상 WAN 기반 토폴로지에 대한 스포크 VNet 간의 연결을 관리하며(UDR[사용자 정의 라우팅] 또는 NVA를 설정할 필요 없음) 동일한 가상 허브의 VNet 간 트래픽에 대한 최대 네트워크 처리량은 초당 50기가비트입니다. 필요한 경우 SAP 랜딩 존은 VNet 피어링을 사용하여 다른 랜딩 존에 연결하고 이 대역폭 제한을 극복할 수 있습니다.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4775,19 +4780,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4803,18 +4808,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>데이터 유출을 방지하려면 Azure Private Link를 사용하여 Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory 등과 같은 PaaS(Platform as a Service) 리소스에 안전하게 액세스합니다. Azure 프라이빗 엔드포인트는 VNet과 Azure Storage, Azure Backup 등과 같은 서비스 간의 트래픽을 보호하는 데도 도움이 될 수 있습니다. VNet과 프라이빗 엔드포인트 지원 서비스 간의 트래픽은 Microsoft 글로벌 네트워크를 통해 이동하므로 공용 인터넷에 노출되지 않습니다.</t>
+          <t>SAP 워크로드를 실행하는 VM에 대한 공용 I.P 할당은 권장되지 않습니다.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4825,19 +4830,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4853,12 +4858,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>ASR을 구성할 때 DR 쪽에서 I.P 주소를 예약하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4875,19 +4880,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4903,18 +4908,18 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4925,19 +4930,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4953,12 +4958,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간에 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 보안을 관리하는 데 도움이 되도록 가상 머신을 그룹화합니다.</t>
+          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 위임된 서브넷이 하나만 존재할 수 있습니다. Azure NetApp Files에 대해 둘 이상의 위임된 서브넷을 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4975,19 +4980,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5003,18 +5008,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>피어링되지 않은 다른 Azure VNet에 SAP 애플리케이션 계층 및 SAP DBMS를 배치하는 것은 지원되지 않습니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5025,19 +5030,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5053,12 +5058,12 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션에서 네트워크 대기 시간을 최적화하려면 Azure 근접 배치 그룹을 사용하는 것이 좋습니다.</t>
+          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway가 SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 제한 사항이 있습니다.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5075,19 +5080,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5103,18 +5108,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>온-프레미스와 Azure 간에 분할된 SAP 애플리케이션 서버 계층 및 DBMS 계층을 실행하는 것은 전혀 지원되지 않습니다. 두 계층 모두 온-프레미스 또는 Azure에 완전히 상주해야 합니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5125,19 +5130,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5153,18 +5158,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 SAP 시스템의 DBMS(데이터베이스 관리 시스템) 및 애플리케이션 계층을 서로 다른 VNet에 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내에서 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
+          <t>Azure Front Door 및 Application Gateway를 사용하여 HTTP/S 애플리케이션을 보호하는 경우 Azure Front Door의 Web Application Firewall 정책을 활용합니다. Azure Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5175,19 +5180,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5203,18 +5208,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5225,19 +5230,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5253,18 +5258,18 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5275,19 +5280,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5303,12 +5308,12 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
+          <t>데이터 유출을 방지하려면 Azure Private Link를 사용하여 Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory 등과 같은 PaaS(Platform as a Service) 리소스에 안전하게 액세스합니다. Azure 프라이빗 엔드포인트는 VNet과 Azure Storage, Azure Backup 등과 같은 서비스 간의 트래픽을 보호하는 데도 도움이 될 수 있습니다. VNet과 프라이빗 엔드포인트 사용 서비스 간의 트래픽은 Microsoft 글로벌 네트워크를 통해 이동하므로 공용 인터넷에 노출되지 않습니다.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5325,15 +5330,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5344,17 +5353,17 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5371,15 +5380,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5390,17 +5403,17 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5417,15 +5430,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5436,17 +5453,17 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>SAP 데이터베이스 서버 암호화의 경우 SAP HANA 네이티브 암호화 기술을 사용합니다. Azure SQL Database를 사용하는 경우 DBMS 공급자가 제공하는 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
+          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간에 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 보안을 관리하는 데 도움이 되도록 가상 머신을 그룹화합니다.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5463,15 +5480,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5482,23 +5503,23 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage 암호화는 기본적으로 사용하도록 설정되어 있습니다</t>
+          <t>피어링되지 않은 다른 Azure VNet에 SAP 애플리케이션 계층 및 SAP DBMS를 배치하는 것은 지원되지 않습니다.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5509,15 +5530,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5528,17 +5553,17 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SAP 애플리케이션에서 네트워크 대기 시간을 최적화하려면 Azure 근접 배치 그룹을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5555,15 +5580,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5574,23 +5603,23 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>온-프레미스와 Azure 간에 분할된 SAP 애플리케이션 서버 계층 및 DBMS 계층을 실행하는 것은 전혀 지원되지 않습니다. 두 계층 모두 온-프레미스 또는 Azure에 완전히 상주해야 합니다.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5601,15 +5630,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5620,17 +5653,17 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 다른 VNet에서 SAP 시스템의 DBMS(데이터베이스 관리 시스템) 및 애플리케이션 계층을 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내에서 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5647,15 +5680,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5666,23 +5703,23 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다</t>
+          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5693,15 +5730,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5712,23 +5753,23 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5739,15 +5780,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5758,17 +5803,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
+          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5785,7 +5830,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -5793,7 +5838,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5809,12 +5854,12 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>SAP용 클라우드용 Microsoft Defender 표준을 사용하도록 설정하는 경우 엔드포인트 보호를 설치하는 정책에서 SAP 데이터베이스 서버를 제외해야 합니다.</t>
+          <t>Azure, 온-프레미스 또는 기타 클라우드 환경에서 Windows 및 Linux VM을 실행하는 경우 Azure Automation의 업데이트 관리 센터를 사용하여 보안 패치를 포함한 운영 체제 업데이트를 관리할 수 있습니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5831,15 +5876,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5855,12 +5904,12 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+          <t>SAP는 SAP 시스템을 보호하기 위해 즉각적인 조치가 필요한 매우 중요한 보안 패치 또는 핫픽스를 릴리스하므로 SAP 보안 OSS 노트를 정기적으로 검토합니다.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5877,15 +5926,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5901,18 +5954,18 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+          <t>SQL Server SAP의 경우 SQL Server SAP 시스템에서 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5923,7 +5976,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5931,7 +5984,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5947,18 +6000,18 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>SAML 2.0을 사용하는 Azure AD(Azure Active Directory)는 SAP NetWeaver, SAP HANA 및 SAP Cloud Platform과 같은 다양한 SAP 애플리케이션 및 플랫폼에 SSO를 제공할 수도 있습니다</t>
+          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용할 수 있습니다. 이는 보안 감사에서 발생할 수 있는 잠재적 위험입니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5969,15 +6022,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/3019299/E</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5998,13 +6055,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>SAP 데이터베이스에 대한 공격으로 이어질 수 있는 취약성을 근절하기 위해 운영 체제를 강화해야 합니다.</t>
+          <t>Azrue에서 SAP HANA 데이터베이스 서버를 암호화하는 데는 SAP HANA 네이티브 암호화 기술이 사용됩니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6015,14 +6072,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6043,7 +6105,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드 또는 애플리케이션을 수정할 필요가 없습니다.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6060,15 +6122,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6089,13 +6155,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6106,15 +6172,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6135,7 +6205,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수도 있습니다.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6152,15 +6222,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6171,17 +6245,17 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>보관</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Oracle, SQL, HANA에 대한 디스크 구성</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6196,12 +6270,21 @@
         </is>
       </c>
       <c r="G115" s="21" t="n"/>
-      <c r="H115" s="15" t="n"/>
+      <c r="H115" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6210,262 +6293,787 @@
       <c r="P115" s="25" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
-      <c r="A116" s="21" t="n"/>
-      <c r="B116" s="21" t="n"/>
-      <c r="C116" s="21" t="n"/>
+      <c r="A116" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B116" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C116" s="21" t="inlineStr">
+        <is>
+          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
+        </is>
+      </c>
       <c r="D116" s="21" t="n"/>
-      <c r="E116" s="21" t="n"/>
+      <c r="E116" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G116" s="21" t="n"/>
-      <c r="H116" s="15" t="n"/>
+      <c r="H116" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
-      <c r="L116" s="25" t="n"/>
+      <c r="L116" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M116" s="25" t="n"/>
       <c r="N116" s="25" t="n"/>
       <c r="O116" s="25" t="n"/>
       <c r="P116" s="25" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="21" t="n"/>
-      <c r="B117" s="21" t="n"/>
-      <c r="C117" s="21" t="n"/>
+      <c r="A117" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B117" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C117" s="21" t="inlineStr">
+        <is>
+          <t>SAP 환경에서 엔드포인트용 Microsoft Defender 사용하도록 설정하는 경우 모든 서버를 대상으로 하는 대신 DBMS 서버에서 데이터 및 로그 파일을 제외하는 것이 좋습니다. 대상 파일을 제외할 때 DBMS 공급업체의 권장 사항을 따릅니다.</t>
+        </is>
+      </c>
       <c r="D117" s="21" t="n"/>
-      <c r="E117" s="21" t="n"/>
+      <c r="E117" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G117" s="21" t="n"/>
-      <c r="H117" s="15" t="n"/>
+      <c r="H117" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
-      <c r="L117" s="25" t="n"/>
+      <c r="L117" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M117" s="25" t="n"/>
       <c r="N117" s="25" t="n"/>
       <c r="O117" s="25" t="n"/>
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="n"/>
-      <c r="B118" s="21" t="n"/>
-      <c r="C118" s="21" t="n"/>
+      <c r="A118" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B118" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C118" s="21" t="inlineStr">
+        <is>
+          <t>클라우드용 Microsoft Defender의 Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+        </is>
+      </c>
       <c r="D118" s="21" t="n"/>
-      <c r="E118" s="21" t="n"/>
+      <c r="E118" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="n"/>
-      <c r="I118" s="15" t="n"/>
+      <c r="H118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="n"/>
+      <c r="L118" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
       <c r="P118" s="25" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="21" t="n"/>
-      <c r="B119" s="21" t="n"/>
-      <c r="C119" s="21" t="n"/>
+      <c r="A119" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B119" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C119" s="21" t="inlineStr">
+        <is>
+          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+        </is>
+      </c>
       <c r="D119" s="21" t="n"/>
-      <c r="E119" s="21" t="n"/>
+      <c r="E119" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G119" s="21" t="n"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
-      <c r="L119" s="25" t="n"/>
+      <c r="L119" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M119" s="25" t="n"/>
       <c r="N119" s="25" t="n"/>
       <c r="O119" s="25" t="n"/>
       <c r="P119" s="25" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="21" t="n"/>
-      <c r="B120" s="21" t="n"/>
-      <c r="C120" s="21" t="n"/>
+      <c r="A120" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B120" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C120" s="21" t="inlineStr">
+        <is>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+        </is>
+      </c>
       <c r="D120" s="21" t="n"/>
-      <c r="E120" s="21" t="n"/>
+      <c r="E120" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="15" t="n"/>
-      <c r="I120" s="15" t="n"/>
+      <c r="H120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="25" t="n"/>
+      <c r="L120" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M120" s="25" t="n"/>
       <c r="N120" s="25" t="n"/>
       <c r="O120" s="25" t="n"/>
       <c r="P120" s="25" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="21" t="n"/>
-      <c r="B121" s="21" t="n"/>
-      <c r="C121" s="21" t="n"/>
+      <c r="A121" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B121" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C121" s="21" t="inlineStr">
+        <is>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+        </is>
+      </c>
       <c r="D121" s="21" t="n"/>
-      <c r="E121" s="21" t="n"/>
+      <c r="E121" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="15" t="n"/>
-      <c r="I121" s="15" t="n"/>
+      <c r="H121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="25" t="n"/>
+      <c r="L121" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M121" s="25" t="n"/>
       <c r="N121" s="25" t="n"/>
       <c r="O121" s="25" t="n"/>
       <c r="P121" s="25" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="21" t="n"/>
-      <c r="B122" s="21" t="n"/>
-      <c r="C122" s="21" t="n"/>
+      <c r="A122" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B122" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C122" s="21" t="inlineStr">
+        <is>
+          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
+        </is>
+      </c>
       <c r="D122" s="21" t="n"/>
-      <c r="E122" s="21" t="n"/>
+      <c r="E122" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="n"/>
-      <c r="I122" s="15" t="n"/>
+      <c r="H122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="25" t="n"/>
+      <c r="L122" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M122" s="25" t="n"/>
       <c r="N122" s="25" t="n"/>
       <c r="O122" s="25" t="n"/>
       <c r="P122" s="25" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="21" t="n"/>
-      <c r="B123" s="21" t="n"/>
-      <c r="C123" s="21" t="n"/>
+      <c r="A123" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B123" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C123" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D123" s="21" t="n"/>
-      <c r="E123" s="21" t="n"/>
+      <c r="E123" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="15" t="n"/>
+      <c r="H123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="25" t="n"/>
+      <c r="L123" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M123" s="25" t="n"/>
       <c r="N123" s="25" t="n"/>
       <c r="O123" s="25" t="n"/>
       <c r="P123" s="25" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="21" t="n"/>
-      <c r="B124" s="21" t="n"/>
-      <c r="C124" s="21" t="n"/>
+      <c r="A124" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B124" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C124" s="21" t="inlineStr">
+        <is>
+          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+        </is>
+      </c>
       <c r="D124" s="21" t="n"/>
-      <c r="E124" s="21" t="n"/>
+      <c r="E124" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G124" s="21" t="n"/>
-      <c r="H124" s="15" t="n"/>
-      <c r="I124" s="15" t="n"/>
+      <c r="H124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="25" t="n"/>
+      <c r="L124" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M124" s="25" t="n"/>
       <c r="N124" s="25" t="n"/>
       <c r="O124" s="25" t="n"/>
       <c r="P124" s="25" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="21" t="n"/>
-      <c r="B125" s="21" t="n"/>
-      <c r="C125" s="21" t="n"/>
+      <c r="A125" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B125" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C125" s="21" t="inlineStr">
+        <is>
+          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+        </is>
+      </c>
       <c r="D125" s="21" t="n"/>
-      <c r="E125" s="21" t="n"/>
+      <c r="E125" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="n"/>
-      <c r="I125" s="15" t="n"/>
+      <c r="H125" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="25" t="n"/>
+      <c r="L125" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M125" s="25" t="n"/>
       <c r="N125" s="25" t="n"/>
       <c r="O125" s="25" t="n"/>
       <c r="P125" s="25" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="21" t="n"/>
-      <c r="B126" s="21" t="n"/>
-      <c r="C126" s="21" t="n"/>
+      <c r="A126" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B126" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C126" s="21" t="inlineStr">
+        <is>
+          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D126" s="21" t="n"/>
-      <c r="E126" s="21" t="n"/>
+      <c r="E126" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="15" t="n"/>
+      <c r="H126" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="25" t="n"/>
+      <c r="L126" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M126" s="25" t="n"/>
       <c r="N126" s="25" t="n"/>
       <c r="O126" s="25" t="n"/>
       <c r="P126" s="25" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="21" t="n"/>
-      <c r="B127" s="21" t="n"/>
-      <c r="C127" s="21" t="n"/>
+      <c r="A127" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B127" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C127" s="21" t="inlineStr">
+        <is>
+          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D127" s="21" t="n"/>
-      <c r="E127" s="21" t="n"/>
+      <c r="E127" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="25" t="n"/>
+      <c r="L127" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M127" s="25" t="n"/>
       <c r="N127" s="25" t="n"/>
       <c r="O127" s="25" t="n"/>
       <c r="P127" s="25" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="21" t="n"/>
-      <c r="B128" s="21" t="n"/>
-      <c r="C128" s="21" t="n"/>
+      <c r="A128" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B128" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C128" s="21" t="inlineStr">
+        <is>
+          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+        </is>
+      </c>
       <c r="D128" s="21" t="n"/>
-      <c r="E128" s="21" t="n"/>
+      <c r="E128" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="25" t="n"/>
+      <c r="L128" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M128" s="25" t="n"/>
       <c r="N128" s="25" t="n"/>
       <c r="O128" s="25" t="n"/>
       <c r="P128" s="25" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="21" t="n"/>
-      <c r="B129" s="21" t="n"/>
-      <c r="C129" s="21" t="n"/>
+      <c r="A129" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B129" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C129" s="21" t="inlineStr">
+        <is>
+          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="D129" s="21" t="n"/>
-      <c r="E129" s="21" t="n"/>
+      <c r="E129" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="n"/>
+      <c r="H129" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="25" t="n"/>
+      <c r="L129" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M129" s="25" t="n"/>
       <c r="N129" s="25" t="n"/>
       <c r="O129" s="25" t="n"/>
       <c r="P129" s="25" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="21" t="n"/>
-      <c r="B130" s="21" t="n"/>
-      <c r="C130" s="21" t="n"/>
+      <c r="A130" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B130" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C130" s="21" t="inlineStr">
+        <is>
+          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D130" s="21" t="n"/>
-      <c r="E130" s="21" t="n"/>
+      <c r="E130" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="25" t="n"/>
+      <c r="L130" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M130" s="25" t="n"/>
       <c r="N130" s="25" t="n"/>
       <c r="O130" s="25" t="n"/>
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>보관</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>Oracle, SQL, HANA에 대한 디스크 구성</t>
+        </is>
+      </c>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
@@ -9144,7 +9752,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F116" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F132" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ko.xlsx
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5730,19 +5730,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5763,13 +5763,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
+          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5780,19 +5780,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5803,17 +5799,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
+          <t>Azure, 온-프레미스 또는 기타 클라우드 환경에서 Windows 및 Linux VM을 실행하는 경우 Azure Automation의 업데이트 관리 센터를 사용하여 보안 패치를 포함한 운영 체제 업데이트를 관리할 수 있습니다.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5830,15 +5826,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure, 온-프레미스 또는 기타 클라우드 환경에서 Windows 및 Linux VM을 실행하는 경우 Azure Automation의 업데이트 관리 센터를 사용하여 보안 패치를 포함한 운영 체제 업데이트를 관리할 수 있습니다.</t>
+          <t>SAP는 SAP 시스템을 보호하기 위해 즉각적인 조치가 필요한 매우 중요한 보안 패치 또는 핫픽스를 릴리스하므로 SAP 보안 OSS 노트를 정기적으로 검토합니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5881,14 +5881,14 @@
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5909,13 +5909,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>SAP는 SAP 시스템을 보호하기 위해 즉각적인 조치가 필요한 매우 중요한 보안 패치 또는 핫픽스를 릴리스하므로 SAP 보안 OSS 노트를 정기적으로 검토합니다.</t>
+          <t>SQL Server SAP의 경우 SQL Server SAP 시스템에서 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,19 +5926,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5959,13 +5955,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>SQL Server SAP의 경우 SQL Server SAP 시스템에서 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
+          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용할 수 있습니다. 이는 보안 감사에서 발생할 수 있는 잠재적 위험입니다.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5979,12 +5975,16 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
-      <c r="I109" s="15" t="n"/>
+      <c r="I109" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/3019299/E</t>
+        </is>
+      </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6000,12 +6000,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용할 수 있습니다. 이는 보안 감사에서 발생할 수 있는 잠재적 위험입니다.</t>
+          <t>Azrue에서 SAP HANA 데이터베이스 서버를 암호화하는 데는 SAP HANA 네이티브 암호화 기술이 사용됩니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6022,19 +6022,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6055,13 +6055,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Azrue에서 SAP HANA 데이터베이스 서버를 암호화하는 데는 SAP HANA 네이티브 암호화 기술이 사용됩니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
+          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드 또는 애플리케이션을 수정할 필요가 없습니다.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6072,19 +6072,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6105,13 +6105,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드 또는 애플리케이션을 수정할 필요가 없습니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6122,19 +6122,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6155,13 +6155,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수도 있습니다.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6172,19 +6172,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수도 있습니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6222,19 +6222,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6255,13 +6255,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6272,19 +6272,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
+          <t>SAP 환경에서 엔드포인트용 Microsoft Defender 사용하도록 설정하는 경우 모든 서버를 대상으로 하는 대신 DBMS 서버에서 데이터 및 로그 파일을 제외하는 것이 좋습니다. 대상 파일을 제외할 때 DBMS 공급업체의 권장 사항을 따릅니다.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6322,19 +6322,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>SAP 환경에서 엔드포인트용 Microsoft Defender 사용하도록 설정하는 경우 모든 서버를 대상으로 하는 대신 DBMS 서버에서 데이터 및 로그 파일을 제외하는 것이 좋습니다. 대상 파일을 제외할 때 DBMS 공급업체의 권장 사항을 따릅니다.</t>
+          <t>클라우드용 Microsoft Defender의 Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6372,19 +6372,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6405,13 +6405,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>클라우드용 Microsoft Defender의 Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6422,19 +6422,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6455,13 +6455,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6472,19 +6472,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6505,13 +6505,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6522,7 +6522,7 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
@@ -6534,7 +6534,7 @@
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6572,19 +6572,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6605,13 +6605,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6622,19 +6622,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6650,18 +6646,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6672,15 +6668,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6718,19 +6718,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6751,13 +6751,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6768,19 +6768,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6818,19 +6818,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6851,13 +6851,13 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6868,19 +6868,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6901,13 +6901,13 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6918,19 +6918,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6951,13 +6951,13 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6968,19 +6968,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6991,17 +6991,17 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
+          <t>Oracle, SQL, HANA에 대한 디스크 구성</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7016,21 +7016,12 @@
         </is>
       </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H130" s="15" t="n"/>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7039,41 +7030,16 @@
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="inlineStr">
-        <is>
-          <t>보관</t>
-        </is>
-      </c>
-      <c r="B131" s="21" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
-      <c r="C131" s="21" t="inlineStr">
-        <is>
-          <t>Oracle, SQL, HANA에 대한 디스크 구성</t>
-        </is>
-      </c>
+      <c r="A131" s="21" t="n"/>
+      <c r="B131" s="21" t="n"/>
+      <c r="C131" s="21" t="n"/>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E131" s="21" t="n"/>
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="inlineStr">
-        <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
-        </is>
-      </c>
+      <c r="L131" s="25" t="n"/>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
@@ -9752,7 +9718,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F132" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F131" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ko.xlsx
@@ -1059,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>자동화</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>증권 시세 표시기</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure는 현재 동일한 Linux Pacemaker 클러스터에서 ASCS와 db HA의 결합을 지원하지 않습니다. 개별 클러스터로 분리합니다. 그러나 최대 5개의 여러 중앙 서비스 클러스터를 한 쌍의 VM으로 결합할 수 있습니다.</t>
+          <t>ACSS(Azure Center for SAP solutions)는 SAP를 Azure의 최상위 워크로드로 만드는 Azure 제품입니다. ACSS는 Azure에서 SAP 시스템을 통합 워크로드로 만들고 실행할 수 있도록 하는 엔드투엔드 솔루션으로, 혁신을 위한 보다 원활한 기반을 제공합니다. 신규 및 기존 Azure 기반 SAP 시스템 모두에 대한 관리 기능을 활용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,15 +1086,19 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I8" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/center-sap-solutions/overview</t>
+        </is>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-center-sap-solutions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>4620dc87-e948-4ce8-8426-f3e6e5d7bd85</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1105,17 +1109,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>자동화</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>증권 시세 표시기</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>ASCS 및 DB 클러스터 앞에 표준 Load Balancer SKU 사용Use a Standard Load Balancer SKU in front of ASCS and DB clusters</t>
+          <t>Azure는 Linux 및 Windows에서 SAP 배포 자동화를 지원합니다. SAP Deployment Automation Framework는 SAP 환경을 배포, 설치 및 유지 관리할 수 있는 오픈 소스 오케스트레이션 도구입니다.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,15 +1136,19 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I9" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-platform-automation-and-devops</t>
+        </is>
+      </c>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/sap-automation</t>
+        </is>
+      </c>
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>5d75e99d-624d-4afe-91d9-e17adc580790</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1156,12 +1164,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>백업 및 복원</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>HA 쌍의 두 VM이 모두 가용성 집합에 배포되거나 가용성 영역의 크기가 동일하고 스토리지 구성이 동일해야 합니다</t>
+          <t>RTO를 충족하는 시점과 시간 프레임에서 프로덕션 데이터베이스에 대한 특정 시점으로 복구를 수행합니다. 특정 시점 복구에는 일반적으로 DBMS 계층 또는 SAP를 통해 데이터를 삭제하는 운영자 오류가 포함됩니다</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1178,7 +1186,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/data-platform</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1194,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>d17f6f39-a377-48a2-931f-5ead3ebe33a8</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1202,12 +1210,12 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>기본 데이터베이스 복제 기술을 사용하여 HA 쌍의 데이터베이스를 동기화해야 합니다.</t>
+          <t>백업 및 복구 시간을 테스트하여 재해 발생 후 모든 시스템을 동시에 복원하기 위한 RTO 요구 사항을 충족하는지 확인합니다.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1222,17 +1230,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>c4b8e117-930b-4dbd-ae50-7bc5faf6f91a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1248,18 +1252,18 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>RTO를 충족하는 시점과 시간 프레임에서 프로덕션 데이터베이스에 대한 특정 시점으로 복구를 수행합니다. 특정 시점 복구에는 일반적으로 DBMS 계층 또는 SAP를 통해 데이터를 삭제하는 운영자 오류가 포함됩니다</t>
+          <t>쌍을 이루는 지역 간에 표준 스토리지를 복제할 수 있지만 표준 스토리지를 사용하여 데이터베이스 또는 가상 하드 디스크를 저장할 수는 없습니다. 사용하는 쌍을 이루는 지역 간에만 백업을 복제할 수 있습니다. 다른 모든 데이터의 경우 SQL Server Always On 또는 SAP HANA 시스템 복제와 같은 네이티브 DBMS 기능을 사용하여 복제를 실행합니다. SAP 애플리케이션 계층에 Site Recovery, rsync 또는 robocopy 및 기타 타사 소프트웨어의 조합을 사용합니다.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1270,15 +1274,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>b651423c-8552-42db-a545-5cb50c05527a</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1294,12 +1302,12 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>기본 VNet(가상 네트워크)에 대한 CIDR은 DR 사이트 Vnet의 CIDR과 충돌하거나 겹치지 않아야 합니다</t>
+          <t>Azure 가용성 영역을 사용하여 고가용성을 달성하는 경우 SAP 애플리케이션 서버와 데이터베이스 서버 간의 대기 시간을 고려해야 합니다. 대기 시간이 긴 영역의 경우 SAP 애플리케이션 서버와 데이터베이스 서버가 항상 동일한 영역에서 실행되도록 운영 절차를 마련해야 합니다.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1314,13 +1322,21 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="15" t="n"/>
+      <c r="H13" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+        </is>
+      </c>
+      <c r="I13" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>aa208dca-784f-46c6-9014-cc919c542dc9</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1336,18 +1352,18 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Site Recovery를 사용하여 응용 프로그램 서버를 DR 사이트에 복제합니다. Site Recovery는 중앙 서비스 클러스터 VM을 DR 사이트에 복제하는 데도 도움이 될 수 있습니다. DR을 호출할 때 DR 사이트에서 Linux Pacemaker 클러스터를 다시 구성해야 합니다(예: VIP 또는 SBD 바꾸기, corosync.conf 실행 등).</t>
+          <t>온-프레미스에서 기본 및 보조 Azure 재해 복구 지역으로의 ExpressRoute 연결을 설정합니다. 또한 ExpressRoute를 사용하는 대신 온-프레미스에서 주 및 보조 Azure 재해 복구 지역으로 VPN 연결을 설정하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1356,13 +1372,21 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="n"/>
-      <c r="I14" s="15" t="n"/>
+      <c r="H14" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+        </is>
+      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/expressroute/use-s2s-vpn-as-backup-for-expressroute-privatepeering</t>
+        </is>
+      </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>ba07c007-1f90-43e9-aa4f-601346b80352</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1378,18 +1402,18 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>네이티브 데이터베이스 복제는 Azure Site Recovery가 아닌 DR 사이트에 데이터를 동기화하는 데 사용해야 합니다</t>
+          <t>DR 지역에서 데이터의 암호를 해독할 수 있도록 지역 간에 인증서, 비밀 또는 키와 같은 키 자격 증명 모음 콘텐츠를 복제합니다.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1398,13 +1422,17 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="n"/>
+      <c r="H15" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/disaster-recovery-guidance</t>
+        </is>
+      </c>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>d2b30195-b11d-4a8f-a672-28b2b4169a7c</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1420,18 +1448,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>고가용성</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>단일 장애 지점에 대한 SAP 소프트웨어의 가용성을 고려합니다. 여기에는 SAP NetWeaver 및 SAP S/4HANA 아키텍처, SAP ABAP 및 ASCS + SCS에서 사용되는 DBMS와 같은 애플리케이션 내의 단일 실패 지점이 포함됩니다. 또한 SAP Web Dispatcher와 같은 다른 도구도 있습니다.</t>
+          <t>기본 및 재해 복구 가상 네트워크를 피어링합니다. 예를 들어 HANA 시스템 복제의 경우 SAP HANA DB 가상 네트워크를 재해 복구 사이트의 SAP HANA DB 가상 네트워크에 피어링해야 합니다.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1442,19 +1470,15 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
-        </is>
-      </c>
-      <c r="I16" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-s4hana</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="n"/>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
+          <t>05f1101d-250f-40e7-b2a1-b674ab50edbd</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1470,18 +1494,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>고가용성</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>SAP 및 SAP 데이터베이스의 경우 자동 장애 조치(failover) 클러스터를 구현하는 것이 좋습니다. Windows에서 Windows Server 장애 조치(failover) 클러스터링은 장애 조치(failover)를 지원합니다. Linux에서 Linux Pacemaker 또는 SIOS Protection Suite 및 Veritas InfoScale과 같은 타사 툴은 장애 조치를 지원합니다.</t>
+          <t>SAP 배포에 Azure NetApp Files 스토리지를 사용하는 경우 최소한 두 지역의 프리미엄 계층에 두 개의 Azure NetApp Files 계정을 만듭니다.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1492,19 +1516,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-service-levels</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/choose-service-level-azure-netapp-files-hpc-applications/2-identify-decision-criteria</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
+          <t>d3351bf7-628a-46de-917d-dfc11d3b6b40</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1520,12 +1544,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>고가용성</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Azure는 기본 및 보조 VM이 DBMS 데이터에 대한 스토리지를 공유하는 아키텍처를 지원하지 않습니다. DBMS 계층의 경우 일반적인 아키텍처 패턴은 기본 및 보조 VM에서 사용하는 것과 다른 스토리지 스택을 사용하여 동시에 데이터베이스를 복제하는 것입니다.</t>
+          <t>기본 데이터베이스 복제 기술을 사용하여 HA 쌍의 데이터베이스를 동기화해야 합니다.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1547,14 +1571,14 @@
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
+          <t>726a1d3e-5508-4a06-9d54-93f4b50040c1</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1570,12 +1594,12 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>고가용성</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>DBMS 데이터 및 트랜잭션/다시 실행 로그 파일은 Azure 지원 블록 스토리지 또는 Azure NetApp Files에 저장됩니다. Azure Files 또는 Azure Premium Files는 DBMS 데이터 및/또는 SAP 워크로드가 있는 다시 실행 로그 파일에 대한 스토리지로 지원되지 않습니다.</t>
+          <t>기본 VNet(가상 네트워크)에 대한 CIDR은 DR 사이트 VNet의 CIDR과 충돌하거나 겹치지 않아야 합니다</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1592,19 +1616,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/virtual-network/virtual-networks-faq</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
+          <t>6561f847-3db5-4ff8-9200-5ad3c3b436ad</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1620,12 +1644,12 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>고가용성</t>
+          <t>재해 복구</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>ASCS + SCS 구성 요소 및 특정 고가용성 시나리오에 대해 Windows에서 Azure 공유 디스크를 사용할 수 있습니다. SAP 애플리케이션 계층 구성 요소 및 DBMS 계층에 대해 장애 조치(failover) 클러스터를 별도로 설정합니다. Azure는 현재 SAP 애플리케이션 계층 구성 요소와 DBMS 계층을 하나의 장애 조치(failover) 클러스터로 결합하는 고가용성 아키텍처를 지원하지 않습니다.</t>
+          <t>Site Recovery를 사용하여 응용 프로그램 서버를 DR 사이트에 복제합니다. Site Recovery는 중앙 서비스 클러스터 VM을 DR 사이트에 복제하는 데도 도움이 될 수 있습니다. DR을 호출할 때 DR 사이트에서 Linux Pacemaker 클러스터를 다시 구성해야 합니다(예: VIP 또는 SBD 바꾸기, corosync.conf 실행 등).</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1640,21 +1664,17 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
-        </is>
-      </c>
+      <c r="H20" s="15" t="n"/>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
+          <t>0258ed30-fe42-434f-87b9-58f91f908e0a</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1675,7 +1695,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>SAP ASCS(애플리케이션 계층 구성 요소) 및 DBMS 계층에 대한 대부분의 장애 조치(failover) 클러스터에는 장애 조치(failover) 클러스터에 대한 가상 IP 주소가 필요합니다.  Azure Load Balancer는 다른 모든 경우에 대한 가상 IP 주소를 처리해야 합니다. 한 가지 설계 원칙은 클러스터 구성당 하나의 부하 분산 장치를 사용하는 것입니다. 부하 분산 장치의 표준 버전(표준 Load Balancer SKU)을 사용하는 것이 좋습니다.</t>
+          <t>단일 장애 지점에 대한 SAP 소프트웨어의 가용성을 고려합니다. 여기에는 SAP NetWeaver 및 SAP S/4HANA 아키텍처, SAP ABAP 및 ASCS + SCS에서 사용되는 DBMS와 같은 애플리케이션 내의 단일 실패 지점이 포함됩니다. 또한 SAP Web Dispatcher와 같은 다른 도구도 있습니다.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1692,19 +1712,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
+          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1725,7 +1745,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>로드 밸런서에서 유동 IP가 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>SAP 및 SAP 데이터베이스의 경우 자동 장애 조치(failover) 클러스터를 구현하는 것이 좋습니다. Windows에서 Windows Server 장애 조치(failover) 클러스터링은 장애 조치(failover)를 지원합니다. Linux에서 Linux Pacemaker 또는 SIOS Protection Suite 및 Veritas InfoScale과 같은 타사 툴은 장애 조치를 지원합니다.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1742,19 +1762,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1775,7 +1795,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>고가용성 인프라를 배포하기 전에 선택한 지역에 따라 Azure 가용성 집합 또는 가용성 영역을 사용하여 배포할지 여부를 결정합니다.</t>
+          <t>Azure는 기본 및 보조 VM이 DBMS 데이터에 대한 스토리지를 공유하는 아키텍처를 지원하지 않습니다. DBMS 계층의 경우 일반적인 아키텍처 패턴은 기본 및 보조 VM에서 사용하는 것과 다른 스토리지 스택을 사용하여 동시에 데이터베이스를 복제하는 것입니다.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1792,19 +1812,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-sap-guide?tabs=windows</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
+          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1825,7 +1845,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>SAP 구성 요소(중앙 서비스, 애플리케이션 서버 및 데이터베이스)용 애플리케이션에 대한 인프라 SLA를 충족하려면 모든 구성 요소에 대해 동일한 고가용성 옵션(VM, 가용성 집합, 가용성 영역)을 선택해야 합니다.</t>
+          <t>DBMS 데이터 및 트랜잭션/다시 실행 로그 파일은 Azure 지원 블록 스토리지 또는 Azure NetApp Files에 저장됩니다. Azure Files 또는 Azure Premium Files는 DBMS 데이터 및/또는 SAP 워크로드가 있는 다시 실행 로그 파일에 대한 스토리지로 지원되지 않습니다.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1842,15 +1862,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+        </is>
+      </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
+          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1871,7 +1895,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>동일한 가용성 집합에 서로 다른 역할의 서버를 혼합하지 마십시오. 중앙 서비스 VM, 데이터베이스 VM, 애플리케이션 VM을 자체 가용성 집합으로 유지</t>
+          <t>ASCS + SCS 구성 요소 및 특정 고가용성 시나리오에 대해 Windows에서 Azure 공유 디스크를 사용할 수 있습니다. SAP 애플리케이션 계층 구성 요소 및 DBMS 계층에 대해 장애 조치(failover) 클러스터를 별도로 설정합니다. Azure는 현재 SAP 애플리케이션 계층 구성 요소와 DBMS 계층을 하나의 장애 조치(failover) 클러스터로 결합하는 고가용성 아키텍처를 지원하지 않습니다.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1888,19 +1912,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1921,13 +1945,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>근접 배치 그룹을 사용하지 않는 한 Azure 가용성 영역 내에 Azure 가용성 집합을 배포할 수 없습니다.</t>
+          <t>SAP ASCS(애플리케이션 계층 구성 요소) 및 DBMS 계층에 대한 대부분의 장애 조치(failover) 클러스터에는 장애 조치(failover) 클러스터에 대한 가상 IP 주소가 필요합니다.  Azure Load Balancer는 다른 모든 경우에 대한 가상 IP 주소를 처리해야 합니다. 한 가지 설계 원칙은 클러스터 구성당 하나의 부하 분산 장치를 사용하는 것입니다. 부하 분산 장치의 표준 버전(표준 Load Balancer SKU)을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1938,19 +1962,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
+          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1971,7 +1995,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>가용성 집합을 만들 때 사용 가능한 최대 장애 도메인 및 업데이트 도메인 수를 사용합니다. 예를 들어 하나의 가용성 집합에 두 개 이상의 VM을 배포하는 경우 Azure의 계획된 유지 관리 외에도 잠재적인 물리적 하드웨어 오류, 네트워크 중단 또는 전원 중단의 영향을 제한하기 위해 최대 장애 도메인 수(3개)와 충분한 업데이트 도메인을 사용합니다. 장애 도메인의 기본 수는 2개이며 나중에 온라인으로 변경할 수 없습니다.</t>
+          <t>로드 밸런서에서 유동 IP가 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1988,19 +2012,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2021,7 +2045,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>가용성 집합 배포에서 Azure 근접 배치 그룹을 사용하는 경우 세 가지 SAP 구성 요소(중앙 서비스, 애플리케이션 서버 및 데이터베이스)가 모두 동일한 근접 배치 그룹에 있어야 합니다.</t>
+          <t>고가용성 인프라를 배포하기 전에 선택한 지역에 따라 Azure 가용성 집합 또는 가용성 영역을 사용하여 배포할지 여부를 결정합니다.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2038,14 +2062,19 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
+          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2066,7 +2095,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>SAP SID당 하나의 근접 배치 그룹을 사용합니다. 그룹은 가용성 영역 또는 Azure 지역에 걸쳐 있지 않습니다.</t>
+          <t>SAP 구성 요소(중앙 서비스, 애플리케이션 서버 및 데이터베이스)용 애플리케이션에 대한 인프라 SLA를 충족하려면 모든 구성 요소에 대해 동일한 고가용성 옵션(VM, 가용성 집합, 가용성 영역)을 선택해야 합니다.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2083,14 +2112,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2101,23 +2130,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>계산</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>올바른 VM SKU 및 영역에 대한 할당량 요청 만들기</t>
+          <t>동일한 가용성 집합에 서로 다른 역할의 서버를 혼합하지 마십시오. 중앙 서비스 VM, 데이터베이스 VM, 애플리케이션 VM을 자체 가용성 집합으로 유지</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2126,12 +2155,21 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2142,23 +2180,23 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>근접 배치 그룹을 사용하지 않는 한 Azure 가용성 영역 내에 Azure 가용성 집합을 배포할 수 없습니다.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2169,19 +2207,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2192,23 +2230,23 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 원칙 전파 적용</t>
+          <t>가용성 집합을 만들 때 사용 가능한 최대 장애 도메인 및 업데이트 도메인 수를 사용합니다. 예를 들어 하나의 가용성 집합에 두 개 이상의 VM을 배포하는 경우 Azure의 계획된 유지 관리 외에도 잠재적인 물리적 하드웨어 오류, 네트워크 중단 또는 전원 중단의 영향을 제한하기 위해 최대 장애 도메인 수(3개)와 충분한 업데이트 도메인을 사용합니다. 장애 도메인의 기본 수는 2개이며 나중에 온라인으로 변경할 수 없습니다.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2219,19 +2257,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2242,23 +2280,23 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 Azure AD로 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>가용성 집합 배포에서 Azure 근접 배치 그룹을 사용하는 경우 세 가지 SAP 구성 요소(중앙 서비스, 애플리케이션 서버 및 데이터베이스)가 모두 동일한 근접 배치 그룹에 있어야 합니다.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2269,7 +2307,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2277,7 +2315,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2288,23 +2326,23 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>SAP SID당 하나의 근접 배치 그룹을 사용합니다. 그룹은 가용성 영역 또는 Azure 지역에 걸쳐 있지 않습니다.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2315,19 +2353,15 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2338,23 +2372,23 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>운영 체제에 따라 다음 서비스 중 하나를 사용하여 SAP 중앙 서비스 클러스터를 실행합니다.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,17 +2397,21 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="n"/>
+      <c r="H35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
+        </is>
+      </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>bca3b10e-0ff5-4aec-ac16-4c4bd1a1c13f</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2384,17 +2422,17 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver SSO 또는 파트너 솔루션을 사용하여 SAP GUI에 대한 SSO를 구현할 수 있습니다.</t>
+          <t>Azure는 현재 동일한 Linux Pacemaker 클러스터에서 ASCS와 DB HA의 결합을 지원하지 않습니다. 개별 클러스터로 분리합니다. 그러나 최대 5개의 여러 중앙 서비스 클러스터를 한 쌍의 VM으로 결합할 수 있습니다.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2411,19 +2449,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-suse-multi-sid</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>ed46b937-913e-4018-9c62-8393ab037e53</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2434,17 +2472,17 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하기 때문에 SNC – Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
+          <t>가용성 집합 또는 가용성 영역의 고가용성 쌍에 두 VM을 모두 배포합니다. 이러한 VM은 크기가 동일하고 스토리지 구성이 동일해야 합니다.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2459,17 +2497,17 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="n"/>
-      <c r="I37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
+        </is>
+      </c>
+      <c r="I37" s="15" t="n"/>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>f656e745-0cfb-453e-8008-0528fa21c933</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2480,17 +2518,17 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>고가용성</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하기 때문에 SNC – Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
+          <t>Azure는 RHEL(Red Hat Enterprise Linux)에서 실행되는 동일한 고가용성 클러스터에 SAP HANA, ASCS/SCS 및 ERS 인스턴스의 설치 및 구성을 지원합니다.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2507,15 +2545,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-with-hana-ascs-ers-dialog-instance</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>7f684ebc-95da-425e-b329-e782dbed050f</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2526,23 +2568,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver용 OAuth를 사용하여 SSO를 구현하여 타사 또는 사용자 지정 애플리케이션이 SAP NetWeaver OData 서비스에 액세스할 수 있도록 합니다.</t>
+          <t>프리미엄 관리형 SSD에서 모든 프로덕션 시스템을 실행하고 Azure NetApp Files 또는 Ultra Disk Storage를 사용합니다. 적어도 OS 디스크는 프리미엄 계층에 있어야 더 나은 성능과 최상의 SLA를 달성할 수 있습니다.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2553,15 +2595,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>07991f7d-6598-4d90-9431-45c62605d3a5</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2572,23 +2618,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>SAP HANA에 대한 SSO 구현</t>
+          <t>Azure의 SAP HANA는 SAP에서 인증한 스토리지 유형에서만 실행해야 합니다. 특정 볼륨은 해당되는 경우 특정 디스크 구성에서 실행되어야 합니다. 이러한 구성에는 Write Accelerator 사용 및 Premium Storage 사용이 포함됩니다. 또한 스토리지에서 실행되는 파일 시스템이 시스템에서 실행되는 DBMS와 호환되는지 확인해야 합니다.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2599,15 +2645,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-operations-storage</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1?source=recommendations</t>
+        </is>
+      </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>73cdaecc-7d74-48d8-a040-88416eebc98c</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2618,23 +2668,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Azure AD를 RISE에서 호스트되는 SAP 시스템의 ID 공급자로 간주합니다. 자세한 내용은 Azure AD와 서비스 통합을 참조하세요.</t>
+          <t>SAP 워크로드에 사용하는 스토리지 유형에 따라 고가용성을 구성하는 것이 좋습니다. Azure에서 사용할 수 있는 일부 스토리지 서비스는 Azure Site Recovery에서 지원되지 않으므로 고가용성 구성이 다를 수 있습니다.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2645,15 +2695,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-overview-guide#storage</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/2-explore-disaster-recovery-sap-workloads</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>51904867-a70e-4fa0-b4ff-3e6292846d7c</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2664,23 +2718,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비즈니스 연속성 및 재해 복구</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>보관</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>SAP에 액세스하는 애플리케이션의 경우 보안 주체 전파를 사용하여 SSO를 설정할 수 있습니다.</t>
+          <t>일부 지역에서는 다양한 네이티브 Azure Storage 서비스(예: Azure Files, Azure NetApp Files, Azure Shared Disk)를 사용하지 못할 수 있습니다. 따라서 장애 조치(failover) 후 DR 지역에서 유사한 SAP를 설정하려면 해당 스토리지 서비스가 DR 사이트에서 제공되는지 확인합니다.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2691,7 +2745,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://azure.microsoft.com/ja-jp/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2699,7 +2753,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>1ac2d928-c9b7-42c6-ba18-23b1aea78693</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2710,17 +2764,17 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>계산</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 인증 요청을 전달할 수 있습니다.</t>
+          <t>올바른 VM SKU 및 영역에 대한 할당량 요청 만들기</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2735,17 +2789,13 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
-        </is>
-      </c>
+      <c r="H43" s="15" t="n"/>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2756,17 +2806,17 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비용 최적화</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>SAP BTP에 대한 SSO 구현</t>
+          <t>SAP System Start-Stop을 자동화하여 비용을 관리합니다.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2783,7 +2833,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2791,7 +2841,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2812,13 +2862,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
+          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2829,14 +2879,19 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2847,17 +2902,17 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>SAP 구독에 기존 관리 그룹 정책 적용</t>
+          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 원칙 전파 적용</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2874,19 +2929,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2897,23 +2952,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성 방지</t>
+          <t>SAML을 사용하여 Azure AD로 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2924,19 +2979,15 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2947,23 +2998,23 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">구독을 배율 단위로 활용하고 리소스를 확장하려면 환경별로 구독을 배포하는 것이 좋습니다. 샌드박스, 비프로덕션, 프로덕션 </t>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2974,19 +3025,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2997,23 +3048,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>구독 프로비저닝의 일부로 할당량 증가 확인(예: 구독 내에서 사용 가능한 총 VM 코어)</t>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3022,21 +3073,17 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3047,23 +3094,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>할당량 API는 Azure 서비스에 대한 할당량을 보고 관리하는 데 사용할 수 있는 REST API입니다. 필요한 경우 사용을 고려하십시오.</t>
+          <t>SAP NetWeaver SSO 또는 파트너 솔루션을 사용하여 SAP GUI에 대한 SSO를 구현할 수 있습니다.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3074,15 +3121,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3093,23 +3144,23 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 사용하여 지원 요청을 제출합니다.</t>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3118,17 +3169,17 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+      <c r="H51" s="15" t="n"/>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3139,23 +3190,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>예를 들어 선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다. ANF, 지역 등.</t>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3166,19 +3217,15 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3189,17 +3236,17 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, 프로젝트 이름)</t>
+          <t>SAP NetWeaver용 OAuth를 사용하여 SSO를 구현하여 타사 또는 사용자 지정 애플리케이션이 SAP NetWeaver OData 서비스에 액세스할 수 있도록 합니다.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3216,19 +3263,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3239,23 +3281,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>BCDR (영문)</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup 서비스를 사용하여 HANA 데이터베이스를 보호할 수 있습니다.</t>
+          <t>SAP HANA에 대한 SSO 구현</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3266,19 +3308,15 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
-        </is>
-      </c>
-      <c r="I54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3289,17 +3327,17 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>BCDR (영문)</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>HANA, Oracle 또는 DB2 데이터베이스용 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
+          <t>Azure AD를 RISE에서 호스트되는 SAP 시스템의 ID 공급자로 간주합니다. 자세한 내용은 Azure AD와 서비스 통합을 참조하세요.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3316,14 +3354,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3334,23 +3372,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>운영 체제와 SAP 시스템 간의 표준 시간대 일치를 확인합니다.</t>
+          <t>SAP에 액세스하는 애플리케이션의 경우 보안 주체 전파를 사용하여 SSO를 설정할 수 있습니다.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3361,14 +3399,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3379,17 +3417,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>동일한 클러스터에서 서로 다른 애플리케이션 서비스를 그룹화하지 마세요. 예를 들어 DRBD와 중앙 서비스 클러스터를 동일한 클러스터에 결합하지 마세요. 그러나 동일한 Pacemaker 클러스터를 사용하여 약 5개의 서로 다른 중앙 서비스(다중 SID 클러스터)를 관리할 수 있습니다.</t>
+          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 인증 요청을 전달할 수 있습니다.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3406,19 +3444,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3429,23 +3462,23 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Azure 실행 비용을 절감하고 최적화하기 위해 다시 알림 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
+          <t>SAP BTP에 대한 SSO 구현</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3456,14 +3489,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3474,17 +3507,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 고객의 손에 제어 권한을 부여합니다.</t>
+          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3501,14 +3534,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3519,17 +3552,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Azure Update Manager를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
+          <t>SAP 구독에 기존 관리 그룹 정책 적용</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3546,19 +3579,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3569,23 +3602,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>SAP Landscape Management(LaMa)를 사용하여 SAP Basis 운영을 최적화하고 관리합니다. Azure용 SAP LaMa 커넥터를 사용하여 SAP 시스템을 재배치, 복사, 복제 및 새로 고칩니다.</t>
+          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성 방지</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3596,19 +3629,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3619,23 +3652,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Azure Monitor 솔루션을 사용하여 Azure에서 SAP 워크로드(SAP HANA, 고가용성 SUSE 클러스터 및 SQL 시스템)를 모니터링합니다. SAP Solution Manager를 사용하여 SAP용 Azure Monitor 솔루션을 보완하는 것이 좋습니다.</t>
+          <t xml:space="preserve">구독을 배율 단위로 활용하고 리소스를 확장하려면 환경별로 구독을 배포하는 것이 좋습니다. 샌드박스, 비프로덕션, 프로덕션 </t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3646,19 +3679,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3669,17 +3702,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>SAP용 VM 확장 검사를 실행합니다. SAP용 VM 확장은 VM(가상 머신)의 할당된 관리 ID를 사용하여 VM 모니터링 및 구성 데이터에 액세스합니다. 이 검사는 SAP 애플리케이션의 모든 성능 메트릭이 기본 SAP용 Azure 확장에서 제공되는지 확인합니다.</t>
+          <t>구독 프로비저닝의 일부로 할당량 증가 확인(예: 구독 내에서 사용 가능한 총 VM 코어)</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3696,19 +3729,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3719,23 +3752,23 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>할당량 API는 Azure 서비스에 대한 할당량을 보고 관리하는 데 사용할 수 있는 REST API입니다. 필요한 경우 사용을 고려하십시오.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3746,19 +3779,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3769,23 +3798,23 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Azure Network Watcher의 연결 모니터를 사용하여 SAP 데이터베이스 및 애플리케이션 서버에 대한 대기 시간 메트릭을 모니터링합니다. 또는 Azure Monitor를 사용하여 네트워크 대기 시간 측정값을 수집하고 표시합니다.</t>
+          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 사용하여 지원 요청을 제출합니다.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3796,19 +3825,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3819,17 +3844,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
+          <t>예를 들어 선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다. ANF, 지역 등.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3846,19 +3871,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3869,17 +3894,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>프로비저닝된 Azure 인프라에서 SAP HANA에 대한 품질 검사를 수행하여 프로비저닝된 VM이 Azure의 SAP HANA 모범 사례를 준수하는지 확인합니다.</t>
+          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, 프로젝트 이름)</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3896,15 +3921,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3920,12 +3949,12 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>각 Azure 구독에 대해 영역 배포 전에 Azure 가용성 영역에서 대기 시간 테스트를 실행하여 Azure에서 SAP를 배포하기 위한 대기 시간이 짧은 영역을 선택합니다.</t>
+          <t>Azure Backup 서비스를 사용하여 HANA 데이터베이스를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3942,19 +3971,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3970,12 +3999,12 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>복원력 보고서를 실행하여 프로비저닝된 전체 Azure 인프라(컴퓨팅, 데이터베이스, 네트워킹, 스토리지, Site Recovery)의 구성이 Azure용 클라우드 적응 프레임워크에서 정의한 구성을 준수하는지 확인합니다.</t>
+          <t>HANA, Oracle 또는 DB2 데이터베이스용 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3992,19 +4021,15 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4020,18 +4045,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Microsoft Sentinel 솔루션을 사용하여 위협 방지를 구현합니다. 이 솔루션을 사용하여 SAP 시스템을 모니터링하고 비즈니스 로직 및 애플리케이션 계층 전체에서 정교한 위협을 탐지할 수 있습니다.</t>
+          <t>운영 체제와 SAP 시스템 간의 표준 시간대 일치를 확인합니다.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4042,19 +4067,15 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4070,12 +4091,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Azure 태그 지정을 활용하여 리소스를 논리적으로 그룹화 및 추적하고, 배포를 자동화하고, 가장 중요한 것은 발생한 비용에 대한 가시성을 제공할 수 있습니다.</t>
+          <t>동일한 클러스터에서 서로 다른 애플리케이션 서비스를 그룹화하지 마세요. 예를 들어 DRBD와 중앙 서비스 클러스터를 동일한 클러스터에 결합하지 마세요. 그러나 동일한 Pacemaker 클러스터를 사용하여 약 5개의 서로 다른 중앙 서비스(다중 SID 클러스터)를 관리할 수 있습니다.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4092,19 +4113,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4120,12 +4141,12 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>대기 시간에 민감한 애플리케이션에 대해 VM 간 대기 시간 모니터링을 사용합니다.</t>
+          <t>Azure 실행 비용을 절감하고 최적화하기 위해 다시 알림 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4142,7 +4163,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4150,7 +4171,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4166,12 +4187,12 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
+          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 고객의 손에 제어 권한을 부여합니다.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4188,19 +4209,15 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="n"/>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4216,12 +4233,12 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>모든 데이터베이스 파일 시스템 및 실행 프로그램을 바이러스 백신 검사에서 제외합니다. 이를 포함하면 성능 문제가 발생할 수 있습니다. 제외 목록에 대한 규범적 세부 정보는 데이터베이스 공급업체에 문의하십시오. 예를 들어 &lt;sid&gt;Oracle은 바이러스 백신 검사에서 /oracle//sapdata를 제외할 것을 권장합니다.</t>
+          <t>Azure Update Manager를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4238,15 +4255,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4262,12 +4283,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>마이그레이션 후 비 HANA 데이터베이스에 대한 전체 데이터베이스 통계를 수집하는 것이 좋습니다. 예를 들어 SAP Note 1020260 - Oracle 통계 제공을 구현합니다.</t>
+          <t>SAP Landscape Management(LaMa)를 사용하여 SAP Basis 운영을 최적화하고 관리합니다. Azure용 SAP LaMa 커넥터를 사용하여 SAP 시스템을 재배치, 복사, 복제 및 새로 고칩니다.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4284,15 +4305,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4308,12 +4333,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 SAP를 사용하는 모든 Oracle 배포에 Oracle ASM(Automatic Storage Management)을 사용하는 것이 좋습니다.</t>
+          <t>SAP용 Azure Monitor 솔루션을 사용하여 Azure에서 SAP 워크로드(SAP HANA, 고가용성 SUSE 클러스터 및 SQL 시스템)를 모니터링합니다. SAP Solution Manager를 사용하여 SAP용 Azure Monitor 솔루션을 보완하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4330,19 +4355,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4358,18 +4383,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Oracle을 실행하는 Azure의 SAP의 경우 SQL 스크립트 컬렉션은 성능 문제를 진단하는 데 도움이 될 수 있습니다.  AWR(Automatic Workload Repository) 보고서에는 Oracle 시스템의 문제점을 진단하는 데 유용한 정보가 포함되어 있습니다. 여러 세션 동안 AWR 보고서를 실행하고 피크 시간을 선택하여 광범위한 분석 범위를 보장하는 것이 좋습니다.</t>
+          <t>SAP용 VM 확장 검사를 실행합니다. SAP용 VM 확장은 VM(가상 머신)의 할당된 관리 ID를 사용하여 VM 모니터링 및 구성 데이터에 액세스합니다. 이 검사는 SAP 애플리케이션의 모든 성능 메트릭이 기본 SAP용 Azure 확장에서 제공되는지 확인합니다.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4380,19 +4405,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4403,17 +4428,17 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>HTTP/S 앱을 안전하게 배달하려면 Application Gateway v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4430,19 +4455,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4453,17 +4478,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>DNS (영문)</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 인식하는 경우에만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
+          <t>Azure Network Watcher의 연결 모니터를 사용하여 SAP 데이터베이스 및 애플리케이션 서버에 대한 대기 시간 메트릭을 모니터링합니다. 또는 Azure Monitor를 사용하여 네트워크 대기 시간 측정값을 수집하고 표시합니다.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4480,19 +4505,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4503,23 +4528,23 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>DNS (영문)</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>서로 다른 DNS 영역을 사용하여 각 환경(샌드박스, 개발, 사전 프로덕션 및 프로덕션)을 서로 구분합니다. 예외는 자체 VNet을 사용하는 SAP 배포의 경우입니다. 여기서는 프라이빗 DNS 영역이 필요하지 않을 수 있습니다.</t>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4530,19 +4555,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4553,17 +4578,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 접근 방식입니다</t>
+          <t>프로비저닝된 Azure 인프라에서 SAP HANA에 대한 품질 검사를 수행하여 프로비저닝된 VM이 Azure의 SAP HANA 모범 사례를 준수하는지 확인합니다.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4580,19 +4605,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4603,17 +4624,17 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션과 SAP 데이터베이스 서버 간에 NVA를 배포하는 것은 지원되지 않습니다</t>
+          <t>각 Azure 구독에 대해 영역 배포 전에 Azure 가용성 영역에서 대기 시간 테스트를 실행하여 Azure에서 SAP를 배포하기 위한 대기 시간이 짧은 영역을 선택합니다.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4630,19 +4651,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4653,17 +4674,17 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+          <t>복원력 보고서를 실행하여 프로비저닝된 전체 Azure 인프라(컴퓨팅, 데이터베이스, 네트워킹, 스토리지, Site Recovery)의 구성이 Azure용 클라우드 적응 프레임워크에서 정의한 구성을 준수하는지 확인합니다.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4680,19 +4701,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4703,17 +4724,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>파트너 NVA를 사용하는 경우에만 지역 간에 NVA(네트워크 가상 어플라이언스)를 배포하는 것이 좋습니다. 네이티브 NVA가 있는 경우 지역 또는 VNet 간의 NVA가 필요하지 않습니다. 파트너 네트워킹 기술 및 NVA를 배포하는 경우 공급업체의 지침에 따라 Azure 네트워킹과 충돌하는 구성을 확인합니다.</t>
+          <t>SAP용 Microsoft Sentinel 솔루션을 사용하여 위협 방지를 구현합니다. 이 솔루션을 사용하여 SAP 시스템을 모니터링하고 비즈니스 로직 및 애플리케이션 계층 전체에서 정교한 위협을 탐지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4730,19 +4751,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4753,17 +4774,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN은 가상 WAN 기반 토폴로지에 대한 스포크 VNet 간의 연결을 관리하며(UDR[사용자 정의 라우팅] 또는 NVA를 설정할 필요 없음) 동일한 가상 허브의 VNet 간 트래픽에 대한 최대 네트워크 처리량은 초당 50기가비트입니다. 필요한 경우 SAP 랜딩 존은 VNet 피어링을 사용하여 다른 랜딩 존에 연결하고 이 대역폭 제한을 극복할 수 있습니다.</t>
+          <t>Azure 태그 지정을 활용하여 리소스를 논리적으로 그룹화 및 추적하고, 배포를 자동화하고, 가장 중요한 것은 발생한 비용에 대한 가시성을 제공할 수 있습니다.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4780,19 +4801,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4803,23 +4824,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>SAP 워크로드를 실행하는 VM에 대한 공용 I.P 할당은 권장되지 않습니다.</t>
+          <t>대기 시간에 민감한 애플리케이션에 대해 VM 간 대기 시간 모니터링을 사용합니다.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4830,19 +4851,15 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4853,23 +4870,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>ASR을 구성할 때 DR 쪽에서 I.P 주소를 예약하는 것이 좋습니다.</t>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4880,19 +4897,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4903,23 +4920,23 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>모든 데이터베이스 파일 시스템 및 실행 프로그램을 바이러스 백신 검사에서 제외합니다. 이를 포함하면 성능 문제가 발생할 수 있습니다. 제외 목록에 대한 규범적 세부 정보는 데이터베이스 공급업체에 문의하십시오. 예를 들어 &lt;sid&gt;Oracle은 바이러스 백신 검사에서 /oracle//sapdata를 제외할 것을 권장합니다.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4930,19 +4947,15 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4953,23 +4966,23 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 위임된 서브넷이 하나만 존재할 수 있습니다. Azure NetApp Files에 대해 둘 이상의 위임된 서브넷을 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
+          <t>마이그레이션 후 비 HANA 데이터베이스에 대한 전체 데이터베이스 통계를 수집하는 것이 좋습니다. 예를 들어 SAP Note 1020260 - Oracle 통계 제공을 구현합니다.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4980,19 +4993,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5003,17 +5012,17 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+          <t>Azure에서 SAP를 사용하는 모든 Oracle 배포에 Oracle ASM(Automatic Storage Management)을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5030,19 +5039,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5053,17 +5062,17 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway가 SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 제한 사항이 있습니다.</t>
+          <t>Oracle을 실행하는 Azure의 SAP의 경우 SQL 스크립트 컬렉션은 성능 문제를 진단하는 데 도움이 될 수 있습니다.  AWR(Automatic Workload Repository) 보고서에는 Oracle 시스템의 문제점을 진단하는 데 유용한 정보가 포함되어 있습니다. 여러 세션 동안 AWR 보고서를 실행하고 피크 시간을 선택하여 광범위한 분석 범위를 보장하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5080,19 +5089,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5108,12 +5117,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+          <t>HTTP/S 앱을 안전하게 배달하려면 Application Gateway v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5130,19 +5139,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5158,12 +5167,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>DNS (영문)</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Application Gateway를 사용하여 HTTP/S 애플리케이션을 보호하는 경우 Azure Front Door의 Web Application Firewall 정책을 활용합니다. Azure Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
+          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 인식하는 경우에만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5180,19 +5189,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5208,12 +5217,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>DNS (영문)</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
+          <t>서로 다른 DNS 영역을 사용하여 각 환경(샌드박스, 개발, 사전 프로덕션 및 프로덕션)을 서로 구분합니다. 예외는 자체 VNet을 사용하는 SAP 배포의 경우입니다. 여기서는 프라이빗 DNS 영역이 필요하지 않을 수 있습니다.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5230,19 +5239,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5258,12 +5267,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+          <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 접근 방식입니다</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5280,19 +5289,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5308,18 +5317,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>데이터 유출을 방지하려면 Azure Private Link를 사용하여 Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory 등과 같은 PaaS(Platform as a Service) 리소스에 안전하게 액세스합니다. Azure 프라이빗 엔드포인트는 VNet과 Azure Storage, Azure Backup 등과 같은 서비스 간의 트래픽을 보호하는 데도 도움이 될 수 있습니다. VNet과 프라이빗 엔드포인트 사용 서비스 간의 트래픽은 Microsoft 글로벌 네트워크를 통해 이동하므로 공용 인터넷에 노출되지 않습니다.</t>
+          <t>SAP 애플리케이션과 SAP 데이터베이스 서버 간에 NVA를 배포하는 것은 지원되지 않습니다</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5330,19 +5339,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5358,18 +5367,18 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5380,19 +5389,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5408,12 +5417,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
+          <t>파트너 NVA를 사용하는 경우에만 지역 간에 NVA(네트워크 가상 어플라이언스)를 배포하는 것이 좋습니다. 네이티브 NVA가 있는 경우 지역 또는 VNet 간의 NVA가 필요하지 않습니다. 파트너 네트워킹 기술 및 NVA를 배포하는 경우 공급업체의 지침에 따라 Azure 네트워킹과 충돌하는 구성을 확인합니다.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5430,19 +5439,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5458,12 +5467,12 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간에 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 보안을 관리하는 데 도움이 되도록 가상 머신을 그룹화합니다.</t>
+          <t>Virtual WAN은 가상 WAN 기반 토폴로지에 대한 스포크 VNet 간의 연결을 관리하며(UDR[사용자 정의 라우팅] 또는 NVA를 설정할 필요 없음) 동일한 가상 허브의 VNet 간 트래픽에 대한 최대 네트워크 처리량은 초당 50기가비트입니다. 필요한 경우 SAP 랜딩 존은 VNet 피어링을 사용하여 다른 랜딩 존에 연결하고 이 대역폭 제한을 극복할 수 있습니다.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5480,19 +5489,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,12 +5517,12 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>피어링되지 않은 다른 Azure VNet에 SAP 애플리케이션 계층 및 SAP DBMS를 배치하는 것은 지원되지 않습니다.</t>
+          <t>SAP 워크로드를 실행하는 VM에 대한 공용 I.P 할당은 권장되지 않습니다.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5530,19 +5539,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,18 +5567,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션에서 네트워크 대기 시간을 최적화하려면 Azure 근접 배치 그룹을 사용하는 것이 좋습니다.</t>
+          <t>ASR을 구성할 때 DR 쪽에서 I.P 주소를 예약하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5580,19 +5589,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5608,12 +5617,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>온-프레미스와 Azure 간에 분할된 SAP 애플리케이션 서버 계층 및 DBMS 계층을 실행하는 것은 전혀 지원되지 않습니다. 두 계층 모두 온-프레미스 또는 Azure에 완전히 상주해야 합니다.</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5630,19 +5639,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5658,18 +5667,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 다른 VNet에서 SAP 시스템의 DBMS(데이터베이스 관리 시스템) 및 애플리케이션 계층을 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내에서 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
+          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 위임된 서브넷이 하나만 존재할 수 있습니다. Azure NetApp Files에 대해 둘 이상의 위임된 서브넷을 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5680,19 +5689,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5708,18 +5717,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5730,19 +5739,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5758,12 +5767,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
+          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway가 SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 제한 사항이 있습니다.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5780,15 +5789,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5799,17 +5812,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Azure, 온-프레미스 또는 기타 클라우드 환경에서 Windows 및 Linux VM을 실행하는 경우 Azure Automation의 업데이트 관리 센터를 사용하여 보안 패치를 포함한 운영 체제 업데이트를 관리할 수 있습니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5826,19 +5839,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5849,17 +5862,17 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>SAP는 SAP 시스템을 보호하기 위해 즉각적인 조치가 필요한 매우 중요한 보안 패치 또는 핫픽스를 릴리스하므로 SAP 보안 OSS 노트를 정기적으로 검토합니다.</t>
+          <t>Azure Front Door 및 Application Gateway를 사용하여 HTTP/S 애플리케이션을 보호하는 경우 Azure Front Door의 Web Application Firewall 정책을 활용합니다. Azure Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5876,19 +5889,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5899,23 +5912,23 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>SQL Server SAP의 경우 SQL Server SAP 시스템에서 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
+          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,15 +5939,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5945,23 +5962,23 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용할 수 있습니다. 이는 보안 감사에서 발생할 수 있는 잠재적 위험입니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5972,19 +5989,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5995,23 +6012,23 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Azrue에서 SAP HANA 데이터베이스 서버를 암호화하는 데는 SAP HANA 네이티브 암호화 기술이 사용됩니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
+          <t>데이터 유출을 방지하려면 Azure Private Link를 사용하여 Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory 등과 같은 PaaS(Platform as a Service) 리소스에 안전하게 액세스합니다. Azure 프라이빗 엔드포인트는 VNet과 Azure Storage, Azure Backup 등과 같은 서비스 간의 트래픽을 보호하는 데도 도움이 될 수 있습니다. VNet과 프라이빗 엔드포인트 사용 서비스 간의 트래픽은 Microsoft 글로벌 네트워크를 통해 이동하므로 공용 인터넷에 노출되지 않습니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6022,19 +6039,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6045,23 +6062,23 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드 또는 애플리케이션을 수정할 필요가 없습니다.</t>
+          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6072,19 +6089,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6095,23 +6112,23 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6122,19 +6139,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6145,17 +6162,17 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수도 있습니다.</t>
+          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간에 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 보안을 관리하는 데 도움이 되도록 가상 머신을 그룹화합니다.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6172,19 +6189,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6195,23 +6212,23 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>피어링되지 않은 다른 Azure VNet에 SAP 애플리케이션 계층 및 SAP DBMS를 배치하는 것은 지원되지 않습니다.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6222,19 +6239,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6245,23 +6262,23 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
+          <t>SAP 애플리케이션에서 네트워크 대기 시간을 최적화하려면 Azure 근접 배치 그룹을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6272,19 +6289,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6295,17 +6312,17 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>SAP 환경에서 엔드포인트용 Microsoft Defender 사용하도록 설정하는 경우 모든 서버를 대상으로 하는 대신 DBMS 서버에서 데이터 및 로그 파일을 제외하는 것이 좋습니다. 대상 파일을 제외할 때 DBMS 공급업체의 권장 사항을 따릅니다.</t>
+          <t>온-프레미스와 Azure 간에 분할된 SAP 애플리케이션 서버 계층 및 DBMS 계층을 실행하는 것은 전혀 지원되지 않습니다. 두 계층 모두 온-프레미스 또는 Azure에 완전히 상주해야 합니다.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6322,19 +6339,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6345,17 +6362,17 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>클라우드용 Microsoft Defender의 Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 다른 VNet에서 SAP 시스템의 DBMS(데이터베이스 관리 시스템) 및 애플리케이션 계층을 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내에서 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6372,19 +6389,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6395,23 +6412,23 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6422,19 +6439,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6445,17 +6462,17 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6472,19 +6489,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6500,18 +6512,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>Azure, 온-프레미스 또는 기타 클라우드 환경에서 Windows 및 Linux VM을 실행하는 경우 Azure Automation의 업데이트 관리 센터를 사용하여 보안 패치를 포함한 운영 체제 업데이트를 관리할 수 있습니다.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6522,19 +6534,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6550,18 +6562,18 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
+          <t>SAP는 SAP 시스템을 보호하기 위해 즉각적인 조치가 필요한 매우 중요한 보안 패치 또는 핫픽스를 릴리스하므로 SAP 보안 OSS 노트를 정기적으로 검토합니다.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6572,19 +6584,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6600,18 +6612,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SQL Server SAP의 경우 SQL Server SAP 시스템에서 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6622,7 +6634,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6630,7 +6642,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6646,12 +6658,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용할 수 있습니다. 이는 보안 감사에서 발생할 수 있는 잠재적 위험입니다.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6668,19 +6680,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6696,12 +6708,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+          <t>Azure에서 SAP HANA 데이터베이스 서버를 암호화하는 데는 SAP HANA 네이티브 암호화 기술이 사용됩니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6718,19 +6730,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6746,18 +6758,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드 또는 애플리케이션을 수정할 필요가 없습니다.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6768,19 +6780,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6796,18 +6808,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6818,19 +6830,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6846,18 +6858,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수도 있습니다.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6868,19 +6880,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6896,18 +6908,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6918,19 +6930,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6946,18 +6958,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
+          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6968,19 +6980,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6991,23 +7003,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>보관</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Oracle, SQL, HANA에 대한 디스크 구성</t>
+          <t>SAP 환경에서 엔드포인트용 Microsoft Defender 사용하도록 설정하는 경우 모든 서버를 대상으로 하는 대신 DBMS 서버에서 데이터 및 로그 파일을 제외하는 것이 좋습니다. 대상 파일을 제외할 때 DBMS 공급업체의 권장 사항을 따릅니다.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7016,12 +7028,21 @@
         </is>
       </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7030,208 +7051,645 @@
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>클라우드용 Microsoft Defender의 Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+        </is>
+      </c>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="n"/>
+      <c r="H131" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
       <c r="P131" s="25" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="21" t="n"/>
-      <c r="B132" s="21" t="n"/>
-      <c r="C132" s="21" t="n"/>
+      <c r="A132" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B132" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C132" s="21" t="inlineStr">
+        <is>
+          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+        </is>
+      </c>
       <c r="D132" s="21" t="n"/>
-      <c r="E132" s="21" t="n"/>
+      <c r="E132" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="n"/>
+      <c r="H132" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="25" t="n"/>
+      <c r="L132" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M132" s="25" t="n"/>
       <c r="N132" s="25" t="n"/>
       <c r="O132" s="25" t="n"/>
       <c r="P132" s="25" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="21" t="n"/>
-      <c r="B133" s="21" t="n"/>
-      <c r="C133" s="21" t="n"/>
+      <c r="A133" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B133" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C133" s="21" t="inlineStr">
+        <is>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+        </is>
+      </c>
       <c r="D133" s="21" t="n"/>
-      <c r="E133" s="21" t="n"/>
+      <c r="E133" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="15" t="n"/>
+      <c r="H133" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="25" t="n"/>
+      <c r="L133" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M133" s="25" t="n"/>
       <c r="N133" s="25" t="n"/>
       <c r="O133" s="25" t="n"/>
       <c r="P133" s="25" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="21" t="n"/>
-      <c r="B134" s="21" t="n"/>
-      <c r="C134" s="21" t="n"/>
+      <c r="A134" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B134" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C134" s="21" t="inlineStr">
+        <is>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+        </is>
+      </c>
       <c r="D134" s="21" t="n"/>
-      <c r="E134" s="21" t="n"/>
+      <c r="E134" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G134" s="21" t="n"/>
-      <c r="H134" s="15" t="n"/>
+      <c r="H134" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
-      <c r="L134" s="25" t="n"/>
+      <c r="L134" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M134" s="25" t="n"/>
       <c r="N134" s="25" t="n"/>
       <c r="O134" s="25" t="n"/>
       <c r="P134" s="25" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="21" t="n"/>
-      <c r="B135" s="21" t="n"/>
-      <c r="C135" s="21" t="n"/>
+      <c r="A135" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B135" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C135" s="21" t="inlineStr">
+        <is>
+          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
+        </is>
+      </c>
       <c r="D135" s="21" t="n"/>
-      <c r="E135" s="21" t="n"/>
+      <c r="E135" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G135" s="21" t="n"/>
-      <c r="H135" s="15" t="n"/>
+      <c r="H135" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
-      <c r="L135" s="25" t="n"/>
+      <c r="L135" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M135" s="25" t="n"/>
       <c r="N135" s="25" t="n"/>
       <c r="O135" s="25" t="n"/>
       <c r="P135" s="25" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="21" t="n"/>
-      <c r="B136" s="21" t="n"/>
-      <c r="C136" s="21" t="n"/>
+      <c r="A136" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B136" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C136" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D136" s="21" t="n"/>
-      <c r="E136" s="21" t="n"/>
+      <c r="E136" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G136" s="21" t="n"/>
-      <c r="H136" s="15" t="n"/>
+      <c r="H136" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
-      <c r="L136" s="25" t="n"/>
+      <c r="L136" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M136" s="25" t="n"/>
       <c r="N136" s="25" t="n"/>
       <c r="O136" s="25" t="n"/>
       <c r="P136" s="25" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1">
-      <c r="A137" s="21" t="n"/>
-      <c r="B137" s="21" t="n"/>
-      <c r="C137" s="21" t="n"/>
+      <c r="A137" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B137" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C137" s="21" t="inlineStr">
+        <is>
+          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+        </is>
+      </c>
       <c r="D137" s="21" t="n"/>
-      <c r="E137" s="21" t="n"/>
+      <c r="E137" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G137" s="21" t="n"/>
-      <c r="H137" s="15" t="n"/>
+      <c r="H137" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
-      <c r="L137" s="25" t="n"/>
+      <c r="L137" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M137" s="25" t="n"/>
       <c r="N137" s="25" t="n"/>
       <c r="O137" s="25" t="n"/>
       <c r="P137" s="25" t="n"/>
     </row>
     <row r="138" ht="16.5" customHeight="1">
-      <c r="A138" s="21" t="n"/>
-      <c r="B138" s="21" t="n"/>
-      <c r="C138" s="21" t="n"/>
+      <c r="A138" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B138" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C138" s="21" t="inlineStr">
+        <is>
+          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+        </is>
+      </c>
       <c r="D138" s="21" t="n"/>
-      <c r="E138" s="21" t="n"/>
+      <c r="E138" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G138" s="21" t="n"/>
-      <c r="H138" s="15" t="n"/>
+      <c r="H138" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
-      <c r="L138" s="25" t="n"/>
+      <c r="L138" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M138" s="25" t="n"/>
       <c r="N138" s="25" t="n"/>
       <c r="O138" s="25" t="n"/>
       <c r="P138" s="25" t="n"/>
     </row>
     <row r="139" ht="16.5" customHeight="1">
-      <c r="A139" s="21" t="n"/>
-      <c r="B139" s="21" t="n"/>
-      <c r="C139" s="21" t="n"/>
+      <c r="A139" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B139" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C139" s="21" t="inlineStr">
+        <is>
+          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D139" s="21" t="n"/>
-      <c r="E139" s="21" t="n"/>
+      <c r="E139" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="15" t="n"/>
+      <c r="H139" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
-      <c r="L139" s="25" t="n"/>
+      <c r="L139" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M139" s="25" t="n"/>
       <c r="N139" s="25" t="n"/>
       <c r="O139" s="25" t="n"/>
       <c r="P139" s="25" t="n"/>
     </row>
     <row r="140" ht="16.5" customHeight="1">
-      <c r="A140" s="21" t="n"/>
-      <c r="B140" s="21" t="n"/>
-      <c r="C140" s="21" t="n"/>
+      <c r="A140" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B140" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C140" s="21" t="inlineStr">
+        <is>
+          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D140" s="21" t="n"/>
-      <c r="E140" s="21" t="n"/>
+      <c r="E140" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="n"/>
+      <c r="H140" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
-      <c r="L140" s="25" t="n"/>
+      <c r="L140" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M140" s="25" t="n"/>
       <c r="N140" s="25" t="n"/>
       <c r="O140" s="25" t="n"/>
       <c r="P140" s="25" t="n"/>
     </row>
     <row r="141" ht="16.5" customHeight="1">
-      <c r="A141" s="21" t="n"/>
-      <c r="B141" s="21" t="n"/>
-      <c r="C141" s="21" t="n"/>
+      <c r="A141" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B141" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C141" s="21" t="inlineStr">
+        <is>
+          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+        </is>
+      </c>
       <c r="D141" s="21" t="n"/>
-      <c r="E141" s="21" t="n"/>
+      <c r="E141" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="n"/>
+      <c r="H141" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
-      <c r="L141" s="25" t="n"/>
+      <c r="L141" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M141" s="25" t="n"/>
       <c r="N141" s="25" t="n"/>
       <c r="O141" s="25" t="n"/>
       <c r="P141" s="25" t="n"/>
     </row>
     <row r="142" ht="16.5" customHeight="1">
-      <c r="A142" s="21" t="n"/>
-      <c r="B142" s="21" t="n"/>
-      <c r="C142" s="21" t="n"/>
+      <c r="A142" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B142" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C142" s="21" t="inlineStr">
+        <is>
+          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="D142" s="21" t="n"/>
-      <c r="E142" s="21" t="n"/>
+      <c r="E142" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="n"/>
+      <c r="H142" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
-      <c r="L142" s="25" t="n"/>
+      <c r="L142" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M142" s="25" t="n"/>
       <c r="N142" s="25" t="n"/>
       <c r="O142" s="25" t="n"/>
       <c r="P142" s="25" t="n"/>
     </row>
     <row r="143" ht="16.5" customHeight="1">
-      <c r="A143" s="21" t="n"/>
-      <c r="B143" s="21" t="n"/>
-      <c r="C143" s="21" t="n"/>
+      <c r="A143" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B143" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C143" s="21" t="inlineStr">
+        <is>
+          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D143" s="21" t="n"/>
-      <c r="E143" s="21" t="n"/>
+      <c r="E143" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G143" s="21" t="n"/>
-      <c r="H143" s="15" t="n"/>
+      <c r="H143" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
-      <c r="L143" s="25" t="n"/>
+      <c r="L143" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M143" s="25" t="n"/>
       <c r="N143" s="25" t="n"/>
       <c r="O143" s="25" t="n"/>
@@ -9718,7 +10176,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F131" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ko.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2852,23 +2852,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비용 최적화</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>SAP HANA와 함께 Azure Premium Storage를 사용하는 경우 Azure 표준 SSD 스토리지를 사용하여 비용에 민감한 스토리지 솔루션을 선택할 수 있습니다. 그러나 표준 SSD 또는 표준 HDD Azure Storage를 선택하면 개별 VM의 SLA에 영향을 줍니다. 또한 비프로덕션 환경과 같이 I/O 처리량이 낮고 대기 시간이 짧은 시스템의 경우 더 낮은 시리즈 VM을 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2879,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2902,23 +2897,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비용 최적화</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 원칙 전파 적용</t>
+          <t>저렴한 대체 구성(다목적)으로 비프로덕션 HANA 데이터베이스 서버 VM에 대해 저성능 SKU를 선택할 수 있습니다. 그러나 E 시리즈와 같은 일부 VM 유형은 HANA 인증(SAP HANA 하드웨어 디렉터리)되지 않았거나 1ms 미만의 스토리지 대기 시간을 달성할 수 없습니다.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2924,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,13 +2953,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 Azure AD로 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2979,15 +2970,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3003,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 원칙 전파 적용</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3020,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3058,7 +3053,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>SAML을 사용하여 Azure AD로 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3073,17 +3068,16 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3098,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver SSO 또는 파트너 솔루션을 사용하여 SAP GUI에 대한 SSO를 구현할 수 있습니다.</t>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3133,7 +3127,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3148,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3172,14 +3166,14 @@
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3200,7 +3194,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
+          <t>SAP NetWeaver SSO 또는 파트너 솔루션을 사용하여 SAP GUI에 대한 SSO를 구현할 수 있습니다.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3217,15 +3211,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3244,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver용 OAuth를 사용하여 SSO를 구현하여 타사 또는 사용자 지정 애플리케이션이 SAP NetWeaver OData 서비스에 액세스할 수 있도록 합니다.</t>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3261,16 +3259,17 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3290,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>SAP HANA에 대한 SSO 구현</t>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3307,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3315,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3336,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure AD를 RISE에서 호스트되는 SAP 시스템의 ID 공급자로 간주합니다. 자세한 내용은 Azure AD와 서비스 통합을 참조하세요.</t>
+          <t>SAP NetWeaver용 OAuth를 사용하여 SSO를 구현하여 타사 또는 사용자 지정 애플리케이션이 SAP NetWeaver OData 서비스에 액세스할 수 있도록 합니다.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3353,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3381,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>SAP에 액세스하는 애플리케이션의 경우 보안 주체 전파를 사용하여 SSO를 설정할 수 있습니다.</t>
+          <t>SAP HANA에 대한 SSO 구현</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3398,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3426,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 인증 요청을 전달할 수 있습니다.</t>
+          <t>Azure AD를 RISE에서 호스트되는 SAP 시스템의 ID 공급자로 간주합니다. 자세한 내용은 Azure AD와 서비스 통합을 참조하세요.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3443,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3471,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>SAP BTP에 대한 SSO 구현</t>
+          <t>SAP에 액세스하는 애플리케이션의 경우 보안 주체 전파를 사용하여 SSO를 설정할 수 있습니다.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3488,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3516,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
+          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 인증 요청을 전달할 수 있습니다.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3551,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>SAP 구독에 기존 관리 그룹 정책 적용</t>
+          <t>SAP BTP에 대한 SSO 구현</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3578,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3602,23 +3596,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성 방지</t>
+          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3623,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,13 +3651,13 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">구독을 배율 단위로 활용하고 리소스를 확장하려면 환경별로 구독을 배포하는 것이 좋습니다. 샌드박스, 비프로덕션, 프로덕션 </t>
+          <t>SAP 구독에 기존 관리 그룹 정책 적용</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3679,19 +3668,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3701,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>구독 프로비저닝의 일부로 할당량 증가 확인(예: 구독 내에서 사용 가능한 총 VM 코어)</t>
+          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성 방지</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3718,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3751,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>할당량 API는 Azure 서비스에 대한 할당량을 보고 관리하는 데 사용할 수 있는 REST API입니다. 필요한 경우 사용을 고려하십시오.</t>
+          <t xml:space="preserve">구독을 배율 단위로 활용하고 리소스를 확장하려면 환경별로 구독을 배포하는 것이 좋습니다. 샌드박스, 비프로덕션, 프로덕션 </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3768,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,7 +3801,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 사용하여 지원 요청을 제출합니다.</t>
+          <t>구독 프로비저닝의 일부로 할당량 증가 확인(예: 구독 내에서 사용 가능한 총 VM 코어)</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3825,15 +3818,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,13 +3851,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>예를 들어 선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다. ANF, 지역 등.</t>
+          <t>할당량 API는 Azure 서비스에 대한 할당량을 보고 관리하는 데 사용할 수 있는 REST API입니다. 필요한 경우 사용을 고려하십시오.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3871,19 +3868,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3896,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, 프로젝트 이름)</t>
+          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 사용하여 지원 요청을 제출합니다.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3913,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,17 +3932,17 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR (영문)</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup 서비스를 사용하여 HANA 데이터베이스를 보호할 수 있습니다.</t>
+          <t>예를 들어 선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다. ANF, 지역 등.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3971,19 +3959,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,17 +3982,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR (영문)</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>HANA, Oracle 또는 DB2 데이터베이스용 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
+          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, 프로젝트 이름)</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4021,15 +4009,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,12 +4037,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>운영 체제와 SAP 시스템 간의 표준 시간대 일치를 확인합니다.</t>
+          <t>Azure Backup 서비스를 사용하여 HANA 데이터베이스를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4067,15 +4059,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4091,12 +4087,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>동일한 클러스터에서 서로 다른 애플리케이션 서비스를 그룹화하지 마세요. 예를 들어 DRBD와 중앙 서비스 클러스터를 동일한 클러스터에 결합하지 마세요. 그러나 동일한 Pacemaker 클러스터를 사용하여 약 5개의 서로 다른 중앙 서비스(다중 SID 클러스터)를 관리할 수 있습니다.</t>
+          <t>HANA, Oracle 또는 DB2 데이터베이스용 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4113,19 +4109,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4138,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Azure 실행 비용을 절감하고 최적화하기 위해 다시 알림 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
+          <t>운영 체제와 SAP 시스템 간의 표준 시간대 일치를 확인합니다.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,7 +4155,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4171,7 +4163,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,7 +4184,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 고객의 손에 제어 권한을 부여합니다.</t>
+          <t>동일한 클러스터에서 서로 다른 애플리케이션 서비스를 그룹화하지 마세요. 예를 들어 DRBD와 중앙 서비스 클러스터를 동일한 클러스터에 결합하지 마세요. 그러나 동일한 Pacemaker 클러스터를 사용하여 약 5개의 서로 다른 중앙 서비스(다중 SID 클러스터)를 관리할 수 있습니다.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4209,15 +4201,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,13 +4234,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Azure Update Manager를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
+          <t>Azure 실행 비용을 절감하고 최적화하기 위해 다시 알림 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4255,19 +4251,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4280,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>SAP Landscape Management(LaMa)를 사용하여 SAP Basis 운영을 최적화하고 관리합니다. Azure용 SAP LaMa 커넥터를 사용하여 SAP 시스템을 재배치, 복사, 복제 및 새로 고칩니다.</t>
+          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 고객의 손에 제어 권한을 부여합니다.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4297,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,12 +4321,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Azure Monitor 솔루션을 사용하여 Azure에서 SAP 워크로드(SAP HANA, 고가용성 SUSE 클러스터 및 SQL 시스템)를 모니터링합니다. SAP Solution Manager를 사용하여 SAP용 Azure Monitor 솔루션을 보완하는 것이 좋습니다.</t>
+          <t>Azure Update Manager를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4355,19 +4343,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4383,18 +4371,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>SAP용 VM 확장 검사를 실행합니다. SAP용 VM 확장은 VM(가상 머신)의 할당된 관리 ID를 사용하여 VM 모니터링 및 구성 데이터에 액세스합니다. 이 검사는 SAP 애플리케이션의 모든 성능 메트릭이 기본 SAP용 Azure 확장에서 제공되는지 확인합니다.</t>
+          <t>SAP Landscape Management(LaMa)를 사용하여 SAP Basis 운영을 최적화하고 관리합니다. Azure용 SAP LaMa 커넥터를 사용하여 SAP 시스템을 재배치, 복사, 복제 및 새로 고칩니다.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4393,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,7 +4426,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>SAP용 Azure Monitor 솔루션을 사용하여 Azure에서 SAP 워크로드(SAP HANA, 고가용성 SUSE 클러스터 및 SQL 시스템)를 모니터링합니다. SAP Solution Manager를 사용하여 SAP용 Azure Monitor 솔루션을 보완하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4455,19 +4443,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,13 +4476,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure Network Watcher의 연결 모니터를 사용하여 SAP 데이터베이스 및 애플리케이션 서버에 대한 대기 시간 메트릭을 모니터링합니다. 또는 Azure Monitor를 사용하여 네트워크 대기 시간 측정값을 수집하고 표시합니다.</t>
+          <t>SAP용 VM 확장 검사를 실행합니다. SAP용 VM 확장은 VM(가상 머신)의 할당된 관리 ID를 사용하여 VM 모니터링 및 구성 데이터에 액세스합니다. 이 검사는 SAP 애플리케이션의 모든 성능 메트릭이 기본 SAP용 Azure 확장에서 제공되는지 확인합니다.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4505,19 +4493,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4526,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4543,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4588,7 +4576,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>프로비저닝된 Azure 인프라에서 SAP HANA에 대한 품질 검사를 수행하여 프로비저닝된 VM이 Azure의 SAP HANA 모범 사례를 준수하는지 확인합니다.</t>
+          <t>Azure Network Watcher의 연결 모니터를 사용하여 SAP 데이터베이스 및 애플리케이션 서버에 대한 대기 시간 메트릭을 모니터링합니다. 또는 Azure Monitor를 사용하여 네트워크 대기 시간 측정값을 수집하고 표시합니다.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4605,15 +4593,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4634,7 +4626,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>각 Azure 구독에 대해 영역 배포 전에 Azure 가용성 영역에서 대기 시간 테스트를 실행하여 Azure에서 SAP를 배포하기 위한 대기 시간이 짧은 영역을 선택합니다.</t>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4651,19 +4643,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4684,7 +4676,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>복원력 보고서를 실행하여 프로비저닝된 전체 Azure 인프라(컴퓨팅, 데이터베이스, 네트워킹, 스토리지, Site Recovery)의 구성이 Azure용 클라우드 적응 프레임워크에서 정의한 구성을 준수하는지 확인합니다.</t>
+          <t>프로비저닝된 Azure 인프라에서 SAP HANA에 대한 품질 검사를 수행하여 프로비저닝된 VM이 Azure의 SAP HANA 모범 사례를 준수하는지 확인합니다.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4701,19 +4693,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4734,13 +4722,13 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Microsoft Sentinel 솔루션을 사용하여 위협 방지를 구현합니다. 이 솔루션을 사용하여 SAP 시스템을 모니터링하고 비즈니스 로직 및 애플리케이션 계층 전체에서 정교한 위협을 탐지할 수 있습니다.</t>
+          <t>각 Azure 구독에 대해 영역 배포 전에 Azure 가용성 영역에서 대기 시간 테스트를 실행하여 Azure에서 SAP를 배포하기 위한 대기 시간이 짧은 영역을 선택합니다.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4751,19 +4739,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4784,7 +4772,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Azure 태그 지정을 활용하여 리소스를 논리적으로 그룹화 및 추적하고, 배포를 자동화하고, 가장 중요한 것은 발생한 비용에 대한 가시성을 제공할 수 있습니다.</t>
+          <t>복원력 보고서를 실행하여 프로비저닝된 전체 Azure 인프라(컴퓨팅, 데이터베이스, 네트워킹, 스토리지, Site Recovery)의 구성이 Azure용 클라우드 적응 프레임워크에서 정의한 구성을 준수하는지 확인합니다.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4801,19 +4789,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4829,18 +4817,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>대기 시간에 민감한 애플리케이션에 대해 VM 간 대기 시간 모니터링을 사용합니다.</t>
+          <t>SAP용 Microsoft Sentinel 솔루션을 사용하여 위협 방지를 구현합니다. 이 솔루션을 사용하여 SAP 시스템을 모니터링하고 비즈니스 로직 및 애플리케이션 계층 전체에서 정교한 위협을 탐지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4851,15 +4839,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4875,12 +4867,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
+          <t>Azure 태그 지정을 활용하여 리소스를 논리적으로 그룹화 및 추적하고, 배포를 자동화하고, 가장 중요한 것은 발생한 비용에 대한 가시성을 제공할 수 있습니다.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4897,19 +4889,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4930,13 +4922,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>모든 데이터베이스 파일 시스템 및 실행 프로그램을 바이러스 백신 검사에서 제외합니다. 이를 포함하면 성능 문제가 발생할 수 있습니다. 제외 목록에 대한 규범적 세부 정보는 데이터베이스 공급업체에 문의하십시오. 예를 들어 &lt;sid&gt;Oracle은 바이러스 백신 검사에서 /oracle//sapdata를 제외할 것을 권장합니다.</t>
+          <t>대기 시간에 민감한 애플리케이션에 대해 VM 간 대기 시간 모니터링을 사용합니다.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4947,7 +4939,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4955,7 +4947,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4976,13 +4968,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>마이그레이션 후 비 HANA 데이터베이스에 대한 전체 데이터베이스 통계를 수집하는 것이 좋습니다. 예를 들어 SAP Note 1020260 - Oracle 통계 제공을 구현합니다.</t>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4993,15 +4985,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5022,7 +5018,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 SAP를 사용하는 모든 Oracle 배포에 Oracle ASM(Automatic Storage Management)을 사용하는 것이 좋습니다.</t>
+          <t>모든 데이터베이스 파일 시스템 및 실행 프로그램을 바이러스 백신 검사에서 제외합니다. 이를 포함하면 성능 문제가 발생할 수 있습니다. 제외 목록에 대한 규범적 세부 정보는 데이터베이스 공급업체에 문의하십시오. 예를 들어 &lt;sid&gt;Oracle은 바이러스 백신 검사에서 /oracle//sapdata를 제외할 것을 권장합니다.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5039,19 +5035,15 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5072,13 +5064,13 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Oracle을 실행하는 Azure의 SAP의 경우 SQL 스크립트 컬렉션은 성능 문제를 진단하는 데 도움이 될 수 있습니다.  AWR(Automatic Workload Repository) 보고서에는 Oracle 시스템의 문제점을 진단하는 데 유용한 정보가 포함되어 있습니다. 여러 세션 동안 AWR 보고서를 실행하고 피크 시간을 선택하여 광범위한 분석 범위를 보장하는 것이 좋습니다.</t>
+          <t>마이그레이션 후 비 HANA 데이터베이스에 대한 전체 데이터베이스 통계를 수집하는 것이 좋습니다. 예를 들어 SAP Note 1020260 - Oracle 통계 제공을 구현합니다.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5089,19 +5081,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5112,17 +5100,17 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>HTTP/S 앱을 안전하게 배달하려면 Application Gateway v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>Azure에서 SAP를 사용하는 모든 Oracle 배포에 Oracle ASM(Automatic Storage Management)을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5139,19 +5127,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5162,17 +5150,17 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS (영문)</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 인식하는 경우에만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
+          <t>Oracle을 실행하는 Azure의 SAP의 경우 SQL 스크립트 컬렉션은 성능 문제를 진단하는 데 도움이 될 수 있습니다.  AWR(Automatic Workload Repository) 보고서에는 Oracle 시스템의 문제점을 진단하는 데 유용한 정보가 포함되어 있습니다. 여러 세션 동안 AWR 보고서를 실행하고 피크 시간을 선택하여 광범위한 분석 범위를 보장하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5189,19 +5177,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5217,12 +5205,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>DNS (영문)</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>서로 다른 DNS 영역을 사용하여 각 환경(샌드박스, 개발, 사전 프로덕션 및 프로덕션)을 서로 구분합니다. 예외는 자체 VNet을 사용하는 SAP 배포의 경우입니다. 여기서는 프라이빗 DNS 영역이 필요하지 않을 수 있습니다.</t>
+          <t>HTTP/S 앱을 안전하게 배달하려면 Application Gateway v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5239,19 +5227,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5255,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>DNS (영문)</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 접근 방식입니다</t>
+          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 인식하는 경우에만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5277,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5317,18 +5305,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>DNS (영문)</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션과 SAP 데이터베이스 서버 간에 NVA를 배포하는 것은 지원되지 않습니다</t>
+          <t>서로 다른 DNS 영역을 사용하여 각 환경(샌드박스, 개발, 사전 프로덕션 및 프로덕션)을 서로 구분합니다. 예외는 자체 VNet을 사용하는 SAP 배포의 경우입니다. 여기서는 프라이빗 DNS 영역이 필요하지 않을 수 있습니다.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5327,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,7 +5360,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+          <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 접근 방식입니다</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5389,19 +5377,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,13 +5410,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>파트너 NVA를 사용하는 경우에만 지역 간에 NVA(네트워크 가상 어플라이언스)를 배포하는 것이 좋습니다. 네이티브 NVA가 있는 경우 지역 또는 VNet 간의 NVA가 필요하지 않습니다. 파트너 네트워킹 기술 및 NVA를 배포하는 경우 공급업체의 지침에 따라 Azure 네트워킹과 충돌하는 구성을 확인합니다.</t>
+          <t>SAP 애플리케이션과 SAP 데이터베이스 서버 간에 NVA를 배포하는 것은 지원되지 않습니다</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5439,19 +5427,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5460,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN은 가상 WAN 기반 토폴로지에 대한 스포크 VNet 간의 연결을 관리하며(UDR[사용자 정의 라우팅] 또는 NVA를 설정할 필요 없음) 동일한 가상 허브의 VNet 간 트래픽에 대한 최대 네트워크 처리량은 초당 50기가비트입니다. 필요한 경우 SAP 랜딩 존은 VNet 피어링을 사용하여 다른 랜딩 존에 연결하고 이 대역폭 제한을 극복할 수 있습니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5477,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5505,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>SAP 워크로드를 실행하는 VM에 대한 공용 I.P 할당은 권장되지 않습니다.</t>
+          <t>파트너 NVA를 사용하는 경우에만 지역 간에 NVA(네트워크 가상 어플라이언스)를 배포하는 것이 좋습니다. 네이티브 NVA가 있는 경우 지역 또는 VNet 간의 NVA가 필요하지 않습니다. 파트너 네트워킹 기술 및 NVA를 배포하는 경우 공급업체의 지침에 따라 Azure 네트워킹과 충돌하는 구성을 확인합니다.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5527,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5567,18 +5555,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>ASR을 구성할 때 DR 쪽에서 I.P 주소를 예약하는 것이 좋습니다.</t>
+          <t>Virtual WAN은 가상 WAN 기반 토폴로지에 대한 스포크 VNet 간의 연결을 관리하며(UDR[사용자 정의 라우팅] 또는 NVA를 설정할 필요 없음) 동일한 가상 허브의 VNet 간 트래픽에 대한 최대 네트워크 처리량은 초당 50기가비트입니다. 필요한 경우 SAP 랜딩 존은 VNet 피어링을 사용하여 다른 랜딩 존에 연결하고 이 대역폭 제한을 극복할 수 있습니다.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5589,19 +5577,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5610,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>SAP 워크로드를 실행하는 VM에 대한 공용 I.P 할당은 권장되지 않습니다.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5651,7 +5639,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5660,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 위임된 서브넷이 하나만 존재할 수 있습니다. Azure NetApp Files에 대해 둘 이상의 위임된 서브넷을 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
+          <t>ASR을 구성할 때 DR 쪽에서 I.P 주소를 예약하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5677,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,18 +5705,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5739,19 +5727,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5767,12 +5755,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway가 SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 제한 사항이 있습니다.</t>
+          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 위임된 서브넷이 하나만 존재할 수 있습니다. Azure NetApp Files에 대해 둘 이상의 위임된 서브넷을 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5777,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5810,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5827,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5860,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Application Gateway를 사용하여 HTTP/S 애플리케이션을 보호하는 경우 Azure Front Door의 Web Application Firewall 정책을 활용합니다. Azure Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
+          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway가 SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 제한 사항이 있습니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5877,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5910,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5944,14 +5932,14 @@
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5960,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+          <t>Azure Front Door 및 Application Gateway를 사용하여 HTTP/S 애플리케이션을 보호하는 경우 Azure Front Door의 Web Application Firewall 정책을 활용합니다. Azure Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5977,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6010,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>데이터 유출을 방지하려면 Azure Private Link를 사용하여 Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory 등과 같은 PaaS(Platform as a Service) 리소스에 안전하게 액세스합니다. Azure 프라이빗 엔드포인트는 VNet과 Azure Storage, Azure Backup 등과 같은 서비스 간의 트래픽을 보호하는 데도 도움이 될 수 있습니다. VNet과 프라이빗 엔드포인트 사용 서비스 간의 트래픽은 Microsoft 글로벌 네트워크를 통해 이동하므로 공용 인터넷에 노출되지 않습니다.</t>
+          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6027,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6055,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6077,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6117,12 +6105,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
+          <t>데이터 유출을 방지하려면 Azure Private Link를 사용하여 Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory 등과 같은 PaaS(Platform as a Service) 리소스에 안전하게 액세스합니다. Azure 프라이빗 엔드포인트는 VNet과 Azure Storage, Azure Backup 등과 같은 서비스 간의 트래픽을 보호하는 데도 도움이 될 수 있습니다. VNet과 프라이빗 엔드포인트 사용 서비스 간의 트래픽은 Microsoft 글로벌 네트워크를 통해 이동하므로 공용 인터넷에 노출되지 않습니다.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6139,19 +6127,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,13 +6160,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간에 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 보안을 관리하는 데 도움이 되도록 가상 머신을 그룹화합니다.</t>
+          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6189,19 +6177,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6210,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>피어링되지 않은 다른 Azure VNet에 SAP 애플리케이션 계층 및 SAP DBMS를 배치하는 것은 지원되지 않습니다.</t>
+          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6227,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,7 +6260,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션에서 네트워크 대기 시간을 최적화하려면 Azure 근접 배치 그룹을 사용하는 것이 좋습니다.</t>
+          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간에 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 보안을 관리하는 데 도움이 되도록 가상 머신을 그룹화합니다.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6289,19 +6277,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,7 +6310,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>온-프레미스와 Azure 간에 분할된 SAP 애플리케이션 서버 계층 및 DBMS 계층을 실행하는 것은 전혀 지원되지 않습니다. 두 계층 모두 온-프레미스 또는 Azure에 완전히 상주해야 합니다.</t>
+          <t>피어링되지 않은 다른 Azure VNet에 SAP 애플리케이션 계층 및 SAP DBMS를 배치하는 것은 지원되지 않습니다.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6351,7 +6339,7 @@
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,13 +6360,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 다른 VNet에서 SAP 시스템의 DBMS(데이터베이스 관리 시스템) 및 애플리케이션 계층을 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내에서 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
+          <t>SAP 애플리케이션에서 네트워크 대기 시간을 최적화하려면 Azure 근접 배치 그룹을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6389,19 +6377,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6410,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
+          <t>온-프레미스와 Azure 간에 분할된 SAP 애플리케이션 서버 계층 및 DBMS 계층을 실행하는 것은 전혀 지원되지 않습니다. 두 계층 모두 온-프레미스 또는 Azure에 완전히 상주해야 합니다.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6427,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6460,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
+          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 다른 VNet에서 SAP 시스템의 DBMS(데이터베이스 관리 시스템) 및 애플리케이션 계층을 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내에서 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6477,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,23 +6500,23 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Azure, 온-프레미스 또는 기타 클라우드 환경에서 Windows 및 Linux VM을 실행하는 경우 Azure Automation의 업데이트 관리 센터를 사용하여 보안 패치를 포함한 운영 체제 업데이트를 관리할 수 있습니다.</t>
+          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6534,19 +6527,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,17 +6550,17 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>SAP는 SAP 시스템을 보호하기 위해 즉각적인 조치가 필요한 매우 중요한 보안 패치 또는 핫픽스를 릴리스하므로 SAP 보안 OSS 노트를 정기적으로 검토합니다.</t>
+          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6584,19 +6577,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6596,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>SQL Server SAP의 경우 SQL Server SAP 시스템에서 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
+          <t>Azure VM에 대한 SAP HANA 데이터베이스 백업을 검토합니다.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6623,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6631,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,23 +6642,23 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용할 수 있습니다. 이는 보안 감사에서 발생할 수 있는 잠재적 위험입니다.</t>
+          <t>SAP에 사용되는 Site Recovery 기본 제공 모니터링을 검토합니다.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6680,19 +6669,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,17 +6688,17 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 SAP HANA 데이터베이스 서버를 암호화하는 데는 SAP HANA 네이티브 암호화 기술이 사용됩니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
+          <t>SAP HANA 시스템 환경 모니터링 지침을 검토합니다.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6730,19 +6715,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6734,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드 또는 애플리케이션을 수정할 필요가 없습니다.</t>
+          <t>Azure Linux VM 백업 전략에서 Oracle Database를 검토합니다.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6761,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6780,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>SQL Server 2016에서 Azure Blob Storage 사용을 검토합니다.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6807,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,17 +6825,17 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수도 있습니다.</t>
+          <t>Azure VM에 대한 자동화된 Backup v2 사용을 검토합니다.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6880,19 +6852,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,23 +6870,23 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>프리미엄 디스크(V1)를 사용할 때 M 시리즈에 쓰기 가속기 사용Enabling Write accelerator for M series when using premium disks(V1)</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6928,21 +6895,12 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6911,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
+          <t>가용성 영역 대기 시간을 테스트합니다.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6938,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6956,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>SAP 환경에서 엔드포인트용 Microsoft Defender 사용하도록 설정하는 경우 모든 서버를 대상으로 하는 대신 DBMS 서버에서 데이터 및 로그 파일을 제외하는 것이 좋습니다. 대상 파일을 제외할 때 DBMS 공급업체의 권장 사항을 따릅니다.</t>
+          <t>모든 SAP 구성 요소에 대해 SAP EarlyWatch Alert를 활성화합니다.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6983,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7006,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>클라우드용 Microsoft Defender의 Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+          <t>SAP ABAPMeter 보고서 /SSA/CAT를 사용하여 SAP 애플리케이션 서버-데이터베이스 서버 대기 시간을 검토합니다.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7080,19 +7033,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+          <t>CCMS를 사용하여 SQL Server 성능 모니터링을 검토합니다.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7128,21 +7081,12 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7097,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>SAP 애플리케이션 계층 VM과 DBMS VM(NIPING) 간의 네트워크 대기 시간을 테스트합니다.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7124,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7147,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>SAP HANA Studio 경고를 검토합니다.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7174,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7253,23 +7192,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
+          <t>HANA_Configuration_Minichecks를 사용하여 SAP HANA 상태 검사를 수행합니다.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7219,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7242,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Azure, 온-프레미스 또는 기타 클라우드 환경에서 Windows 및 Linux VM을 실행하는 경우 Azure Automation의 업데이트 관리 센터를 사용하여 보안 패치를 포함한 운영 체제 업데이트를 관리할 수 있습니다.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7264,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+          <t>SAP는 SAP 시스템을 보호하기 위해 즉각적인 조치가 필요한 매우 중요한 보안 패치 또는 핫픽스를 릴리스하므로 SAP 보안 OSS 노트를 정기적으로 검토합니다.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,18 +7342,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+          <t>SQL Server SAP의 경우 SQL Server SAP 시스템에서 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7425,19 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7387,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용할 수 있습니다. 이는 보안 감사에서 발생할 수 있는 잠재적 위험입니다.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7409,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7437,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+          <t>Azure에서 SAP HANA 데이터베이스 서버를 암호화하는 데는 SAP HANA 네이티브 암호화 기술이 사용됩니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7459,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,18 +7487,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드 또는 애플리케이션을 수정할 필요가 없습니다.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7575,19 +7509,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7537,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7559,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7587,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
+          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수도 있습니다.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7609,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,256 +7630,795 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>SAP 환경에서 엔드포인트용 Microsoft Defender 사용하도록 설정하는 경우 모든 서버를 대상으로 하는 대신 DBMS 서버에서 데이터 및 로그 파일을 제외하는 것이 좋습니다. 대상 파일을 제외할 때 DBMS 공급업체의 권장 사항을 따릅니다.</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>클라우드용 Microsoft Defender의 Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
       <c r="P158" s="25" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1">
-      <c r="A159" s="21" t="n"/>
-      <c r="B159" s="21" t="n"/>
-      <c r="C159" s="21" t="n"/>
+      <c r="A159" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B159" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C159" s="21" t="inlineStr">
+        <is>
+          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D159" s="21" t="n"/>
-      <c r="E159" s="21" t="n"/>
+      <c r="E159" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G159" s="21" t="n"/>
-      <c r="H159" s="15" t="n"/>
+      <c r="H159" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
-      <c r="L159" s="25" t="n"/>
+      <c r="L159" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M159" s="25" t="n"/>
       <c r="N159" s="25" t="n"/>
       <c r="O159" s="25" t="n"/>
@@ -10176,7 +10649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ko.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2852,23 +2852,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비용 최적화</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>SAP HANA와 함께 Azure Premium Storage를 사용하는 경우 Azure 표준 SSD 스토리지를 사용하여 비용에 민감한 스토리지 솔루션을 선택할 수 있습니다. 그러나 표준 SSD 또는 표준 HDD Azure Storage를 선택하면 개별 VM의 SLA에 영향을 줍니다. 또한 비프로덕션 환경과 같이 I/O 처리량이 낮고 대기 시간이 짧은 시스템의 경우 더 낮은 시리즈 VM을 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2879,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2902,23 +2897,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비용 최적화</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 원칙 전파 적용</t>
+          <t>저렴한 대체 구성(다목적)으로 비프로덕션 HANA 데이터베이스 서버 VM에 대해 저성능 SKU를 선택할 수 있습니다. 그러나 E 시리즈와 같은 일부 VM 유형은 HANA 인증(SAP HANA 하드웨어 디렉터리)되지 않았거나 1ms 미만의 스토리지 대기 시간을 달성할 수 없습니다.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2924,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,13 +2953,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 Azure AD로 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2979,15 +2970,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3003,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 보안 주체 전파 적용</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3020,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3058,7 +3053,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>SAML을 사용하여 Azure AD로 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3073,17 +3068,16 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3098,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver SSO 또는 파트너 솔루션을 사용하여 SAP GUI에 대한 SSO를 구현할 수 있습니다.</t>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3133,7 +3127,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3148,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3172,14 +3166,14 @@
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3200,7 +3194,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
+          <t>SAP NetWeaver SSO 또는 파트너 솔루션을 사용하여 SAP GUI에 대한 SSO를 구현할 수 있습니다.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3217,15 +3211,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3244,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver용 OAuth를 사용하여 SSO를 구현하여 타사 또는 사용자 지정 애플리케이션이 SAP NetWeaver OData 서비스에 액세스할 수 있도록 합니다.</t>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3261,16 +3259,17 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3290,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>SAP HANA에 대한 SSO 구현</t>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3307,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3315,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3336,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure AD를 RISE에서 호스트되는 SAP 시스템의 ID 공급자로 간주합니다. 자세한 내용은 Azure AD와 서비스 통합을 참조하세요.</t>
+          <t>SAP NetWeaver용 OAuth를 사용하여 SSO를 구현하여 타사 또는 사용자 지정 애플리케이션이 SAP NetWeaver OData 서비스에 액세스할 수 있도록 합니다.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3353,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3381,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>SAP에 액세스하는 애플리케이션의 경우 보안 주체 전파를 사용하여 SSO를 설정할 수 있습니다.</t>
+          <t>SAP HANA에 대한 SSO 구현</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3398,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3426,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 인증 요청을 전달할 수 있습니다.</t>
+          <t>Azure AD를 RISE에서 호스트되는 SAP 시스템의 ID 공급자로 간주합니다. 자세한 내용은 Azure AD와 서비스 통합을 참조하세요.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3443,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3471,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>SAP BTP에 대한 SSO 구현</t>
+          <t>SAP에 액세스하는 애플리케이션의 경우 보안 주체 전파를 사용하여 SSO를 설정할 수 있습니다.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3488,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3516,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
+          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 인증 요청을 전달할 수 있습니다.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3551,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>SAP 구독에 기존 관리 그룹 정책 적용</t>
+          <t>SAP BTP에 대한 SSO 구현</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3578,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3602,23 +3596,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성 방지</t>
+          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3623,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,13 +3651,13 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">구독을 배율 단위로 활용하고 리소스를 확장하려면 환경별로 구독을 배포하는 것이 좋습니다. 샌드박스, 비프로덕션, 프로덕션 </t>
+          <t>SAP 구독에 기존 관리 그룹 정책 적용</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3679,19 +3668,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3701,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>구독 프로비저닝의 일부로 할당량 증가 확인(예: 구독 내에서 사용 가능한 총 VM 코어)</t>
+          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성 방지</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3718,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3751,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>할당량 API는 Azure 서비스에 대한 할당량을 보고 관리하는 데 사용할 수 있는 REST API입니다. 필요한 경우 사용을 고려하십시오.</t>
+          <t xml:space="preserve">구독을 배율 단위로 활용하고 리소스를 확장하려면 환경별로 구독을 배포하는 것이 좋습니다. 샌드박스, 비프로덕션, 프로덕션 </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3768,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,7 +3801,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 사용하여 지원 요청을 제출합니다.</t>
+          <t>구독 프로비저닝의 일부로 할당량 증가 확인(예: 구독 내에서 사용 가능한 총 VM 코어)</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3825,15 +3818,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,13 +3851,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>예를 들어 선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다. ANF, 지역 등.</t>
+          <t>할당량 API는 Azure 서비스에 대한 할당량을 보고 관리하는 데 사용할 수 있는 REST API입니다. 필요한 경우 사용을 고려하십시오.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3871,19 +3868,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3896,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, 프로젝트 이름)</t>
+          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 사용하여 지원 요청을 제출합니다.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3913,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,17 +3932,17 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR (영문)</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup 서비스를 사용하여 HANA 데이터베이스를 보호할 수 있습니다.</t>
+          <t>예를 들어 선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다. ANF, 지역 등.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3971,19 +3959,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,17 +3982,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR (영문)</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>HANA, Oracle 또는 DB2 데이터베이스용 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
+          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, 프로젝트 이름)</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4021,15 +4009,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,12 +4037,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>운영 체제와 SAP 시스템 간의 표준 시간대 일치를 확인합니다.</t>
+          <t>Azure Backup 서비스를 사용하여 HANA 데이터베이스를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4067,15 +4059,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4091,12 +4087,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>동일한 클러스터에서 서로 다른 애플리케이션 서비스를 그룹화하지 마세요. 예를 들어 DRBD와 중앙 서비스 클러스터를 동일한 클러스터에 결합하지 마세요. 그러나 동일한 Pacemaker 클러스터를 사용하여 약 5개의 서로 다른 중앙 서비스(다중 SID 클러스터)를 관리할 수 있습니다.</t>
+          <t>HANA, Oracle 또는 DB2 데이터베이스용 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4113,19 +4109,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4138,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Azure 실행 비용을 절감하고 최적화하기 위해 다시 알림 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
+          <t>운영 체제와 SAP 시스템 간의 표준 시간대 일치를 확인합니다.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,7 +4155,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4171,7 +4163,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,7 +4184,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 고객의 손에 제어 권한을 부여합니다.</t>
+          <t>동일한 클러스터에서 서로 다른 애플리케이션 서비스를 그룹화하지 마세요. 예를 들어 DRBD와 중앙 서비스 클러스터를 동일한 클러스터에 결합하지 마세요. 그러나 동일한 Pacemaker 클러스터를 사용하여 약 5개의 서로 다른 중앙 서비스(다중 SID 클러스터)를 관리할 수 있습니다.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4209,15 +4201,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,13 +4234,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Azure Update Manager를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
+          <t>Azure 실행 비용을 절감하고 최적화하기 위해 다시 알림 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4255,19 +4251,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4280,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>SAP Landscape Management(LaMa)를 사용하여 SAP Basis 운영을 최적화하고 관리합니다. Azure용 SAP LaMa 커넥터를 사용하여 SAP 시스템을 재배치, 복사, 복제 및 새로 고칩니다.</t>
+          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 고객의 손에 제어 권한을 부여합니다.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4297,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,12 +4321,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Azure Monitor 솔루션을 사용하여 Azure에서 SAP 워크로드(SAP HANA, 고가용성 SUSE 클러스터 및 SQL 시스템)를 모니터링합니다. SAP Solution Manager를 사용하여 SAP용 Azure Monitor 솔루션을 보완하는 것이 좋습니다.</t>
+          <t>Azure Update Manager를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4355,19 +4343,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4383,18 +4371,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>SAP용 VM 확장 검사를 실행합니다. SAP용 VM 확장은 VM(가상 머신)의 할당된 관리 ID를 사용하여 VM 모니터링 및 구성 데이터에 액세스합니다. 이 검사는 SAP 애플리케이션의 모든 성능 메트릭이 기본 SAP용 Azure 확장에서 제공되는지 확인합니다.</t>
+          <t>SAP Landscape Management(LaMa)를 사용하여 SAP Basis 운영을 최적화하고 관리합니다. Azure용 SAP LaMa 커넥터를 사용하여 SAP 시스템을 재배치, 복사, 복제 및 새로 고칩니다.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4393,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,7 +4426,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>SAP용 Azure Monitor 솔루션을 사용하여 Azure에서 SAP 워크로드(SAP HANA, 고가용성 SUSE 클러스터 및 SQL 시스템)를 모니터링합니다. SAP Solution Manager를 사용하여 SAP용 Azure Monitor 솔루션을 보완하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4455,19 +4443,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,13 +4476,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure Network Watcher의 연결 모니터를 사용하여 SAP 데이터베이스 및 애플리케이션 서버에 대한 대기 시간 메트릭을 모니터링합니다. 또는 Azure Monitor를 사용하여 네트워크 대기 시간 측정값을 수집하고 표시합니다.</t>
+          <t>SAP용 VM 확장 검사를 실행합니다. SAP용 VM 확장은 VM(가상 머신)의 할당된 관리 ID를 사용하여 VM 모니터링 및 구성 데이터에 액세스합니다. 이 검사는 SAP 애플리케이션의 모든 성능 메트릭이 기본 SAP용 Azure 확장에서 제공되는지 확인합니다.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4505,19 +4493,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4526,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4543,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4588,7 +4576,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>프로비저닝된 Azure 인프라에서 SAP HANA에 대한 품질 검사를 수행하여 프로비저닝된 VM이 Azure의 SAP HANA 모범 사례를 준수하는지 확인합니다.</t>
+          <t>Azure Network Watcher의 연결 모니터를 사용하여 SAP 데이터베이스 및 애플리케이션 서버에 대한 대기 시간 메트릭을 모니터링합니다. 또는 Azure Monitor를 사용하여 네트워크 대기 시간 측정값을 수집하고 표시합니다.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4605,15 +4593,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4634,13 +4626,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>각 Azure 구독에 대해 영역 배포 전에 Azure 가용성 영역에서 대기 시간 테스트를 실행하여 Azure에서 SAP를 배포하기 위한 대기 시간이 짧은 영역을 선택합니다.</t>
+          <t>프로비저닝된 Azure 인프라에서 SAP HANA에 대한 품질 검사를 수행하여 프로비저닝된 VM이 Azure의 SAP HANA 모범 사례를 준수하는지 확인합니다.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4651,19 +4643,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4684,13 +4672,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>복원력 보고서를 실행하여 프로비저닝된 전체 Azure 인프라(컴퓨팅, 데이터베이스, 네트워킹, 스토리지, Site Recovery)의 구성이 Azure용 클라우드 적응 프레임워크에서 정의한 구성을 준수하는지 확인합니다.</t>
+          <t>각 Azure 구독에 대해 영역 배포 전에 Azure 가용성 영역에서 대기 시간 테스트를 실행하여 Azure에서 SAP를 배포하기 위한 대기 시간이 짧은 영역을 선택합니다.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4701,19 +4689,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4734,7 +4722,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Microsoft Sentinel 솔루션을 사용하여 위협 방지를 구현합니다. 이 솔루션을 사용하여 SAP 시스템을 모니터링하고 비즈니스 로직 및 애플리케이션 계층 전체에서 정교한 위협을 탐지할 수 있습니다.</t>
+          <t>복원력 보고서를 실행하여 프로비저닝된 전체 Azure 인프라(컴퓨팅, 데이터베이스, 네트워킹, 스토리지, Site Recovery)의 구성이 Azure용 클라우드 적응 프레임워크에서 정의한 구성을 준수하는지 확인합니다.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4751,19 +4739,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4784,7 +4772,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Azure 태그 지정을 활용하여 리소스를 논리적으로 그룹화 및 추적하고, 배포를 자동화하고, 가장 중요한 것은 발생한 비용에 대한 가시성을 제공할 수 있습니다.</t>
+          <t>SAP용 Microsoft Sentinel 솔루션을 사용하여 위협 방지를 구현합니다. 이 솔루션을 사용하여 SAP 시스템을 모니터링하고 비즈니스 로직 및 애플리케이션 계층 전체에서 정교한 위협을 탐지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4801,19 +4789,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4829,18 +4817,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>대기 시간에 민감한 애플리케이션에 대해 VM 간 대기 시간 모니터링을 사용합니다.</t>
+          <t>Azure 태그 지정을 활용하여 리소스를 논리적으로 그룹화 및 추적하고, 배포를 자동화하고, 가장 중요한 것은 발생한 비용에 대한 가시성을 제공할 수 있습니다.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4851,15 +4839,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4880,13 +4872,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
+          <t>대기 시간에 민감한 애플리케이션에 대해 VM 간 대기 시간 모니터링을 사용합니다.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4897,19 +4889,15 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4930,7 +4918,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>모든 데이터베이스 파일 시스템 및 실행 프로그램을 바이러스 백신 검사에서 제외합니다. 이를 포함하면 성능 문제가 발생할 수 있습니다. 제외 목록에 대한 규범적 세부 정보는 데이터베이스 공급업체에 문의하십시오. 예를 들어 &lt;sid&gt;Oracle은 바이러스 백신 검사에서 /oracle//sapdata를 제외할 것을 권장합니다.</t>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4947,15 +4935,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4976,13 +4968,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>마이그레이션 후 비 HANA 데이터베이스에 대한 전체 데이터베이스 통계를 수집하는 것이 좋습니다. 예를 들어 SAP Note 1020260 - Oracle 통계 제공을 구현합니다.</t>
+          <t>모든 데이터베이스 파일 시스템 및 실행 프로그램을 바이러스 백신 검사에서 제외합니다. 이를 포함하면 성능 문제가 발생할 수 있습니다. 제외 목록에 대한 규범적 세부 정보는 데이터베이스 공급업체에 문의하십시오. 예를 들어 &lt;sid&gt;Oracle은 바이러스 백신 검사에서 /oracle//sapdata를 제외할 것을 권장합니다.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4993,7 +4985,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I89" s="15" t="n"/>
@@ -5001,7 +4993,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5022,13 +5014,13 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 SAP를 사용하는 모든 Oracle 배포에 Oracle ASM(Automatic Storage Management)을 사용하는 것이 좋습니다.</t>
+          <t>마이그레이션 후 비 HANA 데이터베이스에 대한 전체 데이터베이스 통계를 수집하는 것이 좋습니다. 예를 들어 SAP Note 1020260 - Oracle 통계 제공을 구현합니다.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5039,19 +5031,15 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5072,7 +5060,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Oracle을 실행하는 Azure의 SAP의 경우 SQL 스크립트 컬렉션은 성능 문제를 진단하는 데 도움이 될 수 있습니다.  AWR(Automatic Workload Repository) 보고서에는 Oracle 시스템의 문제점을 진단하는 데 유용한 정보가 포함되어 있습니다. 여러 세션 동안 AWR 보고서를 실행하고 피크 시간을 선택하여 광범위한 분석 범위를 보장하는 것이 좋습니다.</t>
+          <t>Azure에서 SAP를 사용하는 모든 Oracle 배포에 Oracle ASM(Automatic Storage Management)을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5089,19 +5077,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5112,17 +5100,17 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>HTTP/S 앱을 안전하게 배달하려면 Application Gateway v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>Oracle을 실행하는 Azure의 SAP의 경우 SQL 스크립트 컬렉션은 성능 문제를 진단하는 데 도움이 될 수 있습니다.  AWR(Automatic Workload Repository) 보고서에는 Oracle 시스템의 문제점을 진단하는 데 유용한 정보가 포함되어 있습니다. 여러 세션 동안 AWR 보고서를 실행하고 피크 시간을 선택하여 광범위한 분석 범위를 보장하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5139,19 +5127,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5162,23 +5150,23 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS (영문)</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 인식하는 경우에만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5189,19 +5177,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5217,12 +5205,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>DNS (영문)</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>서로 다른 DNS 영역을 사용하여 각 환경(샌드박스, 개발, 사전 프로덕션 및 프로덕션)을 서로 구분합니다. 예외는 자체 VNet을 사용하는 SAP 배포의 경우입니다. 여기서는 프라이빗 DNS 영역이 필요하지 않을 수 있습니다.</t>
+          <t>HTTP/S 앱을 안전하게 배달하려면 Application Gateway v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5239,19 +5227,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5255,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>DNS (영문)</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 접근 방식입니다</t>
+          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 인식하는 경우에만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5277,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5317,18 +5305,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>DNS (영문)</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션과 SAP 데이터베이스 서버 간에 NVA를 배포하는 것은 지원되지 않습니다</t>
+          <t>서로 다른 DNS 영역을 사용하여 각 환경(샌드박스, 개발, 사전 프로덕션 및 프로덕션)을 서로 구분합니다. 예외는 자체 VNet을 사용하는 SAP 배포의 경우입니다. 여기서는 프라이빗 DNS 영역이 필요하지 않을 수 있습니다.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5327,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,7 +5360,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+          <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 접근 방식입니다</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5389,19 +5377,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,13 +5410,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>파트너 NVA를 사용하는 경우에만 지역 간에 NVA(네트워크 가상 어플라이언스)를 배포하는 것이 좋습니다. 네이티브 NVA가 있는 경우 지역 또는 VNet 간의 NVA가 필요하지 않습니다. 파트너 네트워킹 기술 및 NVA를 배포하는 경우 공급업체의 지침에 따라 Azure 네트워킹과 충돌하는 구성을 확인합니다.</t>
+          <t>SAP 애플리케이션과 SAP 데이터베이스 서버 간에 NVA를 배포하는 것은 지원되지 않습니다</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5439,19 +5427,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5460,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN은 가상 WAN 기반 토폴로지에 대한 스포크 VNet 간의 연결을 관리하며(UDR[사용자 정의 라우팅] 또는 NVA를 설정할 필요 없음) 동일한 가상 허브의 VNet 간 트래픽에 대한 최대 네트워크 처리량은 초당 50기가비트입니다. 필요한 경우 SAP 랜딩 존은 VNet 피어링을 사용하여 다른 랜딩 존에 연결하고 이 대역폭 제한을 극복할 수 있습니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5477,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5505,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>SAP 워크로드를 실행하는 VM에 대한 공용 I.P 할당은 권장되지 않습니다.</t>
+          <t>파트너 NVA를 사용하는 경우에만 지역 간에 NVA(네트워크 가상 어플라이언스)를 배포하는 것이 좋습니다. 네이티브 NVA가 있는 경우 지역 또는 VNet 간의 NVA가 필요하지 않습니다. 파트너 네트워킹 기술 및 NVA를 배포하는 경우 공급업체의 지침에 따라 Azure 네트워킹과 충돌하는 구성을 확인합니다.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5527,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5567,18 +5555,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>ASR을 구성할 때 DR 쪽에서 I.P 주소를 예약하는 것이 좋습니다.</t>
+          <t>Virtual WAN은 가상 WAN 기반 토폴로지에 대한 스포크 VNet 간의 연결을 관리하며(UDR[사용자 정의 라우팅] 또는 NVA를 설정할 필요 없음) 동일한 가상 허브의 VNet 간 트래픽에 대한 최대 네트워크 처리량은 초당 50기가비트입니다. 필요한 경우 SAP 랜딩 존은 VNet 피어링을 사용하여 다른 랜딩 존에 연결하고 이 대역폭 제한을 극복할 수 있습니다.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5589,19 +5577,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5610,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>SAP 워크로드를 실행하는 VM에 대한 공용 IP 할당은 권장되지 않습니다.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5651,7 +5639,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5660,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 위임된 서브넷이 하나만 존재할 수 있습니다. Azure NetApp Files에 대해 둘 이상의 위임된 서브넷을 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
+          <t>ASR을 구성할 때 DR 쪽에서 IP 주소를 예약하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5677,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,18 +5705,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5739,19 +5727,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5767,12 +5755,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway가 SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 제한 사항이 있습니다.</t>
+          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 위임된 서브넷이 하나만 존재할 수 있습니다. Azure NetApp Files에 대해 둘 이상의 위임된 서브넷을 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5777,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5810,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5827,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5860,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Application Gateway를 사용하여 HTTP/S 애플리케이션을 보호하는 경우 Azure Front Door의 Web Application Firewall 정책을 활용합니다. Azure Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
+          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway가 SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 제한 사항이 있습니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5877,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5910,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5944,14 +5932,14 @@
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5960,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+          <t>Azure Front Door 및 Application Gateway를 사용하여 HTTP/S 애플리케이션을 보호하는 경우 Azure Front Door의 Web Application Firewall 정책을 활용합니다. Azure Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5977,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6010,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>데이터 유출을 방지하려면 Azure Private Link를 사용하여 Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory 등과 같은 PaaS(Platform as a Service) 리소스에 안전하게 액세스합니다. Azure 프라이빗 엔드포인트는 VNet과 Azure Storage, Azure Backup 등과 같은 서비스 간의 트래픽을 보호하는 데도 도움이 될 수 있습니다. VNet과 프라이빗 엔드포인트 사용 서비스 간의 트래픽은 Microsoft 글로벌 네트워크를 통해 이동하므로 공용 인터넷에 노출되지 않습니다.</t>
+          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6027,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6055,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6077,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6117,12 +6105,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
+          <t>데이터 유출을 방지하려면 Azure Private Link를 사용하여 Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory 등과 같은 PaaS(Platform as a Service) 리소스에 안전하게 액세스합니다. Azure 프라이빗 엔드포인트는 VNet과 Azure Storage, Azure Backup 등과 같은 서비스 간의 트래픽을 보호하는 데도 도움이 될 수 있습니다. VNet과 프라이빗 엔드포인트 사용 서비스 간의 트래픽은 Microsoft 글로벌 네트워크를 통해 이동하므로 공용 인터넷에 노출되지 않습니다.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6139,19 +6127,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,13 +6160,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간에 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 보안을 관리하는 데 도움이 되도록 가상 머신을 그룹화합니다.</t>
+          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6189,19 +6177,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6210,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>피어링되지 않은 다른 Azure VNet에 SAP 애플리케이션 계층 및 SAP DBMS를 배치하는 것은 지원되지 않습니다.</t>
+          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6227,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,7 +6260,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션에서 네트워크 대기 시간을 최적화하려면 Azure 근접 배치 그룹을 사용하는 것이 좋습니다.</t>
+          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간에 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 보안을 관리하는 데 도움이 되도록 가상 머신을 그룹화합니다.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6289,19 +6277,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,7 +6310,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>온-프레미스와 Azure 간에 분할된 SAP 애플리케이션 서버 계층 및 DBMS 계층을 실행하는 것은 전혀 지원되지 않습니다. 두 계층 모두 온-프레미스 또는 Azure에 완전히 상주해야 합니다.</t>
+          <t>피어링되지 않은 다른 Azure VNet에 SAP 애플리케이션 계층 및 SAP DBMS를 배치하는 것은 지원되지 않습니다.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6351,7 +6339,7 @@
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,13 +6360,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 다른 VNet에서 SAP 시스템의 DBMS(데이터베이스 관리 시스템) 및 애플리케이션 계층을 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내에서 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
+          <t>SAP 애플리케이션에서 네트워크 대기 시간을 최적화하려면 Azure 근접 배치 그룹을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6389,19 +6377,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6410,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
+          <t>온-프레미스와 Azure 간에 분할된 SAP 애플리케이션 서버 계층 및 DBMS 계층을 실행하는 것은 전혀 지원되지 않습니다. 두 계층 모두 온-프레미스 또는 Azure에 완전히 상주해야 합니다.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6427,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6460,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
+          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 다른 VNet에서 SAP 시스템의 DBMS(데이터베이스 관리 시스템) 및 애플리케이션 계층을 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내에서 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6477,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,23 +6500,23 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Azure, 온-프레미스 또는 기타 클라우드 환경에서 Windows 및 Linux VM을 실행하는 경우 Azure Automation의 업데이트 관리 센터를 사용하여 보안 패치를 포함한 운영 체제 업데이트를 관리할 수 있습니다.</t>
+          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6534,19 +6527,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,17 +6550,17 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>SAP는 SAP 시스템을 보호하기 위해 즉각적인 조치가 필요한 매우 중요한 보안 패치 또는 핫픽스를 릴리스하므로 SAP 보안 OSS 노트를 정기적으로 검토합니다.</t>
+          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6584,19 +6577,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6596,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>SQL Server SAP의 경우 SQL Server SAP 시스템에서 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
+          <t>Azure VM에 대한 SAP HANA 데이터베이스 백업을 검토합니다.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6623,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6631,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,23 +6642,23 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용할 수 있습니다. 이는 보안 감사에서 발생할 수 있는 잠재적 위험입니다.</t>
+          <t>SAP에 사용되는 Site Recovery 기본 제공 모니터링을 검토합니다.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6680,19 +6669,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,17 +6688,17 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 SAP HANA 데이터베이스 서버를 암호화하는 데는 SAP HANA 네이티브 암호화 기술이 사용됩니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
+          <t>SAP HANA 시스템 환경 모니터링 지침을 검토합니다.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6730,19 +6715,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6734,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드 또는 애플리케이션을 수정할 필요가 없습니다.</t>
+          <t>Azure Linux VM 백업 전략에서 Oracle Database를 검토합니다.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6761,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6780,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>SQL Server 2016에서 Azure Blob Storage 사용을 검토합니다.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6807,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,17 +6825,17 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수도 있습니다.</t>
+          <t>Azure VM에 대한 자동화된 Backup v2 사용을 검토합니다.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6880,19 +6852,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,23 +6870,23 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>프리미엄 디스크(V1)를 사용할 때 M 시리즈에 쓰기 가속기 사용Enabling Write accelerator for M series when using premium disks(V1)</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6928,21 +6895,12 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6911,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
+          <t>가용성 영역 대기 시간을 테스트합니다.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6938,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6956,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>SAP 환경에서 엔드포인트용 Microsoft Defender 사용하도록 설정하는 경우 모든 서버를 대상으로 하는 대신 DBMS 서버에서 데이터 및 로그 파일을 제외하는 것이 좋습니다. 대상 파일을 제외할 때 DBMS 공급업체의 권장 사항을 따릅니다.</t>
+          <t>모든 SAP 구성 요소에 대해 SAP EarlyWatch Alert를 활성화합니다.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6983,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7006,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>클라우드용 Microsoft Defender의 Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+          <t>SAP ABAPMeter 보고서 /SSA/CAT를 사용하여 SAP 애플리케이션 서버-데이터베이스 서버 대기 시간을 검토합니다.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7080,19 +7033,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+          <t>CCMS를 사용하여 SQL Server 성능 모니터링을 검토합니다.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7128,21 +7081,12 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7097,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>SAP 애플리케이션 계층 VM과 DBMS VM(NIPING) 간의 네트워크 대기 시간을 테스트합니다.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7124,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7147,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>SAP HANA Studio 경고를 검토합니다.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7174,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7253,23 +7192,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
+          <t>HANA_Configuration_Minichecks를 사용하여 SAP HANA 상태 검사를 수행합니다.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7219,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7242,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Azure, 온-프레미스 또는 기타 클라우드 환경에서 Windows 및 Linux VM을 실행하는 경우 Azure Automation의 업데이트 관리 센터를 사용하여 보안 패치를 포함한 운영 체제 업데이트를 관리할 수 있습니다.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7264,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+          <t>SAP는 SAP 시스템을 보호하기 위해 즉각적인 조치가 필요한 매우 중요한 보안 패치 또는 핫픽스를 릴리스하므로 SAP 보안 OSS 노트를 정기적으로 검토합니다.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,18 +7342,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+          <t>SQL Server SAP의 경우 SQL Server SAP 시스템에서 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7425,19 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7387,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용할 수 있습니다. 이는 보안 감사에서 발생할 수 있는 잠재적 위험입니다.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7409,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7437,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+          <t>Azure에서 SAP HANA 데이터베이스 서버를 암호화하는 데는 SAP HANA 네이티브 암호화 기술이 사용됩니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7459,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,18 +7487,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드 또는 애플리케이션을 수정할 필요가 없습니다.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7575,19 +7509,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7537,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7559,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7587,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
+          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수도 있습니다.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7609,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,256 +7630,795 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>SAP 환경에서 엔드포인트용 Microsoft Defender 사용하도록 설정하는 경우 모든 서버를 대상으로 하는 대신 DBMS 서버에서 데이터 및 로그 파일을 제외하는 것이 좋습니다. 대상 파일을 제외할 때 DBMS 공급업체의 권장 사항을 따릅니다.</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>클라우드용 Microsoft Defender의 Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
       <c r="P158" s="25" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1">
-      <c r="A159" s="21" t="n"/>
-      <c r="B159" s="21" t="n"/>
-      <c r="C159" s="21" t="n"/>
+      <c r="A159" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B159" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C159" s="21" t="inlineStr">
+        <is>
+          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D159" s="21" t="n"/>
-      <c r="E159" s="21" t="n"/>
+      <c r="E159" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G159" s="21" t="n"/>
-      <c r="H159" s="15" t="n"/>
+      <c r="H159" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
-      <c r="L159" s="25" t="n"/>
+      <c r="L159" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M159" s="25" t="n"/>
       <c r="N159" s="25" t="n"/>
       <c r="O159" s="25" t="n"/>
@@ -10176,7 +10649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ko.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>계산</t>
+          <t>비용 최적화</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>올바른 VM SKU 및 영역에 대한 할당량 요청 만들기</t>
+          <t>SAP System Start-Stop을 자동화하여 비용을 관리합니다.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2789,13 +2789,17 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="n"/>
+      <c r="H43" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
+        </is>
+      </c>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2816,13 +2820,13 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>SAP System Start-Stop을 자동화하여 비용을 관리합니다.</t>
+          <t>SAP HANA와 함께 Azure Premium Storage를 사용하는 경우 Azure 표준 SSD 스토리지를 사용하여 비용에 민감한 스토리지 솔루션을 선택할 수 있습니다. 그러나 표준 SSD 또는 표준 HDD Azure Storage를 선택하면 개별 VM의 SLA에 영향을 줍니다. 또한 비프로덕션 환경과 같이 I/O 처리량이 낮고 대기 시간이 짧은 시스템의 경우 더 낮은 시리즈 VM을 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2833,7 +2837,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2841,7 +2845,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2852,23 +2856,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>ID 및 액세스</t>
+          <t>비용 최적화</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>저렴한 대체 구성(다목적)으로 비프로덕션 HANA 데이터베이스 서버 VM에 대해 저성능 SKU를 선택할 수 있습니다. 그러나 E 시리즈와 같은 일부 VM 유형은 HANA 인증(SAP HANA 하드웨어 디렉터리)되지 않았거나 1ms 미만의 스토리지 대기 시간을 달성할 수 없습니다.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2883,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2912,13 +2911,13 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 원칙 전파 적용</t>
+          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2928,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,7 +2961,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 Azure AD로 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 보안 주체 전파 적용</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2982,12 +2981,16 @@
           <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
-      <c r="I47" s="15" t="n"/>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3011,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>SAML을 사용하여 Azure AD로 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3028,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3073,17 +3071,21 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3106,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver SSO 또는 파트너 솔루션을 사용하여 SAP GUI에 대한 SSO를 구현할 수 있습니다.</t>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3119,21 +3121,17 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3152,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
+          <t>SAP NetWeaver SSO 또는 파트너 솔루션을 사용하여 SAP GUI에 대한 SSO를 구현할 수 있습니다.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3169,17 +3167,21 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3215,17 +3217,17 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+      <c r="H52" s="15" t="n"/>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3248,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver용 OAuth를 사용하여 SSO를 구현하여 타사 또는 사용자 지정 애플리케이션이 SAP NetWeaver OData 서비스에 액세스할 수 있도록 합니다.</t>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3263,14 +3265,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3293,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>SAP HANA에 대한 SSO 구현</t>
+          <t>SAP NetWeaver용 OAuth를 사용하여 SSO를 구현하여 타사 또는 사용자 지정 애플리케이션이 SAP NetWeaver OData 서비스에 액세스할 수 있도록 합니다.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3310,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3318,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3339,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure AD를 RISE에서 호스트되는 SAP 시스템의 ID 공급자로 간주합니다. 자세한 내용은 Azure AD와 서비스 통합을 참조하세요.</t>
+          <t>SAP HANA에 대한 SSO 구현</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3356,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3384,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>SAP에 액세스하는 애플리케이션의 경우 보안 주체 전파를 사용하여 SSO를 설정할 수 있습니다.</t>
+          <t>Azure AD를 RISE에서 호스트되는 SAP 시스템의 ID 공급자로 간주합니다. 자세한 내용은 Azure AD와 서비스 통합을 참조하세요.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3401,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3429,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 인증 요청을 전달할 수 있습니다.</t>
+          <t>SAP에 액세스하는 애플리케이션의 경우 보안 주체 전파를 사용하여 SSO를 설정할 수 있습니다.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3446,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3474,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>SAP BTP에 대한 SSO 구현</t>
+          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 인증 요청을 전달할 수 있습니다.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3491,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3519,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
+          <t>SAP BTP에 대한 SSO 구현</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3536,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3554,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>SAP 구독에 기존 관리 그룹 정책 적용</t>
+          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3581,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3612,13 +3609,13 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성 방지</t>
+          <t>SAP 구독에 기존 관리 그룹 정책 적용</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3626,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,7 +3659,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">구독을 배율 단위로 활용하고 리소스를 확장하려면 환경별로 구독을 배포하는 것이 좋습니다. 샌드박스, 비프로덕션, 프로덕션 </t>
+          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성 방지</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3684,14 +3681,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3709,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>구독 프로비저닝의 일부로 할당량 증가 확인(예: 구독 내에서 사용 가능한 총 VM 코어)</t>
+          <t xml:space="preserve">구독을 배율 단위로 활용하고 리소스를 확장하려면 환경별로 구독을 배포하는 것이 좋습니다. 샌드박스, 비프로덕션, 프로덕션 </t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3726,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3759,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>할당량 API는 Azure 서비스에 대한 할당량을 보고 관리하는 데 사용할 수 있는 REST API입니다. 필요한 경우 사용을 고려하십시오.</t>
+          <t>구독 프로비저닝의 일부로 할당량 증가 확인(예: 구독 내에서 사용 가능한 총 VM 코어)</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3776,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,13 +3809,13 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 사용하여 지원 요청을 제출합니다.</t>
+          <t>할당량 API는 Azure 서비스에 대한 할당량을 보고 관리하는 데 사용할 수 있는 REST API입니다. 필요한 경우 사용을 고려하십시오.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3825,7 +3826,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3833,7 +3834,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,7 +3855,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>예를 들어 선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다. ANF, 지역 등.</t>
+          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 사용하여 지원 요청을 제출합니다.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3871,19 +3872,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3900,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, 프로젝트 이름)</t>
+          <t>예를 들어 선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다. ANF, 지역 등.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3917,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,23 +3940,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR (영문)</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup 서비스를 사용하여 HANA 데이터베이스를 보호할 수 있습니다.</t>
+          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, 프로젝트 이름)</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3971,19 +3967,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4004,13 +4000,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>HANA, Oracle 또는 DB2 데이터베이스용 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
+          <t>Azure Backup 서비스를 사용하여 HANA 데이터베이스를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4021,15 +4017,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,18 +4045,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>경영</t>
+          <t>BCDR (영문)</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>운영 체제와 SAP 시스템 간의 표준 시간대 일치를 확인합니다.</t>
+          <t>HANA, Oracle 또는 DB2 데이터베이스용 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4067,7 +4067,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="I70" s="15" t="n"/>
@@ -4075,7 +4075,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4096,13 +4096,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>동일한 클러스터에서 서로 다른 애플리케이션 서비스를 그룹화하지 마세요. 예를 들어 DRBD와 중앙 서비스 클러스터를 동일한 클러스터에 결합하지 마세요. 그러나 동일한 Pacemaker 클러스터를 사용하여 약 5개의 서로 다른 중앙 서비스(다중 SID 클러스터)를 관리할 수 있습니다.</t>
+          <t>운영 체제와 SAP 시스템 간의 표준 시간대 일치를 확인합니다.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4113,19 +4113,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4142,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Azure 실행 비용을 절감하고 최적화하기 위해 다시 알림 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
+          <t>동일한 클러스터에서 서로 다른 애플리케이션 서비스를 그룹화하지 마세요. 예를 들어 DRBD와 중앙 서비스 클러스터를 동일한 클러스터에 결합하지 마세요. 그러나 동일한 Pacemaker 클러스터를 사용하여 약 5개의 서로 다른 중앙 서비스(다중 SID 클러스터)를 관리할 수 있습니다.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,15 +4159,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,13 +4192,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 고객의 손에 제어 권한을 부여합니다.</t>
+          <t>Azure 실행 비용을 절감하고 최적화하기 위해 다시 알림 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4209,7 +4209,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4217,7 +4217,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Azure Update Manager를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
+          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 고객의 손에 제어 권한을 부여합니다.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4255,19 +4255,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4284,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>SAP Landscape Management(LaMa)를 사용하여 SAP Basis 운영을 최적화하고 관리합니다. Azure용 SAP LaMa 커넥터를 사용하여 SAP 시스템을 재배치, 복사, 복제 및 새로 고칩니다.</t>
+          <t>Azure Update Manager를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4301,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,18 +4329,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>경영</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Azure Monitor 솔루션을 사용하여 Azure에서 SAP 워크로드(SAP HANA, 고가용성 SUSE 클러스터 및 SQL 시스템)를 모니터링합니다. SAP Solution Manager를 사용하여 SAP용 Azure Monitor 솔루션을 보완하는 것이 좋습니다.</t>
+          <t>SAP Landscape Management(LaMa)를 사용하여 SAP Basis 운영을 최적화하고 관리합니다. Azure용 SAP LaMa 커넥터를 사용하여 SAP 시스템을 재배치, 복사, 복제 및 새로 고칩니다.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4355,19 +4351,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4388,13 +4384,13 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>SAP용 VM 확장 검사를 실행합니다. SAP용 VM 확장은 VM(가상 머신)의 할당된 관리 ID를 사용하여 VM 모니터링 및 구성 데이터에 액세스합니다. 이 검사는 SAP 애플리케이션의 모든 성능 메트릭이 기본 SAP용 Azure 확장에서 제공되는지 확인합니다.</t>
+          <t>SAP용 Azure Monitor 솔루션을 사용하여 Azure에서 SAP 워크로드(SAP HANA, 고가용성 SUSE 클러스터 및 SQL 시스템)를 모니터링합니다. SAP Solution Manager를 사용하여 SAP용 Azure Monitor 솔루션을 보완하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4401,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,13 +4434,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>SAP용 VM 확장 검사를 실행합니다. SAP용 VM 확장은 VM(가상 머신)의 할당된 관리 ID를 사용하여 VM 모니터링 및 구성 데이터에 액세스합니다. 이 검사는 SAP 애플리케이션의 모든 성능 메트릭이 기본 SAP용 Azure 확장에서 제공되는지 확인합니다.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4455,19 +4451,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,7 +4484,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure Network Watcher의 연결 모니터를 사용하여 SAP 데이터베이스 및 애플리케이션 서버에 대한 대기 시간 메트릭을 모니터링합니다. 또는 Azure Monitor를 사용하여 네트워크 대기 시간 측정값을 수집하고 표시합니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4505,19 +4501,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4534,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
+          <t>Azure Network Watcher의 연결 모니터를 사용하여 SAP 데이터베이스 및 애플리케이션 서버에 대한 대기 시간 메트릭을 모니터링합니다. 또는 Azure Monitor를 사용하여 네트워크 대기 시간 측정값을 수집하고 표시합니다.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4551,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -5112,23 +5108,23 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>HTTP/S 앱을 안전하게 배달하려면 Application Gateway v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5139,19 +5135,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5167,12 +5163,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS (영문)</t>
+          <t>앱 제공</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 인식하는 경우에만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
+          <t>HTTP/S 앱을 안전하게 배달하려면 Application Gateway v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5189,19 +5185,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5222,7 +5218,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>서로 다른 DNS 영역을 사용하여 각 환경(샌드박스, 개발, 사전 프로덕션 및 프로덕션)을 서로 구분합니다. 예외는 자체 VNet을 사용하는 SAP 배포의 경우입니다. 여기서는 프라이빗 DNS 영역이 필요하지 않을 수 있습니다.</t>
+          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 인식하는 경우에만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5251,7 +5247,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5263,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>DNS (영문)</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 접근 방식입니다</t>
+          <t>서로 다른 DNS 영역을 사용하여 각 환경(샌드박스, 개발, 사전 프로덕션 및 프로덕션)을 서로 구분합니다. 예외는 자체 VNet을 사용하는 SAP 배포의 경우입니다. 여기서는 프라이빗 DNS 영역이 필요하지 않을 수 있습니다.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5285,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5322,13 +5318,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션과 SAP 데이터베이스 서버 간에 NVA를 배포하는 것은 지원되지 않습니다</t>
+          <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 접근 방식입니다</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5335,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,13 +5368,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+          <t>SAP 애플리케이션과 SAP 데이터베이스 서버 간에 NVA를 배포하는 것은 지원되지 않습니다</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5389,19 +5385,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,7 +5418,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>파트너 NVA를 사용하는 경우에만 지역 간에 NVA(네트워크 가상 어플라이언스)를 배포하는 것이 좋습니다. 네이티브 NVA가 있는 경우 지역 또는 VNet 간의 NVA가 필요하지 않습니다. 파트너 네트워킹 기술 및 NVA를 배포하는 경우 공급업체의 지침에 따라 Azure 네트워킹과 충돌하는 구성을 확인합니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5439,19 +5435,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5468,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN은 가상 WAN 기반 토폴로지에 대한 스포크 VNet 간의 연결을 관리하며(UDR[사용자 정의 라우팅] 또는 NVA를 설정할 필요 없음) 동일한 가상 허브의 VNet 간 트래픽에 대한 최대 네트워크 처리량은 초당 50기가비트입니다. 필요한 경우 SAP 랜딩 존은 VNet 피어링을 사용하여 다른 랜딩 존에 연결하고 이 대역폭 제한을 극복할 수 있습니다.</t>
+          <t>파트너 NVA를 사용하는 경우에만 지역 간에 NVA(네트워크 가상 어플라이언스)를 배포하는 것이 좋습니다. 네이티브 NVA가 있는 경우 지역 또는 VNet 간의 NVA가 필요하지 않습니다. 파트너 네트워킹 기술 및 NVA를 배포하는 경우 공급업체의 지침에 따라 Azure 네트워킹과 충돌하는 구성을 확인합니다.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5485,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5513,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>SAP 워크로드를 실행하는 VM에 대한 공용 I.P 할당은 권장되지 않습니다.</t>
+          <t>Virtual WAN은 가상 WAN 기반 토폴로지에 대한 스포크 VNet 간의 연결을 관리하며(UDR[사용자 정의 라우팅] 또는 NVA를 설정할 필요 없음) 동일한 가상 허브의 VNet 간 트래픽에 대한 최대 네트워크 처리량은 초당 50기가비트입니다. 필요한 경우 SAP 랜딩 존은 VNet 피어링을 사용하여 다른 랜딩 존에 연결하고 이 대역폭 제한을 극복할 수 있습니다.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5535,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5572,7 +5568,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>ASR을 구성할 때 DR 쪽에서 I.P 주소를 예약하는 것이 좋습니다.</t>
+          <t>SAP 워크로드를 실행하는 VM에 대한 공용 IP 할당은 권장되지 않습니다.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5589,19 +5585,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5618,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>ASR을 구성할 때 DR 쪽에서 IP 주소를 예약하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5639,19 +5635,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5668,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 위임된 서브넷이 하나만 존재할 수 있습니다. Azure NetApp Files에 대해 둘 이상의 위임된 서브넷을 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5685,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,12 +5713,12 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 위임된 서브넷이 하나만 존재할 수 있습니다. Azure NetApp Files에 대해 둘 이상의 위임된 서브넷을 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5739,19 +5735,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5772,7 +5768,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway가 SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 제한 사항이 있습니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5785,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5818,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway가 SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 제한 사항이 있습니다.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5835,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5868,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Application Gateway를 사용하여 HTTP/S 애플리케이션을 보호하는 경우 Azure Front Door의 Web Application Firewall 정책을 활용합니다. Azure Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5885,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5918,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
+          <t>Azure Front Door 및 Application Gateway를 사용하여 HTTP/S 애플리케이션을 보호하는 경우 Azure Front Door의 Web Application Firewall 정책을 활용합니다. Azure Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5939,7 +5935,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
@@ -5951,7 +5947,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5968,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5985,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6018,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>데이터 유출을 방지하려면 Azure Private Link를 사용하여 Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory 등과 같은 PaaS(Platform as a Service) 리소스에 안전하게 액세스합니다. Azure 프라이빗 엔드포인트는 VNet과 Azure Storage, Azure Backup 등과 같은 서비스 간의 트래픽을 보호하는 데도 도움이 될 수 있습니다. VNet과 프라이빗 엔드포인트 사용 서비스 간의 트래픽은 Microsoft 글로벌 네트워크를 통해 이동하므로 공용 인터넷에 노출되지 않습니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6035,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6063,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>데이터 유출을 방지하려면 Azure Private Link를 사용하여 Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory 등과 같은 PaaS(Platform as a Service) 리소스에 안전하게 액세스합니다. Azure 프라이빗 엔드포인트는 VNet과 Azure Storage, Azure Backup 등과 같은 서비스 간의 트래픽을 보호하는 데도 도움이 될 수 있습니다. VNet과 프라이빗 엔드포인트 사용 서비스 간의 트래픽은 Microsoft 글로벌 네트워크를 통해 이동하므로 공용 인터넷에 노출되지 않습니다.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6085,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6122,13 +6118,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
+          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6139,19 +6135,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,7 +6168,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간에 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 보안을 관리하는 데 도움이 되도록 가상 머신을 그룹화합니다.</t>
+          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6189,19 +6185,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6218,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>피어링되지 않은 다른 Azure VNet에 SAP 애플리케이션 계층 및 SAP DBMS를 배치하는 것은 지원되지 않습니다.</t>
+          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간에 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 보안을 관리하는 데 도움이 되도록 가상 머신을 그룹화합니다.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6235,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,13 +6268,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>SAP 애플리케이션에서 네트워크 대기 시간을 최적화하려면 Azure 근접 배치 그룹을 사용하는 것이 좋습니다.</t>
+          <t>피어링되지 않은 다른 Azure VNet에 SAP 애플리케이션 계층 및 SAP DBMS를 배치하는 것은 지원되지 않습니다.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6289,19 +6285,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,13 +6318,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>온-프레미스와 Azure 간에 분할된 SAP 애플리케이션 서버 계층 및 DBMS 계층을 실행하는 것은 전혀 지원되지 않습니다. 두 계층 모두 온-프레미스 또는 Azure에 완전히 상주해야 합니다.</t>
+          <t>SAP 애플리케이션에서 네트워크 대기 시간을 최적화하려면 Azure 근접 배치 그룹을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6339,19 +6335,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,7 +6368,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 다른 VNet에서 SAP 시스템의 DBMS(데이터베이스 관리 시스템) 및 애플리케이션 계층을 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내에서 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
+          <t>온-프레미스와 Azure 간에 분할된 SAP 애플리케이션 서버 계층 및 DBMS 계층을 실행하는 것은 전혀 지원되지 않습니다. 두 계층 모두 온-프레미스 또는 Azure에 완전히 상주해야 합니다.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6401,7 +6397,7 @@
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6418,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
+          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 다른 VNet에서 SAP 시스템의 DBMS(데이터베이스 관리 시스템) 및 애플리케이션 계층을 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내에서 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6435,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6468,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
+          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6485,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,17 +6508,17 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Azure, 온-프레미스 또는 기타 클라우드 환경에서 Windows 및 Linux VM을 실행하는 경우 Azure Automation의 업데이트 관리 센터를 사용하여 보안 패치를 포함한 운영 체제 업데이트를 관리할 수 있습니다.</t>
+          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6534,19 +6535,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,23 +6554,23 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>SAP는 SAP 시스템을 보호하기 위해 즉각적인 조치가 필요한 매우 중요한 보안 패치 또는 핫픽스를 릴리스하므로 SAP 보안 OSS 노트를 정기적으로 검토합니다.</t>
+          <t>Azure VM에 대한 SAP HANA 데이터베이스 백업을 검토합니다.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6584,19 +6581,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6600,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>SQL Server SAP의 경우 SQL Server SAP 시스템에서 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
+          <t>SAP에 사용되는 Site Recovery 기본 제공 모니터링을 검토합니다.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6627,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6635,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,17 +6646,17 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>지배구조</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용할 수 있습니다. 이는 보안 감사에서 발생할 수 있는 잠재적 위험입니다.</t>
+          <t>SAP HANA 시스템 환경 모니터링 지침을 검토합니다.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6680,19 +6673,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,23 +6692,23 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 SAP HANA 데이터베이스 서버를 암호화하는 데는 SAP HANA 네이티브 암호화 기술이 사용됩니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
+          <t>Azure Linux VM 백업 전략에서 Oracle Database를 검토합니다.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6730,19 +6719,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6738,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드 또는 애플리케이션을 수정할 필요가 없습니다.</t>
+          <t>SQL Server 2016에서 Azure Blob Storage 사용을 검토합니다.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6765,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6784,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>Azure VM에 대한 자동화된 Backup v2 사용을 검토합니다.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6811,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,23 +6829,23 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수도 있습니다.</t>
+          <t>프리미엄 디스크(V1)를 사용할 때 M 시리즈에 쓰기 가속기 사용Enabling Write accelerator for M series when using premium disks(V1)</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6878,21 +6854,12 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,17 +6870,17 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>가용성 영역 대기 시간을 테스트합니다.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6930,19 +6897,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6915,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
+          <t>모든 SAP 구성 요소에 대해 SAP EarlyWatch Alert를 활성화합니다.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6942,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6965,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>SAP 환경에서 엔드포인트용 Microsoft Defender 사용하도록 설정하는 경우 모든 서버를 대상으로 하는 대신 DBMS 서버에서 데이터 및 로그 파일을 제외하는 것이 좋습니다. 대상 파일을 제외할 때 DBMS 공급업체의 권장 사항을 따릅니다.</t>
+          <t>SAP ABAPMeter 보고서 /SSA/CAT를 사용하여 SAP 애플리케이션 서버-데이터베이스 서버 대기 시간을 검토합니다.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6992,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7015,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>클라우드용 Microsoft Defender의 Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+          <t>CCMS를 사용하여 SQL Server 성능 모니터링을 검토합니다.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7078,21 +7040,12 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+          <t>SAP 애플리케이션 계층 VM과 DBMS VM(NIPING) 간의 네트워크 대기 시간을 테스트합니다.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7130,19 +7083,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7106,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>SAP HANA Studio 경고를 검토합니다.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7133,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7151,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>성능</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>HANA_Configuration_Minichecks를 사용하여 SAP HANA 상태 검사를 수행합니다.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7178,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7258,18 +7201,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
+          <t>Azure, 온-프레미스 또는 기타 클라우드 환경에서 Windows 및 Linux VM을 실행하는 경우 Azure Automation의 업데이트 관리 센터를 사용하여 보안 패치를 포함한 운영 체제 업데이트를 관리할 수 있습니다.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7223,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7251,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SAP는 SAP 시스템을 보호하기 위해 즉각적인 조치가 필요한 매우 중요한 보안 패치 또는 핫픽스를 릴리스하므로 SAP 보안 OSS 노트를 정기적으로 검토합니다.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7273,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7301,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+          <t>SQL Server SAP의 경우 SQL Server SAP 시스템에서 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7323,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,12 +7346,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용할 수 있습니다. 이는 보안 감사에서 발생할 수 있는 잠재적 위험입니다.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7425,19 +7368,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7396,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+          <t>Azure에서 SAP HANA 데이터베이스 서버를 암호화하는 데는 SAP HANA 네이티브 암호화 기술이 사용됩니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7418,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7446,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드 또는 애플리케이션을 수정할 필요가 없습니다.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7468,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,12 +7496,12 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7575,19 +7518,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7546,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수도 있습니다.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7568,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7596,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7618,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,240 +7639,745 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>SAP 환경에서 엔드포인트용 Microsoft Defender 사용하도록 설정하는 경우 모든 서버를 대상으로 하는 대신 DBMS 서버에서 데이터 및 로그 파일을 제외하는 것이 좋습니다. 대상 파일을 제외할 때 DBMS 공급업체의 권장 사항을 따릅니다.</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>클라우드용 Microsoft Defender의 Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>비밀</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
@@ -10176,7 +10624,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F159" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ko.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -10728,6 +10728,11 @@
           <t>Use the "Import latest checklist" button to get the latest version of a review checklist</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>이 검사는 아직 검토되지 않았습니다</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
@@ -10750,6 +10755,11 @@
           <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>이 검사와 연관된 작업 항목이 있습니다</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>ja</t>
@@ -10772,6 +10782,11 @@
           <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>이 검사는 확인되었으며 이와 관련된 추가 작업 항목이 없습니다</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>ko</t>
@@ -10781,12 +10796,17 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>해당 없음</t>
+          <t>필요 없음</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>관리 및 모니터링</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>권장 사항은 이해되었지만 현재 요구 사항에 필요하지 않음</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -10798,7 +10818,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>해당 없음</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -10808,7 +10828,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Not applicable for current design</t>
+          <t>현재 설계에는 적용되지 않습니다.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">

--- a/spreadsheet/macrofree/sap_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ko.xlsx
@@ -7996,18 +7996,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8018,14 +8018,19 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8046,7 +8051,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8063,19 +8068,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8096,13 +8101,13 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8113,19 +8118,19 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8146,7 +8151,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8163,19 +8168,19 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8196,13 +8201,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8213,19 +8218,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8246,13 +8251,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8263,19 +8268,19 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8296,13 +8301,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8313,19 +8318,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8334,50 +8339,16 @@
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="inlineStr">
-        <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
-        </is>
-      </c>
-      <c r="B158" s="21" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="C158" s="21" t="inlineStr">
-        <is>
-          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
-        </is>
-      </c>
+      <c r="A158" s="21" t="n"/>
+      <c r="B158" s="21" t="n"/>
+      <c r="C158" s="21" t="n"/>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="E158" s="21" t="n"/>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H158" s="15" t="n"/>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="inlineStr">
-        <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
-        </is>
-      </c>
+      <c r="L158" s="25" t="n"/>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
@@ -10624,7 +10595,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F159" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F158" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ko.xlsx
@@ -6168,7 +6168,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
+          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정(유동 IP 사용)은 DBMS 계층의 고가용성 구성에 내부 부하 분산 장치 구성을 사용할 때 대기 시간을 줄입니다.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.ko.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>ACSS(Azure Center for SAP solutions)는 SAP를 Azure의 최상위 워크로드로 만드는 Azure 제품입니다. ACSS는 Azure에서 SAP 시스템을 통합 워크로드로 만들고 실행할 수 있도록 하는 엔드투엔드 솔루션으로, 혁신을 위한 보다 원활한 기반을 제공합니다. 신규 및 기존 Azure 기반 SAP 시스템 모두에 대한 관리 기능을 활용할 수 있습니다.</t>
+          <t>ACSS(Azure Center for SAP solutions)는 SAP를 Azure의 최상위 워크로드로 만드는 Azure 제품입니다. ACSS는 Azure에서 SAP 시스템을 통합 워크로드로 만들고 실행할 수 있도록 하는 엔드투엔드 솔루션으로, 혁신을 위한 보다 원활한 기반을 제공합니다. 새 Azure 기반 SAP 시스템과 기존 Azure 기반 SAP 시스템 모두에 대한 관리 기능을 활용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Azure는 Linux 및 Windows에서 SAP 배포 자동화를 지원합니다. SAP Deployment Automation Framework는 SAP 환경을 배포, 설치 및 유지 관리할 수 있는 오픈 소스 오케스트레이션 도구입니다.</t>
+          <t>Azure는 Linux 및 Windows에서 SAP 배포 자동화를 지원합니다. SAP Deployment Automation Framework는 SAP 환경을 배포, 설치 및 유지 관리할 수 있는 오픈 소스 오케스트레이션 툴입니다.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1159,7 +1159,7 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>RTO를 충족하는 시점과 시간 프레임에서 프로덕션 데이터베이스에 대한 특정 시점으로 복구를 수행합니다. 특정 시점 복구에는 일반적으로 DBMS 계층 또는 SAP를 통해 데이터를 삭제하는 운영자 오류가 포함됩니다</t>
+          <t>RTO를 충족하는 언제든지 특정 시점과 시간 프레임에서 프로덕션 데이터베이스에 대한 특정 시점 복구를 수행합니다. 특정 시점 복구에는 일반적으로 DBMS 계층 또는 SAP를 통해 데이터를 삭제하는 운영자 오류가 포함됩니다</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1205,7 +1205,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1247,7 +1247,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>쌍을 이루는 지역 간에 표준 스토리지를 복제할 수 있지만 표준 스토리지를 사용하여 데이터베이스 또는 가상 하드 디스크를 저장할 수는 없습니다. 사용하는 쌍을 이루는 지역 간에만 백업을 복제할 수 있습니다. 다른 모든 데이터의 경우 SQL Server Always On 또는 SAP HANA 시스템 복제와 같은 네이티브 DBMS 기능을 사용하여 복제를 실행합니다. SAP 애플리케이션 계층에 Site Recovery, rsync 또는 robocopy 및 기타 타사 소프트웨어의 조합을 사용합니다.</t>
+          <t>쌍을 이루는 지역 간에 표준 스토리지를 복제할 수 있지만 표준 스토리지를 사용하여 데이터베이스 또는 가상 하드 디스크를 저장할 수는 없습니다. 사용하는 쌍을 이루는 지역 간에만 백업을 복제할 수 있습니다. 다른 모든 데이터의 경우 SQL Server Always On 또는 SAP HANA 시스템 복제와 같은 기본 DBMS 기능을 사용하여 복제를 실행합니다. SAP 애플리케이션 계층에 Site Recovery, rsync 또는 robocopy 및 기타 타사 소프트웨어를 조합하여 사용합니다.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1297,7 +1297,7 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Azure 가용성 영역을 사용하여 고가용성을 달성하는 경우 SAP 애플리케이션 서버와 데이터베이스 서버 간의 대기 시간을 고려해야 합니다. 대기 시간이 긴 영역의 경우 SAP 애플리케이션 서버와 데이터베이스 서버가 항상 동일한 영역에서 실행되도록 운영 절차를 마련해야 합니다.</t>
+          <t>고가용성을 달성하기 위해 Azure 가용성 영역을 사용하는 경우 SAP 애플리케이션 서버와 데이터베이스 서버 간의 대기 시간을 고려해야 합니다. 대기 시간이 긴 영역의 경우 SAP 애플리케이션 서버와 데이터베이스 서버가 항상 동일한 영역에서 실행되도록 운영 절차를 마련해야 합니다.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1347,7 +1347,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>온-프레미스에서 기본 및 보조 Azure 재해 복구 지역으로의 ExpressRoute 연결을 설정합니다. 또한 ExpressRoute를 사용하는 대신 온-프레미스에서 주 및 보조 Azure 재해 복구 지역으로 VPN 연결을 설정하는 것이 좋습니다.</t>
+          <t>온-프레미스에서 주 및 보조 Azure 재해 복구 지역으로의 ExpressRoute 연결을 설정합니다. 또한 ExpressRoute를 사용하는 대신 온-프레미스에서 주 및 보조 Azure 재해 복구 지역으로 VPN 연결을 설정하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1397,7 +1397,7 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>DR 지역에서 데이터의 암호를 해독할 수 있도록 지역 간에 인증서, 비밀 또는 키와 같은 키 자격 증명 모음 콘텐츠를 복제합니다.</t>
+          <t>DR 지역에서 데이터의 암호를 해독할 수 있도록 인증서, 비밀 또는 키와 같은 키 자격 증명 모음 콘텐츠를 지역 간에 복제합니다.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1443,7 +1443,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1489,7 +1489,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1539,7 +1539,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1589,7 +1589,7 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>기본 VNet(가상 네트워크)에 대한 CIDR은 DR 사이트 VNet의 CIDR과 충돌하거나 겹치지 않아야 합니다</t>
+          <t>기본 VNet(가상 네트워크)의 CIDR은 DR 사이트 VNet의 CIDR과 충돌하거나 겹치지 않아야 합니다</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1639,7 +1639,7 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
@@ -1685,7 +1685,7 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
@@ -1735,7 +1735,7 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>SAP 및 SAP 데이터베이스의 경우 자동 장애 조치(failover) 클러스터를 구현하는 것이 좋습니다. Windows에서 Windows Server 장애 조치(failover) 클러스터링은 장애 조치(failover)를 지원합니다. Linux에서 Linux Pacemaker 또는 SIOS Protection Suite 및 Veritas InfoScale과 같은 타사 툴은 장애 조치를 지원합니다.</t>
+          <t>SAP 및 SAP 데이터베이스의 경우 자동 장애 조치(failover) 클러스터를 구현하는 것이 좋습니다. Windows에서 Windows Server 장애 조치(failover) 클러스터링은 장애 조치(failover)를 지원합니다. Linux에서 Linux Pacemaker 또는 SIOS Protection Suite 및 Veritas InfoScale과 같은 타사 도구는 장애 조치를 지원합니다.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1785,7 +1785,7 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
@@ -1835,7 +1835,7 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>DBMS 데이터 및 트랜잭션/다시 실행 로그 파일은 Azure 지원 블록 스토리지 또는 Azure NetApp Files에 저장됩니다. Azure Files 또는 Azure Premium Files는 DBMS 데이터 및/또는 SAP 워크로드가 있는 다시 실행 로그 파일에 대한 스토리지로 지원되지 않습니다.</t>
+          <t>DBMS 데이터 및 트랜잭션/다시 실행 로그 파일은 Azure 지원 블록 스토리지 또는 Azure NetApp Files에 저장됩니다. Azure Files 또는 Azure Premium Files는 SAP 워크로드를 사용하여 DBMS 데이터 및/또는 다시 실행 로그 파일에 대한 스토리지로 지원되지 않습니다.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1885,7 +1885,7 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
@@ -1935,7 +1935,7 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>SAP ASCS(애플리케이션 계층 구성 요소) 및 DBMS 계층에 대한 대부분의 장애 조치(failover) 클러스터에는 장애 조치(failover) 클러스터에 대한 가상 IP 주소가 필요합니다.  Azure Load Balancer는 다른 모든 경우에 대한 가상 IP 주소를 처리해야 합니다. 한 가지 설계 원칙은 클러스터 구성당 하나의 부하 분산 장치를 사용하는 것입니다. 부하 분산 장치의 표준 버전(표준 Load Balancer SKU)을 사용하는 것이 좋습니다.</t>
+          <t>SAP ASCS(애플리케이션 계층 구성 요소) 및 DBMS 계층에 대한 대부분의 장애 조치(failover) 클러스터에는 장애 조치(failover) 클러스터에 대한 가상 IP 주소가 필요합니다.  Azure Load Balancer는 다른 모든 경우에 대해 가상 IP 주소를 처리해야 합니다. 한 가지 설계 원칙은 클러스터 구성당 하나의 부하 분산 장치를 사용하는 것입니다. 부하 분산 장치의 표준 버전(표준 Load Balancer SKU)을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1985,7 +1985,7 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>로드 밸런서에서 유동 IP가 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>로드 밸런서에서 부동 IP가 활성화되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2035,7 +2035,7 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>고가용성 인프라를 배포하기 전에 선택한 지역에 따라 Azure 가용성 집합 또는 가용성 영역을 사용하여 배포할지 여부를 결정합니다.</t>
+          <t>고가용성 인프라를 배포하기 전에 선택한 지역에 따라 Azure 가용성 집합을 사용하여 배포할지 또는 가용성 영역을 사용하여 배포할지를 결정합니다.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2085,7 +2085,7 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>동일한 가용성 집합에 서로 다른 역할의 서버를 혼합하지 마십시오. 중앙 서비스 VM, 데이터베이스 VM, 애플리케이션 VM을 자체 가용성 집합으로 유지</t>
+          <t>동일한 가용성 집합에서 서로 다른 역할의 서버를 혼합하지 마십시오. 중앙 서비스 VM, 데이터베이스 VM, 애플리케이션 VM을 자체 가용성 집합으로 유지</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2180,7 +2180,7 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>가용성 집합을 만들 때 사용 가능한 최대 장애 도메인 및 업데이트 도메인 수를 사용합니다. 예를 들어 하나의 가용성 집합에 두 개 이상의 VM을 배포하는 경우 Azure의 계획된 유지 관리 외에도 잠재적인 물리적 하드웨어 오류, 네트워크 중단 또는 전원 중단의 영향을 제한하기 위해 최대 장애 도메인 수(3개)와 충분한 업데이트 도메인을 사용합니다. 장애 도메인의 기본 수는 2개이며 나중에 온라인으로 변경할 수 없습니다.</t>
+          <t>가용성 집합을 만들 때 사용 가능한 최대 장애 도메인 및 업데이트 도메인 수를 사용합니다. 예를 들어 하나의 가용성 집합에 두 개 이상의 VM을 배포하는 경우 Azure 계획된 유지 관리 외에도 잠재적인 물리적 하드웨어 오류, 네트워크 중단 또는 전원 중단의 영향을 제한할 수 있는 최대 장애 도메인 수(3개)와 충분한 업데이트 도메인을 사용합니다. 장애 도메인의 기본 수는 2개이며 나중에 온라인으로 변경할 수 없습니다.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2280,7 +2280,7 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
@@ -2326,7 +2326,7 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
@@ -2422,7 +2422,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure는 현재 동일한 Linux Pacemaker 클러스터에서 ASCS와 DB HA의 결합을 지원하지 않습니다. 개별 클러스터로 분리합니다. 그러나 최대 5개의 여러 중앙 서비스 클러스터를 한 쌍의 VM으로 결합할 수 있습니다.</t>
+          <t>Azure는 현재 동일한 Linux Pacemaker 클러스터에서 ASCS와 DB HA를 결합하는 것을 지원하지 않습니다. 개별 클러스터로 분리합니다. 그러나 최대 5개의 여러 중앙 서비스 클러스터를 한 쌍의 VM으로 결합할 수 있습니다.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2472,7 +2472,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>가용성 집합 또는 가용성 영역의 고가용성 쌍에 두 VM을 모두 배포합니다. 이러한 VM은 크기가 동일하고 스토리지 구성이 동일해야 합니다.</t>
+          <t>가용성 집합 또는 가용성 영역의 고가용성 쌍에 두 VM을 모두 배포합니다. 이러한 VM은 크기가 동일해야 하며 스토리지 구성이 동일해야 합니다.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2518,7 +2518,7 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure는 RHEL(Red Hat Enterprise Linux)에서 실행되는 동일한 고가용성 클러스터에 SAP HANA, ASCS/SCS 및 ERS 인스턴스의 설치 및 구성을 지원합니다.</t>
+          <t>Azure는 RHEL(Red Hat Enterprise Linux)에서 실행되는 동일한 고가용성 클러스터에서 SAP HANA와 ASCS/SCS 및 ERS 인스턴스의 설치 및 구성을 지원합니다.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2568,7 +2568,7 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>프리미엄 관리형 SSD에서 모든 프로덕션 시스템을 실행하고 Azure NetApp Files 또는 Ultra Disk Storage를 사용합니다. 적어도 OS 디스크는 프리미엄 계층에 있어야 더 나은 성능과 최상의 SLA를 달성할 수 있습니다.</t>
+          <t>프리미엄 관리형 SSD에서 모든 프로덕션 시스템을 실행하고 Azure NetApp Files 또는 Ultra Disk Storage를 사용합니다. 적어도 OS 디스크는 더 나은 성능과 최상의 SLA를 달성할 수 있도록 프리미엄 계층에 있어야 합니다.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2618,7 +2618,7 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
@@ -2626,11 +2626,7 @@
           <t>보관</t>
         </is>
       </c>
-      <c r="C40" s="21" t="inlineStr">
-        <is>
-          <t>Azure의 SAP HANA는 SAP에서 인증한 스토리지 유형에서만 실행해야 합니다. 특정 볼륨은 해당되는 경우 특정 디스크 구성에서 실행되어야 합니다. 이러한 구성에는 Write Accelerator 사용 및 Premium Storage 사용이 포함됩니다. 또한 스토리지에서 실행되는 파일 시스템이 시스템에서 실행되는 DBMS와 호환되는지 확인해야 합니다.</t>
-        </is>
-      </c>
+      <c r="C40" s="21" t="n"/>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
@@ -2668,7 +2664,7 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
+          <t>비즈니스 연속성 및 재해 복구Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
@@ -2716,21 +2712,13 @@
       <c r="P41" s="25" t="n"/>
     </row>
     <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="21" t="inlineStr">
-        <is>
-          <t>비즈니스 연속성 및 재해 복구</t>
-        </is>
-      </c>
+      <c r="A42" s="21" t="n"/>
       <c r="B42" s="21" t="inlineStr">
         <is>
           <t>보관</t>
         </is>
       </c>
-      <c r="C42" s="21" t="inlineStr">
-        <is>
-          <t>일부 지역에서는 다양한 네이티브 Azure Storage 서비스(예: Azure Files, Azure NetApp Files, Azure Shared Disk)를 사용하지 못할 수 있습니다. 따라서 장애 조치(failover) 후 DR 지역에서 유사한 SAP를 설정하려면 해당 스토리지 서비스가 DR 사이트에서 제공되는지 확인합니다.</t>
-        </is>
-      </c>
+      <c r="C42" s="21" t="n"/>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
@@ -2820,7 +2808,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>SAP HANA와 함께 Azure Premium Storage를 사용하는 경우 Azure 표준 SSD 스토리지를 사용하여 비용에 민감한 스토리지 솔루션을 선택할 수 있습니다. 그러나 표준 SSD 또는 표준 HDD Azure Storage를 선택하면 개별 VM의 SLA에 영향을 줍니다. 또한 비프로덕션 환경과 같이 I/O 처리량이 낮고 대기 시간이 짧은 시스템의 경우 더 낮은 시리즈 VM을 사용할 수 있습니다.</t>
+          <t>SAP HANA와 함께 Azure Premium Storage를 사용하는 경우 Azure Standard SSD Storage를 사용하여 비용에 민감한 스토리지 솔루션을 선택할 수 있습니다. 그러나 표준 SSD 또는 표준 HDD Azure Storage를 선택하면 개별 VM의 SLA에 영향을 줍니다. 또한 비프로덕션 환경과 같이 I/O 처리량이 낮고 대기 시간이 짧은 시스템의 경우 더 낮은 시리즈 VM을 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2854,11 +2842,7 @@
       <c r="P44" s="25" t="n"/>
     </row>
     <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="21" t="inlineStr">
-        <is>
-          <t>비용 최적화</t>
-        </is>
-      </c>
+      <c r="A45" s="21" t="n"/>
       <c r="B45" s="21" t="inlineStr">
         <is>
           <t>&amp;nbsp</t>
@@ -2866,7 +2850,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>저렴한 대체 구성(다목적)으로 비프로덕션 HANA 데이터베이스 서버 VM에 대해 저성능 SKU를 선택할 수 있습니다. 그러나 E 시리즈와 같은 일부 VM 유형은 HANA 인증(SAP HANA 하드웨어 디렉터리)되지 않았거나 1ms 미만의 스토리지 대기 시간을 달성할 수 없습니다.</t>
+          <t>저렴한 대체 구성(다목적)으로 비프로덕션 HANA 데이터베이스 서버 VM에 대해 저성능 SKU를 선택할 수 있습니다. 그러나 E 시리즈와 같은 일부 VM 유형은 HANA 인증(SAP HANA 하드웨어 디렉터리)되지 않았거나 1ms 미만의 스토리지 대기 시간을 달성할 수 없다는 점에 유의해야 합니다.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2909,17 +2893,9 @@
           <t>신원</t>
         </is>
       </c>
-      <c r="C46" s="21" t="inlineStr">
-        <is>
-          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
-        </is>
-      </c>
+      <c r="C46" s="21" t="n"/>
       <c r="D46" s="21" t="n"/>
-      <c r="E46" s="21" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
+      <c r="E46" s="21" t="n"/>
       <c r="F46" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -2961,7 +2937,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 보안 주체 전파 적용</t>
+          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 주체 전파 적용</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3011,7 +2987,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>SAML을 사용하여 Azure AD로 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
+          <t>SAML을 사용하여 Azure AD를 사용하여 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3049,22 +3025,14 @@
           <t>ID 및 액세스</t>
         </is>
       </c>
-      <c r="B49" s="21" t="inlineStr">
-        <is>
-          <t>신원</t>
-        </is>
-      </c>
+      <c r="B49" s="21" t="n"/>
       <c r="C49" s="21" t="inlineStr">
         <is>
           <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
+      <c r="E49" s="21" t="n"/>
       <c r="F49" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -3104,11 +3072,7 @@
           <t>신원</t>
         </is>
       </c>
-      <c r="C50" s="21" t="inlineStr">
-        <is>
-          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
-        </is>
-      </c>
+      <c r="C50" s="21" t="n"/>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
@@ -3152,7 +3116,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>SAP NetWeaver SSO 또는 파트너 솔루션을 사용하여 SAP GUI에 대한 SSO를 구현할 수 있습니다.</t>
+          <t>SAP NetWeaver SSO 또는 파트너 솔루션을 사용하여 SAP GUI에 SSO를 구현할 수 있습니다.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3202,7 +3166,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
+          <t>SAP GUI 및 웹 브라우저 액세스용 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP Secure Login Server를 고려합니다.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3246,11 +3210,7 @@
           <t>신원</t>
         </is>
       </c>
-      <c r="C53" s="21" t="inlineStr">
-        <is>
-          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
-        </is>
-      </c>
+      <c r="C53" s="21" t="n"/>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
@@ -3429,7 +3389,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>SAP에 액세스하는 애플리케이션의 경우 보안 주체 전파를 사용하여 SSO를 설정할 수 있습니다.</t>
+          <t>SAP에 액세스하는 애플리케이션의 경우 주체 전파를 사용하여 SSO를 설정할 수 있습니다.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3474,7 +3434,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 인증 요청을 전달할 수 있습니다.</t>
+          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 중앙 사용자 저장소 및 ID 공급자로 Azure AD에 인증 요청을 전달할 수 있습니다.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3564,7 +3524,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
+          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 신입 사원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 생성할 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD에서 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3599,7 +3559,7 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
@@ -3612,7 +3572,11 @@
           <t>SAP 구독에 기존 관리 그룹 정책 적용</t>
         </is>
       </c>
-      <c r="D61" s="21" t="n"/>
+      <c r="D61" s="21" t="inlineStr">
+        <is>
+          <t>관리 그룹 계층 구조를 4개 이하로 합리적으로 평평하게 유지합니다.</t>
+        </is>
+      </c>
       <c r="E61" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -3649,7 +3613,7 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
@@ -3699,7 +3663,7 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
@@ -3749,7 +3713,7 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
@@ -3759,7 +3723,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>구독 프로비저닝의 일부로 할당량 증가 확인(예: 구독 내에서 사용 가능한 총 VM 코어)</t>
+          <t>구독 프로비저닝의 일부로 할당량 증가를 보장(예: 구독 내에서 사용 가능한 총 VM 코어 수)</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3799,7 +3763,7 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
@@ -3845,7 +3809,7 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
@@ -3855,7 +3819,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 사용하여 지원 요청을 제출합니다.</t>
+          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 포함한 지원 요청을 제출합니다.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3890,7 +3854,7 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
@@ -3900,7 +3864,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>예를 들어 선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다. ANF, 지역 등.</t>
+          <t>필요한 서비스 및 기능이 선택한 배포 지역 내에서 사용할 수 있는지 확인합니다(예: ). ANF, 지역 등.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3940,7 +3904,7 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
@@ -3950,7 +3914,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, 프로젝트 이름)</t>
+          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 응용 프로그램 계층), 응용 프로그램 소유자, 프로젝트 이름)</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3995,7 +3959,7 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR (영문)</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
@@ -4045,12 +4009,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>BCDR (영문)</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>HANA, Oracle 또는 DB2 데이터베이스용 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
+          <t>HANA, Oracle 또는 DB2 데이터베이스에 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4192,7 +4156,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Azure 실행 비용을 절감하고 최적화하기 위해 다시 알림 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
+          <t>Azure 실행 비용을 절약하고 최적화하기 위해 스누즈 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4238,7 +4202,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 고객의 손에 제어 권한을 부여합니다.</t>
+          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 제어권을 고객에게 부여합니다.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4284,7 +4248,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Azure Update Manager를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
+          <t>Azure 업데이트 관리자를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4484,7 +4448,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용할 수 있는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4680,7 +4644,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>복원력 보고서를 실행하여 프로비저닝된 전체 Azure 인프라(컴퓨팅, 데이터베이스, 네트워킹, 스토리지, Site Recovery)의 구성이 Azure용 클라우드 적응 프레임워크에서 정의한 구성을 준수하는지 확인합니다.</t>
+          <t>복원력 보고서를 실행하여 프로비저닝된 전체 Azure 인프라(컴퓨팅, 데이터베이스, 네트워킹, 스토리지, Site Recovery)의 구성이 Azure용 Cloud Adaption Framework에서 정의한 구성을 준수하는지 확인합니다.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4730,7 +4694,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>SAP용 Microsoft Sentinel 솔루션을 사용하여 위협 방지를 구현합니다. 이 솔루션을 사용하여 SAP 시스템을 모니터링하고 비즈니스 로직 및 애플리케이션 계층 전체에서 정교한 위협을 탐지할 수 있습니다.</t>
+          <t>SAP용 Microsoft Sentinel 솔루션을 사용하여 위협 방지를 구현합니다. 이 솔루션을 사용하여 SAP 시스템을 모니터링하고 비즈니스 로직 및 애플리케이션 계층 전반에서 정교한 위협을 탐지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4926,7 +4890,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>모든 데이터베이스 파일 시스템 및 실행 프로그램을 바이러스 백신 검사에서 제외합니다. 이를 포함하면 성능 문제가 발생할 수 있습니다. 제외 목록에 대한 규범적 세부 정보는 데이터베이스 공급업체에 문의하십시오. 예를 들어 &lt;sid&gt;Oracle은 바이러스 백신 검사에서 /oracle//sapdata를 제외할 것을 권장합니다.</t>
+          <t>모든 데이터베이스 파일 시스템 및 실행 프로그램을 바이러스 백신 검사에서 제외합니다. 이를 포함하면 성능 문제가 발생할 수 있습니다. 제외 목록에 대한 규범적 세부 정보는 데이터베이스 공급업체에 문의하십시오. 예를 들어 Oracle은 &lt;sid&gt;바이러스 백신 검사에서 /oracle//sapdata를 제외하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -5018,7 +4982,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 SAP를 사용하는 모든 Oracle 배포에 Oracle ASM(Automatic Storage Management)을 사용하는 것이 좋습니다.</t>
+          <t>Azure에서 SAP를 사용하는 모든 Oracle 배포에 Oracle ASM(자동 스토리지 관리)을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5068,7 +5032,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Oracle을 실행하는 Azure의 SAP의 경우 SQL 스크립트 컬렉션은 성능 문제를 진단하는 데 도움이 될 수 있습니다.  AWR(Automatic Workload Repository) 보고서에는 Oracle 시스템의 문제점을 진단하는 데 유용한 정보가 포함되어 있습니다. 여러 세션 동안 AWR 보고서를 실행하고 피크 시간을 선택하여 광범위한 분석 범위를 보장하는 것이 좋습니다.</t>
+          <t>Oracle을 실행하는 Azure의 SAP의 경우 SQL 스크립트 컬렉션을 통해 성능 문제를 진단할 수 있습니다.  AWR(Automatic Workload Repository) 보고서에는 Oracle 시스템의 문제를 진단하는 데 유용한 정보가 포함되어 있습니다. 여러 세션 동안 AWR 보고서를 실행하고 최대 피크 시간을 선택하여 분석에 대한 광범위한 적용 범위를 보장하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5158,12 +5122,12 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>앱 제공</t>
+          <t>앱 배송</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
@@ -5208,7 +5172,7 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B94" s="21" t="inlineStr">
@@ -5218,7 +5182,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 인식하는 경우에만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
+          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 가끔씩만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5258,7 +5222,7 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B95" s="21" t="inlineStr">
@@ -5308,7 +5272,7 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B96" s="21" t="inlineStr">
@@ -5321,7 +5285,11 @@
           <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 접근 방식입니다</t>
         </is>
       </c>
-      <c r="D96" s="21" t="n"/>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>VNet 피어링을 구성할 때 원격 가상 네트워크에 대한 트래픽 허용 설정을 사용합니다.</t>
+        </is>
+      </c>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>보통</t>
@@ -5358,7 +5326,7 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
@@ -5408,7 +5376,7 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
@@ -5418,7 +5386,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 새로운, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5458,7 +5426,7 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
@@ -5508,7 +5476,7 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
@@ -5558,7 +5526,7 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
@@ -5568,7 +5536,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>SAP 워크로드를 실행하는 VM에 대한 공용 IP 할당은 권장되지 않습니다.</t>
+          <t>SAP Workload를 실행하는 VM에 공용 IP를 할당하는 것은 권장되지 않습니다.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5608,7 +5576,7 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
@@ -5658,7 +5626,7 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
@@ -5708,7 +5676,7 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
@@ -5718,7 +5686,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 위임된 서브넷이 하나만 존재할 수 있습니다. Azure NetApp Files에 대해 둘 이상의 위임된 서브넷을 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
+          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 하나의 위임된 서브넷만 존재할 수 있습니다. Azure NetApp Files에 대해 둘 이상의 위임된 서브넷을 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5758,7 +5726,7 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
@@ -5768,7 +5736,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5808,7 +5776,7 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
@@ -5818,7 +5786,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway가 SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 제한 사항이 있습니다.</t>
+          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway 및 Web Application Firewall SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 대한 제한 사항이 있습니다.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5858,7 +5826,7 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
@@ -5868,7 +5836,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역 전체에서 글로벌 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5908,7 +5876,7 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
@@ -5958,7 +5926,7 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
@@ -5968,7 +5936,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
+          <t>웹 응용 프로그램 방화벽을 사용하여 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6008,7 +5976,7 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
@@ -6018,7 +5986,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 새로운, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6058,7 +6026,7 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
@@ -6108,7 +6076,7 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
@@ -6158,7 +6126,7 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
@@ -6168,7 +6136,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정(유동 IP 사용)은 DBMS 계층의 고가용성 구성에 내부 부하 분산 장치 구성을 사용할 때 대기 시간을 줄입니다.</t>
+          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정(유동 IP 사용)은 DBMS 계층의 고가용성 구성에 내부 로드 밸런서 구성을 사용할 때 대기 시간을 줄입니다.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6208,7 +6176,7 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
@@ -6218,7 +6186,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간에 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 보안을 관리하는 데 도움이 되도록 가상 머신을 그룹화합니다.</t>
+          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간의 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 가상 머신을 그룹화하여 보안을 관리하는 데 도움을 줍니다.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6258,7 +6226,7 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
@@ -6308,7 +6276,7 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
@@ -6358,7 +6326,7 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
@@ -6408,7 +6376,7 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
@@ -6418,7 +6386,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 다른 VNet에서 SAP 시스템의 DBMS(데이터베이스 관리 시스템) 및 애플리케이션 계층을 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내에서 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
+          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 DBMS(데이터베이스 관리 시스템) 및 SAP 시스템의 애플리케이션 계층을 서로 다른 VNet에 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내의 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6458,7 +6426,7 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
@@ -6508,7 +6476,7 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
@@ -6839,7 +6807,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>프리미엄 디스크(V1)를 사용할 때 M 시리즈에 쓰기 가속기 사용Enabling Write accelerator for M series when using premium disks(V1)</t>
+          <t>프리미엄 디스크(V1)를 사용하는 경우 M 시리즈에 쓰기 가속기 사용</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6925,7 +6893,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>모든 SAP 구성 요소에 대해 SAP EarlyWatch Alert를 활성화합니다.</t>
+          <t>모든 SAP 구성요소에 대해 SAP EarlyWatch Alert를 활성화합니다.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -7116,7 +7084,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>SAP HANA Studio 경고를 검토합니다.</t>
+          <t>SAP HANA Studio 알림을 검토합니다.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7161,7 +7129,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>HANA_Configuration_Minichecks를 사용하여 SAP HANA 상태 검사를 수행합니다.</t>
+          <t>HANA_Configuration_Minichecks를 사용하여 SAP HANA 상태 점검을 수행합니다.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7306,7 +7274,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>SQL Server SAP의 경우 SQL Server SAP 시스템에서 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
+          <t>SQL Server SAP의 경우 SQL Server 시스템 관리자 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7351,7 +7319,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용할 수 있습니다. 이는 보안 감사에서 발생할 수 있는 잠재적 위험입니다.</t>
+          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용하도록 설정합니다. 이는 보안 감사에서 잠재적인 위험입니다.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7401,7 +7369,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 SAP HANA 데이터베이스 서버를 암호화하는 데는 SAP HANA 네이티브 암호화 기술이 사용됩니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
+          <t>Azure에서 SAP HANA 데이터베이스 서버를 암호화하려면 SAP HANA 네이티브 암호화 기술을 사용합니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7451,7 +7419,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드 또는 애플리케이션을 수정할 필요가 없습니다.</t>
+          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드나 애플리케이션을 수정할 필요가 없습니다.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7551,7 +7519,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수도 있습니다.</t>
+          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 또한 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7901,7 +7869,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>애플리케이션당 환경, 지역별 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -8001,7 +7969,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+          <t>Azure 스포크 구독의 SAP에 대한 RBAC(역할 기반 액세스 제어) 역할을 사용자 지정하여 실수로 인한 네트워크 관련 변경을 방지합니다.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8051,7 +8019,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+          <t>SAP 자산의 나머지 부분에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8201,7 +8169,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 인터넷 또는 온-프레미스 네트워크에서 SAP 애플리케이션 및 데이터베이스 서버를 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -10723,7 +10691,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>네트워크 토폴로지 및 연결성</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -10777,7 +10745,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>권장 사항은 이해되었지만 현재 요구 사항에 필요하지 않음</t>
+          <t>권장 사항을 이해하지만 현재 요구 사항에 필요하지 않음</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -10794,7 +10762,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>관리 그룹 및 구독Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
